--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Edite/Documents/GitHub/Norsk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FF04FF-1EE9-4E47-AC34-62B108BC267E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CBBA0D-1AA9-2C42-A6DE-BD690757E87A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{D9759F51-050D-AD4F-8F66-76048091BB84}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19160" xr2:uid="{D9759F51-050D-AD4F-8F66-76048091BB84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$403</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$403</definedName>
     <definedName name="A" localSheetId="0">Sheet1!#REF!</definedName>
     <definedName name="B" localSheetId="0">Sheet1!#REF!</definedName>
     <definedName name="Bottom" localSheetId="0">Sheet1!#REF!</definedName>
@@ -2832,9 +2832,6 @@
     <t>flyktet</t>
   </si>
   <si>
-    <t>flytte</t>
-  </si>
-  <si>
     <t>flytter</t>
   </si>
   <si>
@@ -5160,9 +5157,6 @@
     <t>mount</t>
   </si>
   <si>
-    <t>move</t>
-  </si>
-  <si>
     <t>move slowly</t>
   </si>
   <si>
@@ -7411,9 +7405,6 @@
   </si>
   <si>
     <t>ba</t>
-  </si>
-  <si>
-    <t>å be</t>
   </si>
   <si>
     <t>føk</t>
@@ -7438,6 +7429,15 @@
   </si>
   <si>
     <t>pep, peip</t>
+  </si>
+  <si>
+    <t>to move (house)</t>
+  </si>
+  <si>
+    <t>å flytte</t>
+  </si>
+  <si>
+    <t>å be</t>
   </si>
 </sst>
 </file>
@@ -7511,97 +7511,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7942,11 +7852,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D606EB6-DDD9-5541-BF00-985EF5E483D1}">
-  <dimension ref="A1:E415"/>
+  <dimension ref="A1:AO415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A389" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C406" sqref="C406"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -7956,7 +7866,7 @@
     <col min="3" max="3" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="42" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -7978,7 +7888,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>533</v>
@@ -7995,7 +7905,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>555</v>
@@ -8004,7 +7914,7 @@
         <v>556</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1905</v>
+        <v>1902</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>557</v>
@@ -8012,7 +7922,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>741</v>
@@ -8021,7 +7931,7 @@
         <v>742</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>743</v>
@@ -8046,7 +7956,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>816</v>
@@ -8063,36 +7973,36 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>1321</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>1322</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>1132</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -8131,53 +8041,53 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>1428</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>1429</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>1430</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>1431</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>1354</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>1355</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>1356</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>1246</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>1248</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -8185,13 +8095,13 @@
         <v>107</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1904</v>
+        <v>1908</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>514</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>515</v>
@@ -8216,7 +8126,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>695</v>
@@ -8233,7 +8143,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>850</v>
@@ -8250,7 +8160,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>806</v>
@@ -8267,7 +8177,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>3</v>
@@ -8352,19 +8262,19 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>974</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -8386,24 +8296,24 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>970</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>809</v>
@@ -8420,7 +8330,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>765</v>
@@ -8429,10 +8339,10 @@
         <v>766</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -8463,7 +8373,7 @@
         <v>772</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>773</v>
@@ -8488,7 +8398,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>519</v>
@@ -8505,7 +8415,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>848</v>
@@ -8522,7 +8432,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>856</v>
@@ -8539,7 +8449,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>853</v>
@@ -8556,7 +8466,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>860</v>
@@ -8573,24 +8483,24 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>978</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>673</v>
@@ -8599,7 +8509,7 @@
         <v>674</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>675</v>
@@ -8607,24 +8517,24 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>1019</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>867</v>
@@ -8641,24 +8551,24 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>1158</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>715</v>
@@ -8675,7 +8585,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>864</v>
@@ -8709,7 +8619,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>874</v>
@@ -8752,7 +8662,7 @@
         <v>749</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>750</v>
@@ -8760,7 +8670,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>865</v>
@@ -8777,36 +8687,36 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>1064</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>1280</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>1282</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>1283</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -8828,58 +8738,58 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>1068</v>
-      </c>
       <c r="E52" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>944</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>1478</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>1479</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>1480</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>1481</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>802</v>
@@ -8896,7 +8806,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>914</v>
@@ -8913,7 +8823,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>878</v>
@@ -8930,7 +8840,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>653</v>
@@ -8947,7 +8857,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>819</v>
@@ -8964,16 +8874,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>705</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>706</v>
@@ -8981,7 +8891,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>495</v>
@@ -8990,10 +8900,10 @@
         <v>496</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -9015,24 +8925,24 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>1071</v>
-      </c>
       <c r="E63" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>639</v>
@@ -9049,41 +8959,41 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>1238</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>1239</v>
-      </c>
       <c r="E65" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>1290</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>1291</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>1292</v>
-      </c>
       <c r="E66" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>605</v>
@@ -9092,15 +9002,15 @@
         <v>606</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>722</v>
@@ -9109,7 +9019,7 @@
         <v>723</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>724</v>
@@ -9117,19 +9027,19 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>1011</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -9151,70 +9061,70 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>1051</v>
-      </c>
       <c r="E71" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>1310</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>1311</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>1312</v>
-      </c>
       <c r="E72" s="1" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>1007</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>1090</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -9236,70 +9146,70 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>1094</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>1086</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>1096</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>1098</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>1099</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>1102</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>1103</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -9321,41 +9231,41 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>1044</v>
-      </c>
       <c r="E81" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>504</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>607</v>
@@ -9364,15 +9274,15 @@
         <v>608</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>711</v>
@@ -9389,7 +9299,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>612</v>
@@ -9398,7 +9308,7 @@
         <v>613</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>614</v>
@@ -9406,24 +9316,24 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="E86" s="1" t="s">
         <v>982</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>580</v>
@@ -9432,7 +9342,7 @@
         <v>581</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>582</v>
@@ -9440,7 +9350,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>899</v>
@@ -9457,7 +9367,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>661</v>
@@ -9474,7 +9384,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>594</v>
@@ -9483,7 +9393,7 @@
         <v>595</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>596</v>
@@ -9491,7 +9401,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>603</v>
@@ -9500,32 +9410,32 @@
         <v>604</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>1441</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>1442</v>
-      </c>
       <c r="E92" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>881</v>
@@ -9542,7 +9452,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>540</v>
@@ -9559,19 +9469,19 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>505</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -9593,41 +9503,41 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>1243</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>1244</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>1245</v>
-      </c>
       <c r="E97" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>1163</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>1165</v>
-      </c>
       <c r="E98" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>751</v>
@@ -9636,7 +9546,7 @@
         <v>752</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>753</v>
@@ -9644,7 +9554,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>884</v>
@@ -9661,41 +9571,41 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>1177</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>1178</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>1179</v>
-      </c>
       <c r="E101" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>1173</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="E102" s="1" t="s">
         <v>1175</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>1176</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>832</v>
@@ -9729,7 +9639,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>571</v>
@@ -9738,7 +9648,7 @@
         <v>572</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>573</v>
@@ -9746,24 +9656,24 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>955</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>888</v>
@@ -9814,7 +9724,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>840</v>
@@ -9848,24 +9758,24 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="E112" s="1" t="s">
         <v>1026</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>892</v>
@@ -9882,19 +9792,19 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="D114" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="E114" s="1" t="s">
         <v>1078</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -9933,13 +9843,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>1339</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>1340</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>690</v>
@@ -9950,7 +9860,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>823</v>
@@ -9967,58 +9877,58 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>1482</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="D119" s="1" t="s">
         <v>1483</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>1484</v>
-      </c>
       <c r="E119" s="1" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>1462</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="D120" s="1" t="s">
         <v>1463</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="E120" s="1" t="s">
         <v>1464</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>1389</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="D121" s="1" t="s">
         <v>1390</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="E121" s="1" t="s">
         <v>1391</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>1392</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>909</v>
@@ -10035,7 +9945,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>794</v>
@@ -10052,33 +9962,33 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>1341</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="D124" s="1" t="s">
         <v>1342</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>1343</v>
-      </c>
       <c r="E124" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>635</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>636</v>
@@ -10086,19 +9996,19 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="E126" s="1" t="s">
         <v>1106</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -10120,7 +10030,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>910</v>
@@ -10137,53 +10047,53 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="D129" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="E129" s="1" t="s">
         <v>1191</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>1192</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>1489</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="D130" s="1" t="s">
         <v>1490</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="E130" s="1" t="s">
         <v>1491</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>1492</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>1493</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>1494</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="E131" s="1" t="s">
         <v>1495</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>1496</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -10205,24 +10115,24 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B133" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>1500</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>1501</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="E133" s="1" t="s">
         <v>1502</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>1503</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>757</v>
@@ -10256,19 +10166,19 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>1368</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="D136" s="1" t="s">
         <v>1369</v>
       </c>
-      <c r="D136" s="1" t="s">
-        <v>1370</v>
-      </c>
       <c r="E136" s="1" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -10307,19 +10217,19 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="D139" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="E139" s="1" t="s">
         <v>966</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -10341,7 +10251,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>917</v>
@@ -10358,24 +10268,24 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>1215</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="D142" s="1" t="s">
         <v>1216</v>
       </c>
-      <c r="D142" s="1" t="s">
-        <v>1217</v>
-      </c>
       <c r="E142" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>924</v>
@@ -10392,7 +10302,7 @@
     </row>
     <row r="144" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>546</v>
@@ -10401,7 +10311,7 @@
         <v>547</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>548</v>
@@ -10409,10 +10319,10 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>544</v>
@@ -10421,12 +10331,12 @@
         <v>545</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>589</v>
@@ -10435,15 +10345,15 @@
         <v>590</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>491</v>
@@ -10460,7 +10370,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>774</v>
@@ -10494,24 +10404,24 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="D150" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="E150" s="1" t="s">
         <v>948</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>552</v>
@@ -10520,7 +10430,7 @@
         <v>553</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>554</v>
@@ -10528,7 +10438,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>574</v>
@@ -10537,7 +10447,7 @@
         <v>575</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>576</v>
@@ -10545,19 +10455,19 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B153" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="D153" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="E153" s="1" t="s">
         <v>986</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -10596,33 +10506,33 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B156" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="D156" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="E156" s="1" t="s">
         <v>1122</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>1123</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>665</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>666</v>
@@ -10630,19 +10540,19 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="D158" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="E158" s="1" t="s">
         <v>1003</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -10681,7 +10591,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>644</v>
@@ -10690,7 +10600,7 @@
         <v>645</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>646</v>
@@ -10698,7 +10608,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>829</v>
@@ -10715,41 +10625,41 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B163" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="D163" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="E163" s="1" t="s">
         <v>1034</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="B164" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="D164" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="D164" s="1" t="s">
-        <v>1023</v>
-      </c>
       <c r="E164" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>577</v>
@@ -10758,7 +10668,7 @@
         <v>578</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>579</v>
@@ -10766,58 +10676,58 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B166" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>1525</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="D166" s="1" t="s">
         <v>1526</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="E166" s="1" t="s">
         <v>1527</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>1528</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B167" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="D167" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="D167" s="1" t="s">
-        <v>997</v>
-      </c>
       <c r="E167" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="B168" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="D168" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="D168" s="1" t="s">
-        <v>959</v>
-      </c>
       <c r="E168" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>826</v>
@@ -10834,36 +10744,36 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="D170" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="E170" s="1" t="s">
         <v>1030</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="B171" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>1504</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="D171" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="E171" s="1" t="s">
         <v>1506</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>1507</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -10902,36 +10812,36 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="B174" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="D174" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="D174" s="1" t="s">
-        <v>1054</v>
-      </c>
       <c r="E174" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="B175" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>1335</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="D175" s="1" t="s">
         <v>1336</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="E175" s="1" t="s">
         <v>1337</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
@@ -10970,7 +10880,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>591</v>
@@ -10979,7 +10889,7 @@
         <v>592</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>593</v>
@@ -11004,19 +10914,19 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="B180" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="D180" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="E180" s="1" t="s">
         <v>1110</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>1111</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
@@ -11038,24 +10948,24 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="B182" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="D182" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="D182" s="1" t="s">
-        <v>1057</v>
-      </c>
       <c r="E182" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>597</v>
@@ -11064,7 +10974,7 @@
         <v>598</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>599</v>
@@ -11072,36 +10982,36 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B184" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C184" s="1" t="s">
         <v>1538</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="D184" s="1" t="s">
         <v>1539</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="E184" s="1" t="s">
         <v>1540</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>1541</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="B185" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C185" s="1" t="s">
         <v>1351</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="D185" s="1" t="s">
         <v>1352</v>
       </c>
-      <c r="D185" s="1" t="s">
-        <v>1353</v>
-      </c>
       <c r="E185" s="1" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
@@ -11123,24 +11033,24 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B187" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C187" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="D187" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="E187" s="1" t="s">
         <v>1060</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>920</v>
@@ -11157,19 +11067,19 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="B189" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="D189" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="D189" s="1" t="s">
-        <v>1041</v>
-      </c>
       <c r="E189" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
@@ -11191,19 +11101,19 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="B191" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="D191" s="1" t="s">
         <v>1380</v>
       </c>
-      <c r="D191" s="1" t="s">
-        <v>1381</v>
-      </c>
       <c r="E191" s="1" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
@@ -11225,19 +11135,19 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="B193" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>1421</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="D193" s="1" t="s">
         <v>1422</v>
       </c>
-      <c r="D193" s="1" t="s">
-        <v>1423</v>
-      </c>
       <c r="E193" s="1" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
@@ -11276,19 +11186,19 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="B196" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C196" s="1" t="s">
         <v>1313</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="D196" s="1" t="s">
         <v>1314</v>
       </c>
-      <c r="D196" s="1" t="s">
-        <v>1315</v>
-      </c>
       <c r="E196" s="1" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
@@ -11361,36 +11271,36 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>1141</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="D201" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="D201" s="1" t="s">
-        <v>1143</v>
-      </c>
       <c r="E201" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="B202" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C202" s="1" t="s">
         <v>1454</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="D202" s="1" t="s">
         <v>1455</v>
       </c>
-      <c r="D202" s="1" t="s">
+      <c r="E202" s="1" t="s">
         <v>1456</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>1457</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
@@ -11412,19 +11322,19 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B204" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C204" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="D204" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="D204" s="1" t="s">
-        <v>1140</v>
-      </c>
       <c r="E204" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
@@ -11446,7 +11356,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>439</v>
@@ -11463,138 +11373,138 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B207" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C207" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="D207" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="E207" s="1" t="s">
         <v>1150</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B208" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="D208" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="E208" s="1" t="s">
         <v>1154</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B209" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C209" s="1" t="s">
         <v>1222</v>
       </c>
-      <c r="C209" s="1" t="s">
+      <c r="D209" s="1" t="s">
         <v>1223</v>
       </c>
-      <c r="D209" s="1" t="s">
+      <c r="E209" s="1" t="s">
         <v>1224</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>1225</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B210" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="C210" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="D210" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="D210" s="1" t="s">
-        <v>1000</v>
-      </c>
       <c r="E210" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B211" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C211" s="1" t="s">
         <v>1185</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="D211" s="1" t="s">
         <v>1186</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="E211" s="1" t="s">
         <v>1187</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>1188</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="B212" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C212" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="D212" s="1" t="s">
         <v>1145</v>
       </c>
-      <c r="D212" s="1" t="s">
+      <c r="E212" s="1" t="s">
         <v>1146</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B213" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C213" s="1" t="s">
         <v>1166</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="D213" s="1" t="s">
         <v>1167</v>
       </c>
-      <c r="D213" s="1" t="s">
-        <v>1168</v>
-      </c>
       <c r="E213" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C214" s="1" t="s">
         <v>1446</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="D214" s="1" t="s">
         <v>1447</v>
       </c>
-      <c r="D214" s="1" t="s">
+      <c r="E214" s="1" t="s">
         <v>1448</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>1449</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
@@ -11616,92 +11526,92 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>1401</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="D216" s="1" t="s">
         <v>1402</v>
       </c>
-      <c r="D216" s="1" t="s">
+      <c r="E216" s="1" t="s">
         <v>1403</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>1404</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B217" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C217" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="D217" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="D217" s="1" t="s">
+      <c r="E217" s="1" t="s">
         <v>1074</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B218" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C218" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="D218" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="D218" s="1" t="s">
+      <c r="E218" s="1" t="s">
         <v>1015</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B219" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C219" s="1" t="s">
         <v>1160</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="D219" s="1" t="s">
         <v>1161</v>
       </c>
-      <c r="D219" s="1" t="s">
-        <v>1162</v>
-      </c>
       <c r="E219" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B220" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="C220" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="D220" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="D220" s="1" t="s">
-        <v>990</v>
-      </c>
       <c r="E220" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>516</v>
@@ -11710,7 +11620,7 @@
         <v>517</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>518</v>
@@ -11718,19 +11628,19 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B222" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C222" s="1" t="s">
         <v>1169</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="D222" s="1" t="s">
         <v>1170</v>
       </c>
-      <c r="D222" s="1" t="s">
+      <c r="E222" s="1" t="s">
         <v>1171</v>
-      </c>
-      <c r="E222" s="1" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
@@ -11769,7 +11679,7 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>564</v>
@@ -11786,7 +11696,7 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>836</v>
@@ -11803,36 +11713,36 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>1703</v>
+        <v>1906</v>
       </c>
       <c r="B227" s="1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C227" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="D227" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="D227" s="1" t="s">
-        <v>929</v>
-      </c>
       <c r="E227" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="B228" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C228" s="1" t="s">
         <v>1361</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="D228" s="1" t="s">
         <v>1362</v>
       </c>
-      <c r="D228" s="1" t="s">
-        <v>1363</v>
-      </c>
       <c r="E228" s="1" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
@@ -11854,41 +11764,41 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="B230" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C230" s="1" t="s">
         <v>1382</v>
       </c>
-      <c r="C230" s="1" t="s">
+      <c r="D230" s="1" t="s">
         <v>1383</v>
       </c>
-      <c r="D230" s="1" t="s">
-        <v>1384</v>
-      </c>
       <c r="E230" s="1" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>1474</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="D231" s="1" t="s">
         <v>1475</v>
       </c>
-      <c r="D231" s="1" t="s">
+      <c r="E231" s="1" t="s">
         <v>1476</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>1477</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>786</v>
@@ -11905,24 +11815,24 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="B233" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C233" s="1" t="s">
         <v>1458</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="D233" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="D233" s="1" t="s">
+      <c r="E233" s="1" t="s">
         <v>1460</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>1461</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>871</v>
@@ -11939,10 +11849,10 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>501</v>
@@ -11956,7 +11866,7 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>650</v>
@@ -11965,7 +11875,7 @@
         <v>651</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>652</v>
@@ -12024,41 +11934,41 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="B240" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C240" s="1" t="s">
         <v>1208</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="D240" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="D240" s="1" t="s">
-        <v>1210</v>
-      </c>
       <c r="E240" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="B241" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C241" s="1" t="s">
         <v>1211</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="D241" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="D241" s="1" t="s">
+      <c r="E241" s="1" t="s">
         <v>1213</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>1214</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>844</v>
@@ -12092,41 +12002,41 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B244" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="C244" s="1" t="s">
+      <c r="D244" s="1" t="s">
         <v>1205</v>
       </c>
-      <c r="D244" s="1" t="s">
+      <c r="E244" s="1" t="s">
         <v>1206</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="B245" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C245" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="C245" s="1" t="s">
+      <c r="D245" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="D245" s="1" t="s">
+      <c r="E245" s="1" t="s">
         <v>962</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>609</v>
@@ -12135,7 +12045,7 @@
         <v>610</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>611</v>
@@ -12143,87 +12053,87 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="B247" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C247" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="C247" s="1" t="s">
+      <c r="D247" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="D247" s="1" t="s">
+      <c r="E247" s="1" t="s">
         <v>1114</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="B248" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C248" s="1" t="s">
         <v>1385</v>
       </c>
-      <c r="C248" s="1" t="s">
+      <c r="D248" s="1" t="s">
         <v>1386</v>
       </c>
-      <c r="D248" s="1" t="s">
+      <c r="E248" s="1" t="s">
         <v>1387</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>1388</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="B249" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C249" s="1" t="s">
         <v>1218</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="D249" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="D249" s="1" t="s">
+      <c r="E249" s="1" t="s">
         <v>1220</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>1221</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="B250" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C250" s="1" t="s">
         <v>1542</v>
       </c>
-      <c r="C250" s="1" t="s">
+      <c r="D250" s="1" t="s">
         <v>1543</v>
       </c>
-      <c r="D250" s="1" t="s">
+      <c r="E250" s="1" t="s">
         <v>1544</v>
-      </c>
-      <c r="E250" s="1" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="B251" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C251" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="C251" s="1" t="s">
+      <c r="D251" s="1" t="s">
         <v>1234</v>
       </c>
-      <c r="D251" s="1" t="s">
+      <c r="E251" s="1" t="s">
         <v>1235</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>1236</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
@@ -12245,58 +12155,58 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="B253" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C253" s="1" t="s">
         <v>1497</v>
       </c>
-      <c r="C253" s="1" t="s">
+      <c r="D253" s="1" t="s">
         <v>1498</v>
       </c>
-      <c r="D253" s="1" t="s">
-        <v>1499</v>
-      </c>
       <c r="E253" s="1" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="B254" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C254" s="1" t="s">
         <v>1518</v>
       </c>
-      <c r="C254" s="1" t="s">
+      <c r="D254" s="1" t="s">
         <v>1519</v>
       </c>
-      <c r="D254" s="1" t="s">
-        <v>1520</v>
-      </c>
       <c r="E254" s="1" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="B255" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C255" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="C255" s="1" t="s">
+      <c r="D255" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="D255" s="1" t="s">
-        <v>1038</v>
-      </c>
       <c r="E255" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>667</v>
@@ -12305,7 +12215,7 @@
         <v>668</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>669</v>
@@ -12313,24 +12223,24 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="B257" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C257" s="1" t="s">
         <v>1127</v>
       </c>
-      <c r="C257" s="1" t="s">
+      <c r="D257" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="D257" s="1" t="s">
-        <v>1129</v>
-      </c>
       <c r="E257" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>767</v>
@@ -12347,19 +12257,19 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="B259" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C259" s="1" t="s">
         <v>1284</v>
       </c>
-      <c r="C259" s="1" t="s">
+      <c r="D259" s="1" t="s">
         <v>1285</v>
       </c>
-      <c r="D259" s="1" t="s">
-        <v>1286</v>
-      </c>
       <c r="E259" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
@@ -12381,7 +12291,7 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>902</v>
@@ -12398,7 +12308,7 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>683</v>
@@ -12407,7 +12317,7 @@
         <v>684</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>685</v>
@@ -12415,41 +12325,41 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="B263" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C263" s="1" t="s">
         <v>1240</v>
       </c>
-      <c r="C263" s="1" t="s">
+      <c r="D263" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="D263" s="1" t="s">
-        <v>1242</v>
-      </c>
       <c r="E263" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="B264" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C264" s="1" t="s">
         <v>1411</v>
       </c>
-      <c r="C264" s="1" t="s">
+      <c r="D264" s="1" t="s">
         <v>1412</v>
       </c>
-      <c r="D264" s="1" t="s">
+      <c r="E264" s="1" t="s">
         <v>1413</v>
-      </c>
-      <c r="E264" s="1" t="s">
-        <v>1414</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>619</v>
@@ -12466,7 +12376,7 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>623</v>
@@ -12483,7 +12393,7 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>615</v>
@@ -12500,41 +12410,41 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="B268" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C268" s="1" t="s">
         <v>1249</v>
       </c>
-      <c r="C268" s="1" t="s">
+      <c r="D268" s="1" t="s">
         <v>1250</v>
       </c>
-      <c r="D268" s="1" t="s">
+      <c r="E268" s="1" t="s">
         <v>1251</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>1252</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="B269" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C269" s="1" t="s">
         <v>1529</v>
       </c>
-      <c r="C269" s="1" t="s">
+      <c r="D269" s="1" t="s">
         <v>1530</v>
       </c>
-      <c r="D269" s="1" t="s">
+      <c r="E269" s="1" t="s">
         <v>1531</v>
-      </c>
-      <c r="E269" s="1" t="s">
-        <v>1532</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>497</v>
@@ -12568,7 +12478,7 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>790</v>
@@ -12585,36 +12495,36 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="B273" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C273" s="1" t="s">
         <v>1301</v>
       </c>
-      <c r="C273" s="1" t="s">
+      <c r="D273" s="1" t="s">
         <v>1302</v>
       </c>
-      <c r="D273" s="1" t="s">
-        <v>1303</v>
-      </c>
       <c r="E273" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="B274" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C274" s="1" t="s">
         <v>1253</v>
       </c>
-      <c r="C274" s="1" t="s">
+      <c r="D274" s="1" t="s">
         <v>1254</v>
       </c>
-      <c r="D274" s="1" t="s">
+      <c r="E274" s="1" t="s">
         <v>1255</v>
-      </c>
-      <c r="E274" s="1" t="s">
-        <v>1256</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
@@ -12636,92 +12546,92 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="B276" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C276" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="C276" s="1" t="s">
+      <c r="D276" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="D276" s="1" t="s">
-        <v>952</v>
-      </c>
       <c r="E276" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="B277" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C277" s="1" t="s">
         <v>1257</v>
       </c>
-      <c r="C277" s="1" t="s">
+      <c r="D277" s="1" t="s">
         <v>1258</v>
       </c>
-      <c r="D277" s="1" t="s">
+      <c r="E277" s="1" t="s">
         <v>1259</v>
-      </c>
-      <c r="E277" s="1" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="B278" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="C278" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="C278" s="1" t="s">
+      <c r="D278" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="D278" s="1" t="s">
+      <c r="E278" s="1" t="s">
         <v>993</v>
-      </c>
-      <c r="E278" s="1" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="B279" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C279" s="1" t="s">
         <v>1261</v>
       </c>
-      <c r="C279" s="1" t="s">
+      <c r="D279" s="1" t="s">
         <v>1262</v>
       </c>
-      <c r="D279" s="1" t="s">
+      <c r="E279" s="1" t="s">
         <v>1263</v>
-      </c>
-      <c r="E279" s="1" t="s">
-        <v>1264</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="B280" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C280" s="1" t="s">
         <v>1265</v>
       </c>
-      <c r="C280" s="1" t="s">
+      <c r="D280" s="1" t="s">
         <v>1266</v>
       </c>
-      <c r="D280" s="1" t="s">
+      <c r="E280" s="1" t="s">
         <v>1267</v>
-      </c>
-      <c r="E280" s="1" t="s">
-        <v>1268</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>798</v>
@@ -12755,50 +12665,50 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="B283" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C283" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="C283" s="1" t="s">
+      <c r="D283" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="D283" s="1" t="s">
+      <c r="E283" s="1" t="s">
         <v>1047</v>
-      </c>
-      <c r="E283" s="1" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="B284" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C284" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="C284" s="1" t="s">
+      <c r="D284" s="1" t="s">
         <v>1183</v>
       </c>
-      <c r="D284" s="1" t="s">
-        <v>1184</v>
-      </c>
       <c r="E284" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="B285" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D285" s="1" t="s">
         <v>1876</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>1877</v>
-      </c>
-      <c r="D285" s="1" t="s">
-        <v>1878</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>643</v>
@@ -12806,24 +12716,24 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="B286" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C286" s="1" t="s">
         <v>1272</v>
       </c>
-      <c r="C286" s="1" t="s">
+      <c r="D286" s="1" t="s">
         <v>1273</v>
       </c>
-      <c r="D286" s="1" t="s">
+      <c r="E286" s="1" t="s">
         <v>1274</v>
-      </c>
-      <c r="E286" s="1" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>905</v>
@@ -12840,41 +12750,41 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="B288" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C288" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="C288" s="1" t="s">
+      <c r="D288" s="1" t="s">
         <v>1398</v>
       </c>
-      <c r="D288" s="1" t="s">
+      <c r="E288" s="1" t="s">
         <v>1399</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>1400</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="B289" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C289" s="1" t="s">
         <v>1276</v>
       </c>
-      <c r="C289" s="1" t="s">
+      <c r="D289" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="D289" s="1" t="s">
+      <c r="E289" s="1" t="s">
         <v>1278</v>
-      </c>
-      <c r="E289" s="1" t="s">
-        <v>1279</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>568</v>
@@ -12883,7 +12793,7 @@
         <v>569</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>570</v>
@@ -12908,36 +12818,36 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="B292" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C292" s="1" t="s">
         <v>1375</v>
       </c>
-      <c r="C292" s="1" t="s">
+      <c r="D292" s="1" t="s">
         <v>1376</v>
       </c>
-      <c r="D292" s="1" t="s">
+      <c r="E292" s="1" t="s">
         <v>1377</v>
-      </c>
-      <c r="E292" s="1" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="B293" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C293" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="C293" s="1" t="s">
+      <c r="D293" s="1" t="s">
         <v>1305</v>
       </c>
-      <c r="D293" s="1" t="s">
-        <v>1306</v>
-      </c>
       <c r="E293" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
@@ -12959,7 +12869,7 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>670</v>
@@ -12968,7 +12878,7 @@
         <v>671</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>672</v>
@@ -12976,36 +12886,36 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B296" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C296" s="1" t="s">
         <v>1327</v>
       </c>
-      <c r="C296" s="1" t="s">
+      <c r="D296" s="1" t="s">
         <v>1328</v>
       </c>
-      <c r="D296" s="1" t="s">
+      <c r="E296" s="1" t="s">
         <v>1329</v>
-      </c>
-      <c r="E296" s="1" t="s">
-        <v>1330</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="B297" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C297" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="C297" s="1" t="s">
+      <c r="D297" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="D297" s="1" t="s">
+      <c r="E297" s="1" t="s">
         <v>1118</v>
-      </c>
-      <c r="E297" s="1" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
@@ -13095,19 +13005,19 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="B303" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C303" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="C303" s="1" t="s">
+      <c r="D303" s="1" t="s">
         <v>1317</v>
       </c>
-      <c r="D303" s="1" t="s">
+      <c r="E303" s="1" t="s">
         <v>1318</v>
-      </c>
-      <c r="E303" s="1" t="s">
-        <v>1319</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
@@ -13129,24 +13039,24 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="B305" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C305" s="1" t="s">
         <v>1436</v>
       </c>
-      <c r="C305" s="1" t="s">
+      <c r="D305" s="1" t="s">
         <v>1437</v>
       </c>
-      <c r="D305" s="1" t="s">
+      <c r="E305" s="1" t="s">
         <v>1438</v>
-      </c>
-      <c r="E305" s="1" t="s">
-        <v>1439</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>812</v>
@@ -13163,7 +13073,7 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>680</v>
@@ -13172,7 +13082,7 @@
         <v>681</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>682</v>
@@ -13231,7 +13141,7 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>896</v>
@@ -13248,7 +13158,7 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>583</v>
@@ -13257,7 +13167,7 @@
         <v>584</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>585</v>
@@ -13265,36 +13175,36 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="B313" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C313" s="1" t="s">
         <v>1196</v>
       </c>
-      <c r="C313" s="1" t="s">
+      <c r="D313" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="D313" s="1" t="s">
+      <c r="E313" s="1" t="s">
         <v>1198</v>
-      </c>
-      <c r="E313" s="1" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="B314" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C314" s="1" t="s">
         <v>1485</v>
       </c>
-      <c r="C314" s="1" t="s">
+      <c r="D314" s="1" t="s">
         <v>1486</v>
       </c>
-      <c r="D314" s="1" t="s">
+      <c r="E314" s="1" t="s">
         <v>1487</v>
-      </c>
-      <c r="E314" s="1" t="s">
-        <v>1488</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
@@ -13316,7 +13226,7 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>761</v>
@@ -13367,16 +13277,16 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>562</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>563</v>
@@ -13384,41 +13294,41 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B320" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C320" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="C320" s="1" t="s">
+      <c r="D320" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="D320" s="1" t="s">
-        <v>1135</v>
-      </c>
       <c r="E320" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="B321" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C321" s="1" t="s">
         <v>1347</v>
       </c>
-      <c r="C321" s="1" t="s">
+      <c r="D321" s="1" t="s">
         <v>1348</v>
       </c>
-      <c r="D321" s="1" t="s">
+      <c r="E321" s="1" t="s">
         <v>1349</v>
-      </c>
-      <c r="E321" s="1" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>647</v>
@@ -13427,7 +13337,7 @@
         <v>648</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>649</v>
@@ -13435,24 +13345,24 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="B323" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C323" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="C323" s="1" t="s">
+      <c r="D323" s="1" t="s">
         <v>1298</v>
       </c>
-      <c r="D323" s="1" t="s">
+      <c r="E323" s="1" t="s">
         <v>1299</v>
-      </c>
-      <c r="E323" s="1" t="s">
-        <v>1300</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>699</v>
@@ -13461,7 +13371,7 @@
         <v>700</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>701</v>
@@ -13469,7 +13379,7 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>702</v>
@@ -13478,7 +13388,7 @@
         <v>703</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>704</v>
@@ -13486,7 +13396,7 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>632</v>
@@ -13495,7 +13405,7 @@
         <v>633</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>634</v>
@@ -13503,7 +13413,7 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>549</v>
@@ -13512,7 +13422,7 @@
         <v>550</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>551</v>
@@ -13520,24 +13430,24 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="B328" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C328" s="1" t="s">
         <v>1364</v>
       </c>
-      <c r="C328" s="1" t="s">
+      <c r="D328" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="D328" s="1" t="s">
+      <c r="E328" s="1" t="s">
         <v>1366</v>
-      </c>
-      <c r="E328" s="1" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>600</v>
@@ -13549,12 +13459,12 @@
         <v>602</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>628</v>
@@ -13563,15 +13473,15 @@
         <v>629</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>586</v>
@@ -13580,7 +13490,7 @@
         <v>587</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>588</v>
@@ -13588,58 +13498,58 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="B332" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C332" s="1" t="s">
         <v>1358</v>
       </c>
-      <c r="C332" s="1" t="s">
+      <c r="D332" s="1" t="s">
         <v>1359</v>
       </c>
-      <c r="D332" s="1" t="s">
-        <v>1360</v>
-      </c>
       <c r="E332" s="1" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="B333" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C333" s="1" t="s">
         <v>1371</v>
       </c>
-      <c r="C333" s="1" t="s">
+      <c r="D333" s="1" t="s">
         <v>1372</v>
       </c>
-      <c r="D333" s="1" t="s">
+      <c r="E333" s="1" t="s">
         <v>1373</v>
-      </c>
-      <c r="E333" s="1" t="s">
-        <v>1374</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="B334" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C334" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="C334" s="1" t="s">
+      <c r="D334" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="D334" s="1" t="s">
-        <v>1195</v>
-      </c>
       <c r="E334" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>707</v>
@@ -13656,7 +13566,7 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>676</v>
@@ -13673,10 +13583,10 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>719</v>
@@ -13707,24 +13617,24 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="B339" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C339" s="1" t="s">
         <v>1394</v>
       </c>
-      <c r="C339" s="1" t="s">
+      <c r="D339" s="1" t="s">
         <v>1395</v>
       </c>
-      <c r="D339" s="1" t="s">
-        <v>1396</v>
-      </c>
       <c r="E339" s="1" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>729</v>
@@ -13741,7 +13651,7 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>725</v>
@@ -13758,75 +13668,75 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="B342" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C342" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C342" s="1" t="s">
+      <c r="D342" s="1" t="s">
         <v>1294</v>
       </c>
-      <c r="D342" s="1" t="s">
+      <c r="E342" s="1" t="s">
         <v>1295</v>
-      </c>
-      <c r="E342" s="1" t="s">
-        <v>1296</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="B343" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C343" s="1" t="s">
         <v>1415</v>
       </c>
-      <c r="C343" s="1" t="s">
+      <c r="D343" s="1" t="s">
         <v>1416</v>
       </c>
-      <c r="D343" s="1" t="s">
-        <v>1417</v>
-      </c>
       <c r="E343" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="B344" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C344" s="1" t="s">
         <v>1226</v>
       </c>
-      <c r="C344" s="1" t="s">
+      <c r="D344" s="1" t="s">
         <v>1227</v>
       </c>
-      <c r="D344" s="1" t="s">
+      <c r="E344" s="1" t="s">
         <v>1228</v>
-      </c>
-      <c r="E344" s="1" t="s">
-        <v>1229</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="B345" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C345" s="1" t="s">
         <v>1269</v>
       </c>
-      <c r="C345" s="1" t="s">
+      <c r="D345" s="1" t="s">
         <v>1270</v>
       </c>
-      <c r="D345" s="1" t="s">
-        <v>1271</v>
-      </c>
       <c r="E345" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>733</v>
@@ -13843,7 +13753,7 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>738</v>
@@ -13852,7 +13762,7 @@
         <v>739</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>740</v>
@@ -13860,16 +13770,16 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="B348" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C348" s="1" t="s">
         <v>1418</v>
       </c>
-      <c r="C348" s="1" t="s">
+      <c r="D348" s="1" t="s">
         <v>1419</v>
-      </c>
-      <c r="D348" s="1" t="s">
-        <v>1420</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>737</v>
@@ -13877,33 +13787,33 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="B349" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C349" s="1" t="s">
         <v>1424</v>
       </c>
-      <c r="C349" s="1" t="s">
+      <c r="D349" s="1" t="s">
         <v>1425</v>
       </c>
-      <c r="D349" s="1" t="s">
+      <c r="E349" s="1" t="s">
         <v>1426</v>
-      </c>
-      <c r="E349" s="1" t="s">
-        <v>1427</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="B350" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C350" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="C350" s="1" t="s">
+      <c r="D350" s="1" t="s">
         <v>1125</v>
-      </c>
-      <c r="D350" s="1" t="s">
-        <v>1126</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>627</v>
@@ -13911,41 +13821,41 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="B351" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C351" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="C351" s="1" t="s">
+      <c r="D351" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="D351" s="1" t="s">
+      <c r="E351" s="1" t="s">
         <v>936</v>
-      </c>
-      <c r="E351" s="1" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="C352" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D352" s="1" t="s">
         <v>1409</v>
       </c>
-      <c r="D352" s="1" t="s">
-        <v>1410</v>
-      </c>
       <c r="E352" s="1" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>746</v>
@@ -13954,15 +13864,15 @@
         <v>747</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>744</v>
@@ -13971,32 +13881,32 @@
         <v>745</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="B355" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C355" s="1" t="s">
         <v>1432</v>
       </c>
-      <c r="C355" s="1" t="s">
+      <c r="D355" s="1" t="s">
         <v>1433</v>
       </c>
-      <c r="D355" s="1" t="s">
+      <c r="E355" s="1" t="s">
         <v>1434</v>
-      </c>
-      <c r="E355" s="1" t="s">
-        <v>1435</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>754</v>
@@ -14008,7 +13918,7 @@
         <v>756</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
@@ -14030,24 +13940,24 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="B358" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C358" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="C358" s="1" t="s">
+      <c r="D358" s="1" t="s">
         <v>1201</v>
       </c>
-      <c r="D358" s="1" t="s">
+      <c r="E358" s="1" t="s">
         <v>1202</v>
-      </c>
-      <c r="E358" s="1" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>558</v>
@@ -14064,47 +13974,47 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="B360" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C360" s="1" t="s">
         <v>1450</v>
       </c>
-      <c r="C360" s="1" t="s">
+      <c r="D360" s="1" t="s">
         <v>1451</v>
       </c>
-      <c r="D360" s="1" t="s">
-        <v>1452</v>
-      </c>
       <c r="E360" s="1" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="B361" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C361" s="1" t="s">
         <v>1344</v>
       </c>
-      <c r="C361" s="1" t="s">
+      <c r="D361" s="1" t="s">
         <v>1345</v>
       </c>
-      <c r="D361" s="1" t="s">
-        <v>1346</v>
-      </c>
       <c r="E361" s="1" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="B362" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C362" s="1" t="s">
         <v>1136</v>
-      </c>
-      <c r="C362" s="1" t="s">
-        <v>1137</v>
       </c>
       <c r="D362" s="1" t="s">
         <v>630</v>
@@ -14132,19 +14042,19 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="B364" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C364" s="1" t="s">
         <v>1443</v>
       </c>
-      <c r="C364" s="1" t="s">
+      <c r="D364" s="1" t="s">
         <v>1444</v>
       </c>
-      <c r="D364" s="1" t="s">
-        <v>1445</v>
-      </c>
       <c r="E364" s="1" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
@@ -14183,7 +14093,7 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>686</v>
@@ -14200,41 +14110,41 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="B368" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C368" s="1" t="s">
         <v>1287</v>
       </c>
-      <c r="C368" s="1" t="s">
+      <c r="D368" s="1" t="s">
         <v>1288</v>
       </c>
-      <c r="D368" s="1" t="s">
-        <v>1289</v>
-      </c>
       <c r="E368" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="B369" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C369" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="C369" s="1" t="s">
+      <c r="D369" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="D369" s="1" t="s">
+      <c r="E369" s="1" t="s">
         <v>1082</v>
-      </c>
-      <c r="E369" s="1" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>692</v>
@@ -14243,7 +14153,7 @@
         <v>693</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="E370" s="1" t="s">
         <v>694</v>
@@ -14251,36 +14161,36 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="B371" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C371" s="1" t="s">
         <v>1466</v>
       </c>
-      <c r="C371" s="1" t="s">
+      <c r="D371" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="D371" s="1" t="s">
+      <c r="E371" s="1" t="s">
         <v>1468</v>
-      </c>
-      <c r="E371" s="1" t="s">
-        <v>1469</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="B372" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C372" s="1" t="s">
         <v>1470</v>
       </c>
-      <c r="C372" s="1" t="s">
+      <c r="D372" s="1" t="s">
         <v>1471</v>
       </c>
-      <c r="D372" s="1" t="s">
+      <c r="E372" s="1" t="s">
         <v>1472</v>
-      </c>
-      <c r="E372" s="1" t="s">
-        <v>1473</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
@@ -14302,7 +14212,7 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>506</v>
@@ -14319,7 +14229,7 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>657</v>
@@ -14353,16 +14263,16 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>784</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="E377" s="1" t="s">
         <v>785</v>
@@ -14390,50 +14300,50 @@
         <v>25</v>
       </c>
       <c r="B379" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C379" s="1" t="s">
         <v>1323</v>
       </c>
-      <c r="C379" s="1" t="s">
+      <c r="D379" s="1" t="s">
         <v>1324</v>
       </c>
-      <c r="D379" s="1" t="s">
+      <c r="E379" s="1" t="s">
         <v>1325</v>
-      </c>
-      <c r="E379" s="1" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="B380" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C380" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="C380" s="1" t="s">
+      <c r="D380" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="D380" s="1" t="s">
+      <c r="E380" s="1" t="s">
         <v>940</v>
-      </c>
-      <c r="E380" s="1" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="B381" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="C381" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="C381" s="1" t="s">
+      <c r="D381" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="D381" s="1" t="s">
+      <c r="E381" s="1" t="s">
         <v>932</v>
-      </c>
-      <c r="E381" s="1" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
@@ -14455,7 +14365,7 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>529</v>
@@ -14464,7 +14374,7 @@
         <v>530</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="E383" s="1" t="s">
         <v>531</v>
@@ -14489,19 +14399,19 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="B385" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C385" s="1" t="s">
         <v>1405</v>
       </c>
-      <c r="C385" s="1" t="s">
+      <c r="D385" s="1" t="s">
         <v>1406</v>
       </c>
-      <c r="D385" s="1" t="s">
+      <c r="E385" s="1" t="s">
         <v>1407</v>
-      </c>
-      <c r="E385" s="1" t="s">
-        <v>1408</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
@@ -14523,7 +14433,7 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B387" s="1" t="s">
         <v>510</v>
@@ -14540,19 +14450,19 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="B388" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C388" s="1" t="s">
         <v>1535</v>
       </c>
-      <c r="C388" s="1" t="s">
+      <c r="D388" s="1" t="s">
         <v>1536</v>
       </c>
-      <c r="D388" s="1" t="s">
-        <v>1537</v>
-      </c>
       <c r="E388" s="1" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
@@ -14574,101 +14484,101 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="B390" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C390" s="1" t="s">
         <v>1508</v>
       </c>
-      <c r="C390" s="1" t="s">
+      <c r="D390" s="1" t="s">
         <v>1509</v>
       </c>
-      <c r="D390" s="1" t="s">
-        <v>1510</v>
-      </c>
       <c r="E390" s="1" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="B391" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C391" s="1" t="s">
         <v>1331</v>
       </c>
-      <c r="C391" s="1" t="s">
+      <c r="D391" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="D391" s="1" t="s">
+      <c r="E391" s="1" t="s">
         <v>1333</v>
-      </c>
-      <c r="E391" s="1" t="s">
-        <v>1334</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="B392" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C392" s="1" t="s">
         <v>1511</v>
       </c>
-      <c r="C392" s="1" t="s">
+      <c r="D392" s="1" t="s">
         <v>1512</v>
       </c>
-      <c r="D392" s="1" t="s">
-        <v>1513</v>
-      </c>
       <c r="E392" s="1" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="B393" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C393" s="1" t="s">
         <v>1521</v>
       </c>
-      <c r="C393" s="1" t="s">
+      <c r="D393" s="1" t="s">
         <v>1522</v>
       </c>
-      <c r="D393" s="1" t="s">
-        <v>1523</v>
-      </c>
       <c r="E393" s="1" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="B394" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C394" s="1" t="s">
         <v>1514</v>
       </c>
-      <c r="C394" s="1" t="s">
+      <c r="D394" s="1" t="s">
         <v>1515</v>
       </c>
-      <c r="D394" s="1" t="s">
+      <c r="E394" s="1" t="s">
         <v>1516</v>
-      </c>
-      <c r="E394" s="1" t="s">
-        <v>1517</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>637</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
       <c r="E395" s="1" t="s">
         <v>638</v>
@@ -14676,27 +14586,27 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="B396" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C396" s="1" t="s">
         <v>1230</v>
       </c>
-      <c r="C396" s="1" t="s">
+      <c r="D396" s="1" t="s">
         <v>1231</v>
       </c>
-      <c r="D396" s="1" t="s">
-        <v>1232</v>
-      </c>
       <c r="E396" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>781</v>
@@ -14761,19 +14671,19 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="B401" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C401" s="1" t="s">
         <v>1307</v>
       </c>
-      <c r="C401" s="1" t="s">
+      <c r="D401" s="1" t="s">
         <v>1308</v>
       </c>
-      <c r="D401" s="1" t="s">
-        <v>1309</v>
-      </c>
       <c r="E401" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
@@ -14795,7 +14705,7 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>778</v>
@@ -14804,7 +14714,7 @@
         <v>779</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="E403" s="1" t="s">
         <v>780</v>
@@ -14816,11 +14726,12 @@
     <row r="414" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2"/>
     <row r="415" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD13 A15:XFD394 A14 C14:XFD14 A396:XFD410 A395 C395:XFD395 A416:XFD1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  <autoFilter ref="A1:G403" xr:uid="{0C720CF1-B800-C943-A564-CD1EA6761C38}"/>
+  <conditionalFormatting sqref="A14 C14:E14 A395 C395:E395 A416:E1048576 A1:E13 A396:E410 A15:E394 AP416:XFD1048576 AP1:XFD410">
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B395">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>

--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Edite/Documents/GitHub/Norsk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB081A21-4D24-B649-A8DD-E1A78B414CC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C82110-22C1-BB46-A33A-7BAF9DFFFA8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17260" yWindow="1920" windowWidth="21140" windowHeight="17740" xr2:uid="{D9759F51-050D-AD4F-8F66-76048091BB84}"/>
+    <workbookView xWindow="13840" yWindow="940" windowWidth="22700" windowHeight="19020" xr2:uid="{D9759F51-050D-AD4F-8F66-76048091BB84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7374,17 +7374,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7768,8 +7758,8 @@
   <dimension ref="A1:AO415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A387" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E402" sqref="E402"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -14812,28 +14802,23 @@
     <row r="414" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2"/>
     <row r="415" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:F404" xr:uid="{66455079-5F48-A34F-83E4-F5CB5D56506C}">
-    <sortState ref="A2:F404">
-      <sortCondition ref="B1:B404"/>
-    </sortState>
-  </autoFilter>
   <conditionalFormatting sqref="A14 C14:E14 A395 C395:E395 A416:E1048576 A1:E13 A396:E403 A15:E394 AP416:XFD1048576 AP1:XFD410 A405:E410">
-    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B395">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F403 F405:F1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A404">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B404:E404">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F404">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>

--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Edite/Documents/GitHub/Norsk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C73268-9AFB-9643-875F-F6BECAED782F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECE0EEE-442B-3B4F-AD1A-E11D99EEDED4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19160" xr2:uid="{D9759F51-050D-AD4F-8F66-76048091BB84}"/>
   </bookViews>
@@ -4653,1244 +4653,6 @@
     <t>å snyte</t>
   </si>
   <si>
-    <r>
-      <t>tagg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, *</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0B0080"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>tigga</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, *</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0B0080"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>tigget</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, *</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0B0080"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>tigde</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>tro</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, *</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFA55858"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>trådde</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>skrøt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, *</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFA55858"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>skrytte</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>sved</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFA55858"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>svei</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, *</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFA55858"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>svidde</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>snøt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, *</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFA55858"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>snytte</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>kvalte</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, *</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFA55858"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>kvelte</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>kløv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFA55858"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>kløyv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, *</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFA55858"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>klyvde</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>steg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0B0080"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>steig</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>knakk</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, *</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFA55858"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>knekte</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>krøp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFA55858"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>krøyp</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>gråt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFA55858"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>gret</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hogg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, *</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFA55858"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>hogde</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>kløp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, *</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFA55858"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>klypte</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>torde</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFA55858"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>turte</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>svek</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFA55858"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>sveik</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>grov</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, *</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0B0080"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>gravde</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>fløt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0B0080"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>fløyt</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>gjøv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFA55858"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>gjøyv</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>frøs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFA55858"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>frøys</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>gren</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0B0080"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>grein</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, *</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0B0080"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>grinte</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>skled</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0B0080"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>sklei</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>rev</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFA55858"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>reiv</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>grep</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0B0080"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>greip</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hev</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFA55858"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>heiv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, *</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFA55858"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>hivde</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>hugg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFA55858"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>hugde</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>betød</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, *</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0B0080"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>betydde</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>seg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0B0080"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>seig</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>knep</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFA55858"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>kneip</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>skred</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFA55858"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>skrei</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>skjøv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFA55858"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>skøyv</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>gned</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0B0080"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>gnei</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, *</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0B0080"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>gnidde</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>skrek</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0B0080"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>skreik</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>skjøt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFA55858"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>skøyt</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>gjøs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, *</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFA55858"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>gyste</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>gled</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0B0080"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>glei</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>røk</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFA55858"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>røyk</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>smøg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFA55858"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>smøyg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>nøs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFA55858"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>nøys</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, *</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFA55858"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>nyste</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>fnøs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, *</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFA55858"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>fnyste</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>lød</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, *</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFA55858"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>lydde</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>gjøt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, *</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFA55858"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>gjytte</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>svor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, *</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFA55858"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>sverjet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, *</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFA55858"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>sverja</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>svor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, *</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFA55858"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>sverget</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, *</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFA55858"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>sverga</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>slet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFA55858"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>sleit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>brøt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0B0080"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>brøyt</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>vek</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF202122"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFA55858"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>veik</t>
-    </r>
-  </si>
-  <si>
     <t>ba</t>
   </si>
   <si>
@@ -7275,13 +6037,151 @@
   </si>
   <si>
     <t>de</t>
+  </si>
+  <si>
+    <t>betød, *betydde</t>
+  </si>
+  <si>
+    <t>brøt, brøyt</t>
+  </si>
+  <si>
+    <t>fløt, fløyt</t>
+  </si>
+  <si>
+    <t>fnøs, *fnyste</t>
+  </si>
+  <si>
+    <t>frøs, frøys</t>
+  </si>
+  <si>
+    <t>gled, glei</t>
+  </si>
+  <si>
+    <t>gned, gnei, *gnidde</t>
+  </si>
+  <si>
+    <t>gråt, gret</t>
+  </si>
+  <si>
+    <t>grov, *gravde</t>
+  </si>
+  <si>
+    <t>gren, grein, *grinte</t>
+  </si>
+  <si>
+    <t>grep, greip</t>
+  </si>
+  <si>
+    <t>gjøs, *gyste</t>
+  </si>
+  <si>
+    <t>gjøt, *gjytte</t>
+  </si>
+  <si>
+    <t>gjøv, gjøyv</t>
+  </si>
+  <si>
+    <t>hev, heiv, *hivde</t>
+  </si>
+  <si>
+    <t>hogg, *hogde</t>
+  </si>
+  <si>
+    <t>hugg, hugde</t>
+  </si>
+  <si>
+    <t>kløp, *klypte</t>
+  </si>
+  <si>
+    <t>kløv, kløyv, *klyvde</t>
+  </si>
+  <si>
+    <t>knakk, *knekte</t>
+  </si>
+  <si>
+    <t>knep, kneip</t>
+  </si>
+  <si>
+    <t>krøp, krøyp</t>
+  </si>
+  <si>
+    <t>kvalte, *kvelte</t>
+  </si>
+  <si>
+    <t>lød, *lydde</t>
+  </si>
+  <si>
+    <t>nøs, nøys, *nyste</t>
+  </si>
+  <si>
+    <t>rev, reiv</t>
+  </si>
+  <si>
+    <t>røk, røyk</t>
+  </si>
+  <si>
+    <t>seg, seig</t>
+  </si>
+  <si>
+    <t>skled, sklei</t>
+  </si>
+  <si>
+    <t>skred, skrei</t>
+  </si>
+  <si>
+    <t>skrek, skreik</t>
+  </si>
+  <si>
+    <t>skrøt, *skrytte</t>
+  </si>
+  <si>
+    <t>skjøt, skøyt</t>
+  </si>
+  <si>
+    <t>skjøv, skøyv</t>
+  </si>
+  <si>
+    <t>slet, sleit</t>
+  </si>
+  <si>
+    <t>smøg, smøyg</t>
+  </si>
+  <si>
+    <t>snøt, *snytte</t>
+  </si>
+  <si>
+    <t>steg, steig</t>
+  </si>
+  <si>
+    <t>svor, *sverget, *sverga</t>
+  </si>
+  <si>
+    <t>svor, *sverjet, *sverja</t>
+  </si>
+  <si>
+    <t>sved, svei, *svidde</t>
+  </si>
+  <si>
+    <t>svek, sveik</t>
+  </si>
+  <si>
+    <t>tagg, *tigga, *tigget, *tigde</t>
+  </si>
+  <si>
+    <t>torde, turte</t>
+  </si>
+  <si>
+    <t>tro, *trådde</t>
+  </si>
+  <si>
+    <t>vek, veik</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7292,24 +6192,6 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF202122"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFA55858"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF0B0080"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -7736,7 +6618,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -7750,7 +6632,7 @@
     <col min="43" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>136</v>
       </c>
@@ -7770,11 +6652,10 @@
         <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1598</v>
-      </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1407</v>
       </c>
@@ -7788,10 +6669,10 @@
         <v>620</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1435</v>
       </c>
@@ -7805,10 +6686,10 @@
         <v>623</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1345</v>
       </c>
@@ -7822,13 +6703,13 @@
         <v>626</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1619</v>
+        <v>1573</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>415</v>
       </c>
@@ -7845,10 +6726,10 @@
         <v>414</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>155</v>
       </c>
@@ -7865,30 +6746,30 @@
         <v>154</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>1614</v>
+        <v>1568</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1615</v>
+        <v>1569</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1616</v>
+        <v>1570</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1617</v>
+        <v>1571</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1618</v>
+        <v>1572</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>1442</v>
       </c>
@@ -7902,10 +6783,10 @@
         <v>629</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1731</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>1295</v>
       </c>
@@ -7919,10 +6800,10 @@
         <v>632</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1732</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>1273</v>
       </c>
@@ -7936,10 +6817,10 @@
         <v>635</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>189</v>
       </c>
@@ -7956,30 +6837,30 @@
         <v>188</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>2019</v>
+        <v>1973</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2020</v>
+        <v>1974</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>2021</v>
+        <v>1975</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>2023</v>
+        <v>1977</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>2024</v>
+        <v>1978</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>1276</v>
       </c>
@@ -7993,10 +6874,10 @@
         <v>638</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>1456</v>
       </c>
@@ -8010,30 +6891,30 @@
         <v>641</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1586</v>
+        <v>1540</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>496</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1580</v>
+        <v>1534</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1590</v>
+        <v>1544</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>1265</v>
       </c>
@@ -8047,7 +6928,7 @@
         <v>644</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1736</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -8064,7 +6945,7 @@
         <v>650</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1737</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -8081,7 +6962,7 @@
         <v>647</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1738</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -8101,7 +6982,7 @@
         <v>158</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>2022</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -8118,7 +6999,7 @@
         <v>653</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1739</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -8135,7 +7016,7 @@
         <v>656</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1740</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -8152,7 +7033,7 @@
         <v>659</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1741</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -8169,7 +7050,7 @@
         <v>662</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1742</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -8203,7 +7084,7 @@
         <v>668</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1743</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -8237,7 +7118,7 @@
         <v>665</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1744</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -8257,7 +7138,7 @@
         <v>170</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>2022</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -8265,39 +7146,39 @@
         <v>1401</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1655</v>
+        <v>1609</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>497</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1559</v>
+        <v>1996</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1935</v>
+        <v>1889</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>2040</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>2026</v>
+        <v>1980</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>2025</v>
+        <v>1979</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>2027</v>
+        <v>1981</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>2028</v>
+        <v>1982</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>2029</v>
+        <v>1983</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>2022</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -8305,7 +7186,7 @@
         <v>1248</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1656</v>
+        <v>1610</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>498</v>
@@ -8314,7 +7195,7 @@
         <v>499</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1936</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -8331,7 +7212,7 @@
         <v>169</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1745</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -8348,7 +7229,7 @@
         <v>672</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1746</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -8365,7 +7246,7 @@
         <v>675</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1747</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -8382,7 +7263,7 @@
         <v>681</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1748</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -8402,7 +7283,7 @@
         <v>173</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -8419,7 +7300,7 @@
         <v>678</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1749</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -8439,7 +7320,7 @@
         <v>176</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>2040</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -8456,7 +7337,7 @@
         <v>502</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1750</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -8507,7 +7388,7 @@
         <v>504</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1751</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -8527,7 +7408,7 @@
         <v>183</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>2022</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -8544,7 +7425,7 @@
         <v>686</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1752</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -8552,19 +7433,19 @@
         <v>1508</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1587</v>
+        <v>1541</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>505</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1578</v>
+        <v>1997</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1591</v>
+        <v>1545</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -8581,10 +7462,10 @@
         <v>139</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1753</v>
+        <v>1707</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -8601,7 +7482,7 @@
         <v>688</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1754</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -8618,7 +7499,7 @@
         <v>691</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1755</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -8635,7 +7516,7 @@
         <v>694</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1756</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -8652,27 +7533,27 @@
         <v>697</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1757</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>1624</v>
+        <v>1578</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1621</v>
+        <v>1575</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1622</v>
+        <v>1576</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1623</v>
+        <v>1577</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1628</v>
+        <v>1582</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>1620</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -8706,7 +7587,7 @@
         <v>700</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1758</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -8714,7 +7595,7 @@
         <v>1519</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1657</v>
+        <v>1611</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>507</v>
@@ -8723,7 +7604,7 @@
         <v>508</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1937</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -8740,7 +7621,7 @@
         <v>703</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1759</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -8760,7 +7641,7 @@
         <v>205</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>2041</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -8780,7 +7661,7 @@
         <v>417</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -8817,7 +7698,7 @@
         <v>198</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -8837,7 +7718,7 @@
         <v>202</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -8854,7 +7735,7 @@
         <v>706</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1760</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -8871,10 +7752,10 @@
         <v>709</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1625</v>
+        <v>1579</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>1620</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -8891,7 +7772,7 @@
         <v>712</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1761</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -8908,7 +7789,7 @@
         <v>715</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1762</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -8942,7 +7823,7 @@
         <v>718</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1763</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -8959,7 +7840,7 @@
         <v>510</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1764</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -8976,7 +7857,7 @@
         <v>722</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1765</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -8996,7 +7877,7 @@
         <v>230</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -9021,7 +7902,7 @@
         <v>1531</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1658</v>
+        <v>1612</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>511</v>
@@ -9030,7 +7911,7 @@
         <v>512</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>1938</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -9047,7 +7928,7 @@
         <v>725</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>1766</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -9067,7 +7948,7 @@
         <v>218</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -9101,7 +7982,7 @@
         <v>728</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>1767</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -9118,7 +7999,7 @@
         <v>731</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>1768</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -9126,7 +8007,7 @@
         <v>1253</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1659</v>
+        <v>1613</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>513</v>
@@ -9135,7 +8016,7 @@
         <v>514</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>1939</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -9152,7 +8033,7 @@
         <v>734</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>1769</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -9160,24 +8041,24 @@
         <v>1252</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1660</v>
+        <v>1614</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>515</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1550</v>
+        <v>1998</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1940</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>1584</v>
+        <v>1538</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1585</v>
+        <v>1539</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>735</v>
@@ -9186,7 +8067,7 @@
         <v>736</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>1770</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -9194,16 +8075,16 @@
         <v>1520</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1661</v>
+        <v>1615</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>516</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1572</v>
+        <v>1999</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>1941</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -9220,7 +8101,7 @@
         <v>769</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>1771</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -9237,10 +8118,10 @@
         <v>772</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>1772</v>
+        <v>1726</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>2022</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -9248,7 +8129,7 @@
         <v>1254</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1662</v>
+        <v>1616</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>483</v>
@@ -9257,7 +8138,7 @@
         <v>484</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>1942</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -9274,7 +8155,7 @@
         <v>775</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>1773</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -9291,7 +8172,7 @@
         <v>739</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>1774</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -9308,7 +8189,7 @@
         <v>742</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>1775</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -9325,7 +8206,7 @@
         <v>745</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>1776</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -9345,7 +8226,7 @@
         <v>221</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -9362,7 +8243,7 @@
         <v>748</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>1777</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -9382,7 +8263,7 @@
         <v>225</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>2022</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -9399,7 +8280,7 @@
         <v>751</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>1778</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -9416,7 +8297,7 @@
         <v>754</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>1779</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -9436,7 +8317,7 @@
         <v>227</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -9453,10 +8334,10 @@
         <v>757</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>1592</v>
+        <v>1546</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -9476,7 +8357,7 @@
         <v>228</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -9496,7 +8377,7 @@
         <v>418</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -9513,7 +8394,7 @@
         <v>760</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>1780</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -9530,7 +8411,7 @@
         <v>763</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>1781</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -9538,16 +8419,16 @@
         <v>1255</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1663</v>
+        <v>1617</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>517</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>1552</v>
+        <v>2000</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>1943</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -9555,16 +8436,16 @@
         <v>1519</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1664</v>
+        <v>1618</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>518</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>1581</v>
+        <v>1535</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>1944</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -9581,7 +8462,7 @@
         <v>766</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>1782</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -9601,7 +8482,7 @@
         <v>242</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -9618,7 +8499,7 @@
         <v>778</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>1783</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -9635,7 +8516,7 @@
         <v>781</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>1784</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -9655,7 +8536,7 @@
         <v>232</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -9663,7 +8544,7 @@
         <v>1492</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1665</v>
+        <v>1619</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>519</v>
@@ -9672,7 +8553,7 @@
         <v>520</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>1945</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -9689,10 +8570,10 @@
         <v>784</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>1626</v>
+        <v>1580</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>1620</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -9714,22 +8595,22 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>2034</v>
+        <v>1988</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>2030</v>
+        <v>1984</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>2031</v>
+        <v>1985</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>2032</v>
+        <v>1986</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>2033</v>
+        <v>1987</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>2022</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -9746,10 +8627,10 @@
         <v>787</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>1785</v>
+        <v>1739</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -9766,7 +8647,7 @@
         <v>790</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>1786</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -9786,7 +8667,7 @@
         <v>237</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -9803,10 +8684,10 @@
         <v>793</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>1627</v>
+        <v>1581</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>1620</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -9826,7 +8707,7 @@
         <v>240</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>2022</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -9834,16 +8715,16 @@
         <v>1461</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1666</v>
+        <v>1620</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>521</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>1568</v>
+        <v>2001</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>1946</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -9851,7 +8732,7 @@
         <v>1521</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1667</v>
+        <v>1621</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>522</v>
@@ -9860,7 +8741,7 @@
         <v>523</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>1947</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -9877,7 +8758,7 @@
         <v>796</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>1787</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -9885,16 +8766,16 @@
         <v>1256</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1668</v>
+        <v>1622</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>524</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>1564</v>
+        <v>2002</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>1948</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -9902,16 +8783,16 @@
         <v>1257</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1669</v>
+        <v>1623</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>528</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>1544</v>
+        <v>2003</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>1949</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -9928,7 +8809,7 @@
         <v>799</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>1788</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -9936,16 +8817,16 @@
         <v>1258</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1670</v>
+        <v>1624</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>525</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>1549</v>
+        <v>2004</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>1950</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -9962,7 +8843,7 @@
         <v>802</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>1789</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -9979,7 +8860,7 @@
         <v>805</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>1790</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -9996,7 +8877,7 @@
         <v>808</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>1791</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -10013,7 +8894,7 @@
         <v>811</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>1792</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -10021,16 +8902,16 @@
         <v>1259</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1671</v>
+        <v>1625</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>526</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>1553</v>
+        <v>2005</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>1951</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -10038,16 +8919,16 @@
         <v>1260</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1672</v>
+        <v>1626</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>1556</v>
+        <v>2006</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>1952</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
@@ -10064,7 +8945,7 @@
         <v>814</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>1793</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
@@ -10072,16 +8953,16 @@
         <v>1261</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1673</v>
+        <v>1627</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>529</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>1567</v>
+        <v>2007</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>1953</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
@@ -10089,16 +8970,16 @@
         <v>1262</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1674</v>
+        <v>1628</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>530</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>1574</v>
+        <v>2008</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>1954</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
@@ -10106,16 +8987,16 @@
         <v>1253</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1675</v>
+        <v>1629</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>531</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>1551</v>
+        <v>2009</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>1955</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -10135,7 +9016,7 @@
         <v>244</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
@@ -10169,7 +9050,7 @@
         <v>841</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>1794</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
@@ -10203,7 +9084,7 @@
         <v>817</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>1795</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
@@ -10223,7 +9104,7 @@
         <v>255</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>1620</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
@@ -10243,7 +9124,7 @@
         <v>258</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>1620</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
@@ -10260,10 +9141,10 @@
         <v>820</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>1796</v>
+        <v>1750</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>2022</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
@@ -10280,7 +9161,7 @@
         <v>823</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>1797</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
@@ -10288,16 +9169,16 @@
         <v>1263</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1676</v>
+        <v>1630</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>532</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>1557</v>
+        <v>2010</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>1956</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
@@ -10317,7 +9198,7 @@
         <v>259</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
@@ -10325,16 +9206,16 @@
         <v>1322</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1677</v>
+        <v>1631</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>533</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>1545</v>
+        <v>2011</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>1957</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -10368,10 +9249,10 @@
         <v>826</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>1629</v>
+        <v>1583</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>1620</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
@@ -10391,7 +9272,7 @@
         <v>270</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>2022</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -10408,10 +9289,10 @@
         <v>829</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>1630</v>
+        <v>1584</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>1620</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -10428,7 +9309,7 @@
         <v>838</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>1798</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -10436,16 +9317,16 @@
         <v>1522</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1678</v>
+        <v>1632</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>534</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>1558</v>
+        <v>2012</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>1958</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -10465,7 +9346,7 @@
         <v>266</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>1620</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -10482,7 +9363,7 @@
         <v>832</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>1799</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -10499,7 +9380,7 @@
         <v>835</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>1800</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -10533,7 +9414,7 @@
         <v>844</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>1801</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -10567,7 +9448,7 @@
         <v>847</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>1802</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -10584,10 +9465,10 @@
         <v>850</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>1631</v>
+        <v>1585</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>1620</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -10607,7 +9488,7 @@
         <v>281</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>2022</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -10627,7 +9508,7 @@
         <v>285</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>2022</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
@@ -10661,7 +9542,7 @@
         <v>853</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>1803</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
@@ -10678,7 +9559,7 @@
         <v>856</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>1804</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
@@ -10695,7 +9576,7 @@
         <v>859</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>1805</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
@@ -10703,7 +9584,7 @@
         <v>1468</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>1679</v>
+        <v>1633</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>535</v>
@@ -10712,7 +9593,7 @@
         <v>536</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>1959</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
@@ -10720,16 +9601,16 @@
         <v>1323</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>1680</v>
+        <v>1634</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>537</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>1546</v>
+        <v>2013</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>1960</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
@@ -10737,16 +9618,16 @@
         <v>1304</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>1681</v>
+        <v>1635</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>538</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>1540</v>
+        <v>2014</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>1961</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
@@ -10754,16 +9635,16 @@
         <v>1316</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1682</v>
+        <v>1636</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>539</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>1542</v>
+        <v>2015</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>1962</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
@@ -10771,16 +9652,16 @@
         <v>1417</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>1683</v>
+        <v>1637</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>540</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>1561</v>
+        <v>2016</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>1963</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
@@ -10797,7 +9678,7 @@
         <v>862</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>1806</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
@@ -10814,10 +9695,10 @@
         <v>865</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>1807</v>
+        <v>1761</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>2022</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
@@ -10837,7 +9718,7 @@
         <v>290</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
@@ -10854,7 +9735,7 @@
         <v>868</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>1808</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
@@ -10871,7 +9752,7 @@
         <v>871</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>1809</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
@@ -10888,7 +9769,7 @@
         <v>874</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>1810</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
@@ -10905,7 +9786,7 @@
         <v>877</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>1811</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
@@ -10922,7 +9803,7 @@
         <v>880</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>1812</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
@@ -10942,7 +9823,7 @@
         <v>293</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>1620</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
@@ -10950,16 +9831,16 @@
         <v>1318</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1684</v>
+        <v>1638</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>541</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>1543</v>
+        <v>2017</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>1964</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
@@ -10979,7 +9860,7 @@
         <v>295</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
@@ -10987,7 +9868,7 @@
         <v>1523</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1685</v>
+        <v>1639</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>542</v>
@@ -10996,7 +9877,7 @@
         <v>543</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>1965</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
@@ -11004,7 +9885,7 @@
         <v>1524</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1686</v>
+        <v>1640</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>544</v>
@@ -11013,7 +9894,7 @@
         <v>545</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>1966</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
@@ -11021,16 +9902,16 @@
         <v>1300</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1687</v>
+        <v>1641</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>485</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>1539</v>
+        <v>2018</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>1967</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
@@ -11038,7 +9919,7 @@
         <v>1525</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1688</v>
+        <v>1642</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>546</v>
@@ -11047,7 +9928,7 @@
         <v>547</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>1968</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
@@ -11095,13 +9976,13 @@
         <v>300</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>1632</v>
+        <v>1586</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>1633</v>
+        <v>1587</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>1620</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
@@ -11118,7 +9999,7 @@
         <v>918</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>1813</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
@@ -11135,7 +10016,7 @@
         <v>921</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>1814</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
@@ -11155,7 +10036,7 @@
         <v>419</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
@@ -11175,7 +10056,7 @@
         <v>302</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
@@ -11192,7 +10073,7 @@
         <v>883</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>1815</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
@@ -11209,10 +10090,10 @@
         <v>886</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>1816</v>
+        <v>1770</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>2022</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
@@ -11246,7 +10127,7 @@
         <v>889</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>1817</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
@@ -11266,7 +10147,7 @@
         <v>309</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>2041</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
@@ -11283,7 +10164,7 @@
         <v>892</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>1818</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
@@ -11300,7 +10181,7 @@
         <v>895</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>1819</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
@@ -11320,7 +10201,7 @@
         <v>311</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
@@ -11357,7 +10238,7 @@
         <v>319</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>2022</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
@@ -11374,7 +10255,7 @@
         <v>912</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>1820</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
@@ -11408,7 +10289,7 @@
         <v>915</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>1821</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
@@ -11425,7 +10306,7 @@
         <v>898</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>1822</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
@@ -11442,7 +10323,7 @@
         <v>901</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>1823</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
@@ -11459,7 +10340,7 @@
         <v>904</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>1824</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
@@ -11467,16 +10348,16 @@
         <v>1468</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>1689</v>
+        <v>1643</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>548</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>1573</v>
+        <v>2019</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>1969</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
@@ -11493,7 +10374,7 @@
         <v>549</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>1825</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
@@ -11510,10 +10391,10 @@
         <v>909</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>1634</v>
+        <v>1588</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>1620</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
@@ -11530,7 +10411,7 @@
         <v>936</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>1826</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
@@ -11547,7 +10428,7 @@
         <v>924</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>1827</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
@@ -11567,7 +10448,7 @@
         <v>337</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
@@ -11618,7 +10499,7 @@
         <v>927</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>1828</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
@@ -11635,7 +10516,7 @@
         <v>930</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>1829</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
@@ -11652,7 +10533,7 @@
         <v>933</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>1830</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
@@ -11686,7 +10567,7 @@
         <v>939</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>1831</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
@@ -11703,7 +10584,7 @@
         <v>942</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>1832</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
@@ -11711,16 +10592,16 @@
         <v>1466</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>1690</v>
+        <v>1644</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>550</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>1571</v>
+        <v>2020</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>1970</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
@@ -11737,10 +10618,10 @@
         <v>944</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>1593</v>
+        <v>1547</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
@@ -11757,7 +10638,7 @@
         <v>1244</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>1833</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
@@ -11774,7 +10655,7 @@
         <v>947</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>1834</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
@@ -11808,27 +10689,27 @@
         <v>950</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>1835</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
-        <v>1635</v>
+        <v>1589</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>1636</v>
+        <v>1590</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>1637</v>
+        <v>1591</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1638</v>
+        <v>1592</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>1639</v>
+        <v>1593</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>1620</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
@@ -11845,7 +10726,7 @@
         <v>1247</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>1836</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
@@ -11862,10 +10743,10 @@
         <v>953</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>1837</v>
+        <v>1791</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
@@ -11882,7 +10763,7 @@
         <v>956</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>1838</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
@@ -11899,7 +10780,7 @@
         <v>959</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>1839</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
@@ -11916,7 +10797,7 @@
         <v>962</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>1840</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
@@ -11933,7 +10814,7 @@
         <v>965</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>1841</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
@@ -11950,7 +10831,7 @@
         <v>1001</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>1842</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
@@ -11967,7 +10848,7 @@
         <v>968</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>1843</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
@@ -11984,7 +10865,7 @@
         <v>971</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>1844</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
@@ -12001,10 +10882,10 @@
         <v>974</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>1640</v>
+        <v>1594</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>1620</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
@@ -12021,7 +10902,7 @@
         <v>977</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>1845</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
@@ -12029,16 +10910,16 @@
         <v>1515</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>1654</v>
+        <v>1608</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>552</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>1583</v>
+        <v>1537</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>1846</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
@@ -12055,7 +10936,7 @@
         <v>980</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>1847</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
@@ -12072,7 +10953,7 @@
         <v>983</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>1848</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
@@ -12089,7 +10970,7 @@
         <v>986</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>1849</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
@@ -12106,7 +10987,7 @@
         <v>989</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>1850</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
@@ -12126,7 +11007,7 @@
         <v>340</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>2041</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
@@ -12143,30 +11024,30 @@
         <v>992</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>1641</v>
+        <v>1595</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>1620</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
-        <v>1643</v>
+        <v>1597</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>1642</v>
+        <v>1596</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>1644</v>
+        <v>1598</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1645</v>
+        <v>1599</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>1646</v>
+        <v>1600</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>1620</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
@@ -12183,7 +11064,7 @@
         <v>995</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>1851</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
@@ -12200,7 +11081,7 @@
         <v>998</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>1852</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
@@ -12217,7 +11098,7 @@
         <v>1043</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>1853</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
@@ -12234,7 +11115,7 @@
         <v>1004</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>1854</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
@@ -12259,7 +11140,7 @@
         <v>1434</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>1588</v>
+        <v>1542</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>486</v>
@@ -12268,10 +11149,10 @@
         <v>487</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>1589</v>
+        <v>1543</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
@@ -12288,7 +11169,7 @@
         <v>1007</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>1855</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
@@ -12296,7 +11177,7 @@
         <v>1302</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>1691</v>
+        <v>1645</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>553</v>
@@ -12305,7 +11186,7 @@
         <v>554</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>1971</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
@@ -12322,7 +11203,7 @@
         <v>1010</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>1856</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
@@ -12339,7 +11220,7 @@
         <v>1013</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>1857</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
@@ -12356,7 +11237,7 @@
         <v>1016</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>1858</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
@@ -12373,7 +11254,7 @@
         <v>1019</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>1859</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
@@ -12381,19 +11262,19 @@
         <v>1445</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>1594</v>
+        <v>1548</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>1595</v>
+        <v>1549</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>1596</v>
+        <v>1550</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>1597</v>
+        <v>1551</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
@@ -12410,10 +11291,10 @@
         <v>1022</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>1860</v>
+        <v>1814</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>2022</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
@@ -12421,16 +11302,16 @@
         <v>1363</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>1692</v>
+        <v>1646</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>555</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>1555</v>
+        <v>2021</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>1972</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
@@ -12447,7 +11328,7 @@
         <v>1025</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>1861</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
@@ -12464,10 +11345,10 @@
         <v>1028</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>1862</v>
+        <v>1816</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>2022</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
@@ -12484,7 +11365,7 @@
         <v>1037</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>1863</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
@@ -12501,7 +11382,7 @@
         <v>1040</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>1864</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
@@ -12518,7 +11399,7 @@
         <v>1031</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>1865</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
@@ -12535,10 +11416,10 @@
         <v>1034</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>1647</v>
+        <v>1601</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>1620</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
@@ -12546,16 +11427,16 @@
         <v>1464</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>1693</v>
+        <v>1647</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>556</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>1569</v>
+        <v>2022</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>1973</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
@@ -12572,7 +11453,7 @@
         <v>1046</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>1866</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
@@ -12589,7 +11470,7 @@
         <v>1049</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>1867</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
@@ -12606,27 +11487,27 @@
         <v>1052</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>1868</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
-        <v>1648</v>
+        <v>1602</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>1649</v>
+        <v>1603</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>1650</v>
+        <v>1604</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>1651</v>
+        <v>1605</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>1652</v>
+        <v>1606</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>1620</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
@@ -12643,7 +11524,7 @@
         <v>1055</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>1869</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
@@ -12663,7 +11544,7 @@
         <v>346</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
@@ -12683,7 +11564,7 @@
         <v>347</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
@@ -12703,7 +11584,7 @@
         <v>350</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>2022</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
@@ -12720,7 +11601,7 @@
         <v>1058</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>1870</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
@@ -12740,7 +11621,7 @@
         <v>352</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
@@ -12760,7 +11641,7 @@
         <v>353</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
@@ -12768,16 +11649,16 @@
         <v>1411</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>1694</v>
+        <v>1648</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>1560</v>
+        <v>2023</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>1974</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
@@ -12794,7 +11675,7 @@
         <v>1061</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>1871</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
@@ -12814,7 +11695,7 @@
         <v>355</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
@@ -12822,7 +11703,7 @@
         <v>1298</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>1695</v>
+        <v>1649</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>558</v>
@@ -12831,7 +11712,7 @@
         <v>559</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>1975</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
@@ -12839,7 +11720,7 @@
         <v>1321</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>1599</v>
+        <v>1553</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>562</v>
@@ -12848,13 +11729,13 @@
         <v>563</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>1600</v>
+        <v>1554</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>2022</v>
+        <v>1976</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.2">
@@ -12879,7 +11760,7 @@
         <v>1504</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>1696</v>
+        <v>1650</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>560</v>
@@ -12888,7 +11769,7 @@
         <v>561</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>1976</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.2">
@@ -12905,10 +11786,10 @@
         <v>1064</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>1872</v>
+        <v>1826</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>2022</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
@@ -12922,30 +11803,30 @@
         <v>564</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>1554</v>
+        <v>2024</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>1873</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
-        <v>2039</v>
+        <v>1993</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>2035</v>
+        <v>1989</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>2036</v>
+        <v>1990</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>2037</v>
+        <v>1991</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>2038</v>
+        <v>1992</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>2022</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
@@ -12953,16 +11834,16 @@
         <v>1425</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>1697</v>
+        <v>1651</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>565</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>1562</v>
+        <v>2025</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>1977</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
@@ -12970,16 +11851,16 @@
         <v>1526</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>1698</v>
+        <v>1652</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>566</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>1565</v>
+        <v>2026</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>1978</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
@@ -12999,7 +11880,7 @@
         <v>359</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
@@ -13016,7 +11897,7 @@
         <v>1067</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>1874</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
@@ -13024,16 +11905,16 @@
         <v>1283</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>1699</v>
+        <v>1653</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>567</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>1536</v>
+        <v>2027</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>1979</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
@@ -13053,7 +11934,7 @@
         <v>360</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
@@ -13061,7 +11942,7 @@
         <v>1472</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>1700</v>
+        <v>1654</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>568</v>
@@ -13070,7 +11951,7 @@
         <v>569</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>1980</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
@@ -13087,7 +11968,7 @@
         <v>1070</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>1875</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
@@ -13104,7 +11985,7 @@
         <v>1073</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>1876</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
@@ -13112,16 +11993,16 @@
         <v>1457</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>1701</v>
+        <v>1655</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>570</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>1566</v>
+        <v>2028</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>1981</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
@@ -13129,16 +12010,16 @@
         <v>1429</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>1702</v>
+        <v>1656</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>571</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>1563</v>
+        <v>2029</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>1982</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
@@ -13158,7 +12039,7 @@
         <v>364</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
@@ -13183,7 +12064,7 @@
         <v>1497</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>1703</v>
+        <v>1657</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>572</v>
@@ -13192,7 +12073,7 @@
         <v>573</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>1983</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
@@ -13209,10 +12090,10 @@
         <v>574</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>1877</v>
+        <v>1831</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.2">
@@ -13220,16 +12101,16 @@
         <v>1500</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>1704</v>
+        <v>1658</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>575</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>1577</v>
+        <v>2030</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>1984</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.2">
@@ -13246,10 +12127,10 @@
         <v>1078</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>1653</v>
+        <v>1607</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>1620</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.2">
@@ -13266,7 +12147,7 @@
         <v>1081</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>1878</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.2">
@@ -13274,7 +12155,7 @@
         <v>1271</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>1705</v>
+        <v>1659</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>576</v>
@@ -13283,7 +12164,7 @@
         <v>577</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>1985</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.2">
@@ -13300,10 +12181,10 @@
         <v>1084</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>1879</v>
+        <v>1833</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>2022</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.2">
@@ -13320,7 +12201,7 @@
         <v>1090</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>1880</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.2">
@@ -13337,7 +12218,7 @@
         <v>1087</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>1881</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.2">
@@ -13354,7 +12235,7 @@
         <v>489</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>1882</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.2">
@@ -13362,16 +12243,16 @@
         <v>1465</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>1706</v>
+        <v>1660</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>578</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>1570</v>
+        <v>2031</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>1986</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.2">
@@ -13388,7 +12269,7 @@
         <v>1094</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>1883</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.2">
@@ -13405,7 +12286,7 @@
         <v>1097</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>1884</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.2">
@@ -13413,19 +12294,19 @@
         <v>1465</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>1601</v>
+        <v>1555</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>579</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>1603</v>
+        <v>1557</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>1602</v>
+        <v>1556</v>
       </c>
       <c r="G317" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.2">
@@ -13442,10 +12323,10 @@
         <v>1100</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>1885</v>
+        <v>1839</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>2040</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.2">
@@ -13459,10 +12340,10 @@
         <v>580</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>1538</v>
+        <v>2032</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>1886</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.2">
@@ -13499,7 +12380,7 @@
         <v>369</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.2">
@@ -13516,7 +12397,7 @@
         <v>1103</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>1887</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.2">
@@ -13533,7 +12414,7 @@
         <v>1106</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>1888</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.2">
@@ -13550,7 +12431,7 @@
         <v>1109</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>1889</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.2">
@@ -13567,7 +12448,7 @@
         <v>1112</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>1890</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.2">
@@ -13584,7 +12465,7 @@
         <v>1115</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>1891</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.2">
@@ -13601,10 +12482,10 @@
         <v>1118</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>1892</v>
+        <v>1846</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>2022</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.2">
@@ -13612,7 +12493,7 @@
         <v>1264</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>1707</v>
+        <v>1661</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>581</v>
@@ -13621,7 +12502,7 @@
         <v>582</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>1987</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.2">
@@ -13638,10 +12519,10 @@
         <v>1121</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>1893</v>
+        <v>1847</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>2022</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.2">
@@ -13661,7 +12542,7 @@
         <v>370</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.2">
@@ -13669,7 +12550,7 @@
         <v>1317</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>1708</v>
+        <v>1662</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>583</v>
@@ -13678,7 +12559,7 @@
         <v>584</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>1988</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.2">
@@ -13686,7 +12567,7 @@
         <v>1286</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>1709</v>
+        <v>1663</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>585</v>
@@ -13695,7 +12576,7 @@
         <v>586</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>1989</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.2">
@@ -13712,7 +12593,7 @@
         <v>588</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>1894</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.2">
@@ -13732,7 +12613,7 @@
         <v>372</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.2">
@@ -13749,7 +12630,7 @@
         <v>1125</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>1895</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.2">
@@ -13766,10 +12647,10 @@
         <v>1128</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>1896</v>
+        <v>1850</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>2022</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.2">
@@ -13786,7 +12667,7 @@
         <v>1131</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>1897</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.2">
@@ -13803,10 +12684,10 @@
         <v>1134</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>1898</v>
+        <v>1852</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>2022</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.2">
@@ -13823,7 +12704,7 @@
         <v>1136</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>1899</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.2">
@@ -13831,16 +12712,16 @@
         <v>1304</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>1710</v>
+        <v>1664</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>589</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>1541</v>
+        <v>2033</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>1990</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.2">
@@ -13848,7 +12729,7 @@
         <v>1476</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>1711</v>
+        <v>1665</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>590</v>
@@ -13857,7 +12738,7 @@
         <v>591</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>1991</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.2">
@@ -13874,7 +12755,7 @@
         <v>1139</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>1900</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.2">
@@ -13882,7 +12763,7 @@
         <v>1475</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>1604</v>
+        <v>1558</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>592</v>
@@ -13891,10 +12772,10 @@
         <v>593</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>1605</v>
+        <v>1559</v>
       </c>
       <c r="G343" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.2">
@@ -13911,7 +12792,7 @@
         <v>1142</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>1901</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.2">
@@ -13919,7 +12800,7 @@
         <v>1481</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>1712</v>
+        <v>1666</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>594</v>
@@ -13928,7 +12809,7 @@
         <v>595</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>1992</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.2">
@@ -13945,7 +12826,7 @@
         <v>1145</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>1902</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.2">
@@ -13962,7 +12843,7 @@
         <v>1148</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>1903</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.2">
@@ -13970,19 +12851,19 @@
         <v>1482</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>1606</v>
+        <v>1560</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>596</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>1607</v>
+        <v>1561</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>1608</v>
+        <v>1562</v>
       </c>
       <c r="G348" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.2">
@@ -13999,10 +12880,10 @@
         <v>1151</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>1904</v>
+        <v>1858</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>2022</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.2">
@@ -14010,16 +12891,16 @@
         <v>1519</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>1713</v>
+        <v>1667</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>597</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>1582</v>
+        <v>1536</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>1993</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.2">
@@ -14036,10 +12917,10 @@
         <v>1154</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>1905</v>
+        <v>1859</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>2022</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.2">
@@ -14047,16 +12928,16 @@
         <v>1488</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>1714</v>
+        <v>1668</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>598</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>1576</v>
+        <v>2034</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>1994</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.2">
@@ -14064,16 +12945,16 @@
         <v>1488</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>1715</v>
+        <v>1669</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>599</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>1575</v>
+        <v>2035</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>1995</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.2">
@@ -14081,16 +12962,16 @@
         <v>6</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>1716</v>
+        <v>1670</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>600</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>1537</v>
+        <v>2036</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>1996</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.2">
@@ -14098,16 +12979,16 @@
         <v>1329</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>1717</v>
+        <v>1671</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>601</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>1548</v>
+        <v>2037</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>1997</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.2">
@@ -14115,7 +12996,7 @@
         <v>1490</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>1718</v>
+        <v>1672</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>602</v>
@@ -14124,7 +13005,7 @@
         <v>603</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>1998</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.2">
@@ -14132,7 +13013,7 @@
         <v>1530</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>1719</v>
+        <v>1673</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>604</v>
@@ -14141,7 +13022,7 @@
         <v>605</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>1999</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.2">
@@ -14158,7 +13039,7 @@
         <v>1157</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>1906</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.2">
@@ -14175,7 +13056,7 @@
         <v>1160</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>1907</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.2">
@@ -14192,7 +13073,7 @@
         <v>1163</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>1908</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.2">
@@ -14234,7 +13115,7 @@
         <v>1460</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>1720</v>
+        <v>1674</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>606</v>
@@ -14243,7 +13124,7 @@
         <v>607</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>2000</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.2">
@@ -14263,7 +13144,7 @@
         <v>381</v>
       </c>
       <c r="G364" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.2">
@@ -14280,7 +13161,7 @@
         <v>1166</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>1909</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.2">
@@ -14297,7 +13178,7 @@
         <v>1169</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>1910</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.2">
@@ -14314,7 +13195,7 @@
         <v>1172</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>1911</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.2">
@@ -14328,13 +13209,13 @@
         <v>490</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>1609</v>
+        <v>1563</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>1610</v>
+        <v>1564</v>
       </c>
       <c r="G368" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.2">
@@ -14354,7 +13235,7 @@
         <v>384</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>2022</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.2">
@@ -14371,7 +13252,7 @@
         <v>1176</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>1912</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.2">
@@ -14379,16 +13260,16 @@
         <v>1277</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>1721</v>
+        <v>1675</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>608</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>1534</v>
+        <v>2038</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>2001</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.2">
@@ -14405,7 +13286,7 @@
         <v>1179</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>1913</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.2">
@@ -14422,7 +13303,7 @@
         <v>1182</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>1914</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.2">
@@ -14430,16 +13311,16 @@
         <v>1326</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>1722</v>
+        <v>1676</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>491</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>1547</v>
+        <v>2039</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>2002</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.2">
@@ -14456,7 +13337,7 @@
         <v>1197</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>1915</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.2">
@@ -14473,7 +13354,7 @@
         <v>1185</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>1916</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.2">
@@ -14481,16 +13362,16 @@
         <v>394</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>1723</v>
+        <v>1677</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>611</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>1535</v>
+        <v>2040</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>2003</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.2">
@@ -14498,7 +13379,7 @@
         <v>1503</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>1724</v>
+        <v>1678</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>492</v>
@@ -14507,7 +13388,7 @@
         <v>493</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>2004</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.2">
@@ -14527,7 +13408,7 @@
         <v>386</v>
       </c>
       <c r="G379" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.2">
@@ -14535,7 +13416,7 @@
         <v>1427</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>1611</v>
+        <v>1565</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>609</v>
@@ -14544,10 +13425,10 @@
         <v>610</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>1612</v>
+        <v>1566</v>
       </c>
       <c r="G380" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.2">
@@ -14564,7 +13445,7 @@
         <v>1188</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>1917</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.2">
@@ -14581,10 +13462,10 @@
         <v>1191</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>1918</v>
+        <v>1872</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>2022</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.2">
@@ -14601,7 +13482,7 @@
         <v>1194</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>1919</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.2">
@@ -14638,47 +13519,47 @@
         <v>393</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>2040</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
-        <v>2010</v>
+        <v>1964</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>2009</v>
+        <v>1963</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>2011</v>
+        <v>1965</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>2012</v>
+        <v>1966</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>2013</v>
+        <v>1967</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>1620</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
-        <v>2014</v>
+        <v>1968</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>2015</v>
+        <v>1969</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>2016</v>
+        <v>1970</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>2017</v>
+        <v>1971</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>2018</v>
+        <v>1972</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>1620</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.2">
@@ -14686,7 +13567,7 @@
         <v>1358</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>1725</v>
+        <v>1679</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>612</v>
@@ -14695,7 +13576,7 @@
         <v>613</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>2005</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.2">
@@ -14703,7 +13584,7 @@
         <v>1459</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>1726</v>
+        <v>1680</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>1198</v>
@@ -14712,7 +13593,7 @@
         <v>1199</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>2006</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.2">
@@ -14729,7 +13610,7 @@
         <v>1202</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>1920</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.2">
@@ -14746,7 +13627,7 @@
         <v>1205</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>1921</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.2">
@@ -14763,7 +13644,7 @@
         <v>1208</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>1922</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.2">
@@ -14780,7 +13661,7 @@
         <v>1211</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>1923</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.2">
@@ -14797,7 +13678,7 @@
         <v>1214</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>1924</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.2">
@@ -14817,7 +13698,7 @@
         <v>406</v>
       </c>
       <c r="G395" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.2">
@@ -14834,10 +13715,10 @@
         <v>1241</v>
       </c>
       <c r="E396" s="1" t="s">
-        <v>1925</v>
+        <v>1879</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>1620</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.2">
@@ -14854,7 +13735,7 @@
         <v>1217</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>1926</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.2">
@@ -14871,10 +13752,10 @@
         <v>1220</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>1927</v>
+        <v>1881</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>1620</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.2">
@@ -14891,7 +13772,7 @@
         <v>1223</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>1928</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.2">
@@ -14899,7 +13780,7 @@
         <v>1251</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>1727</v>
+        <v>1681</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>494</v>
@@ -14908,7 +13789,7 @@
         <v>495</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>2007</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.2">
@@ -14945,7 +13826,7 @@
         <v>397</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>1620</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.2">
@@ -14962,7 +13843,7 @@
         <v>1226</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>1929</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.2">
@@ -14970,16 +13851,16 @@
         <v>1250</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>1728</v>
+        <v>1682</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>614</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>1579</v>
+        <v>2041</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>2008</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.2">
@@ -14999,7 +13880,7 @@
         <v>399</v>
       </c>
       <c r="G405" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.2">
@@ -15016,7 +13897,7 @@
         <v>1229</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>1930</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.2">
@@ -15033,7 +13914,7 @@
         <v>616</v>
       </c>
       <c r="E407" s="1" t="s">
-        <v>1931</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.2">
@@ -15053,7 +13934,7 @@
         <v>403</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>2022</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="409" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
@@ -15074,7 +13955,7 @@
       </c>
       <c r="F409" s="1"/>
       <c r="G409" s="1" t="s">
-        <v>1613</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="410" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
@@ -15091,7 +13972,7 @@
         <v>1233</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>1932</v>
+        <v>1886</v>
       </c>
       <c r="F410" s="1"/>
     </row>
@@ -15109,7 +13990,7 @@
         <v>1236</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>1933</v>
+        <v>1887</v>
       </c>
       <c r="F411" s="1"/>
     </row>
@@ -15127,18 +14008,14 @@
         <v>1238</v>
       </c>
       <c r="E412" s="1" t="s">
-        <v>1934</v>
+        <v>1888</v>
       </c>
       <c r="F412" s="1"/>
     </row>
     <row r="413" spans="1:7" customFormat="1" ht="16" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:G412" xr:uid="{E3481854-EAED-6049-BF81-C25708806C56}">
-    <sortState ref="A2:G412">
-      <sortCondition ref="B1:B412"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="AQ414:XFD1048576 A14 C14:F14 A393 C393:F393 A414:F1048576 A1:F13 A394:F401 A15:F392 AQ1:XFD408 I1 A403:F412">
+  <autoFilter ref="A1:G412" xr:uid="{E3481854-EAED-6049-BF81-C25708806C56}"/>
+  <conditionalFormatting sqref="AQ414:XFD1048576 A14 C14:F14 A393 C393:F393 A414:F1048576 A1:F13 A394:F401 A15:F392 AQ1:XFD408 A403:F412">
     <cfRule type="duplicateValues" dxfId="6" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">

--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Edite/Documents/GitHub/Norsk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECE0EEE-442B-3B4F-AD1A-E11D99EEDED4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250FE22F-FDD7-A746-941D-D488732DF7A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19160" xr2:uid="{D9759F51-050D-AD4F-8F66-76048091BB84}"/>
+    <workbookView xWindow="580" yWindow="500" windowWidth="34740" windowHeight="18380" xr2:uid="{D9759F51-050D-AD4F-8F66-76048091BB84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$412</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AP$412</definedName>
     <definedName name="A" localSheetId="0">Sheet1!#REF!</definedName>
     <definedName name="B" localSheetId="0">Sheet1!#REF!</definedName>
     <definedName name="Bottom" localSheetId="0">Sheet1!#REF!</definedName>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2183" uniqueCount="2042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2183" uniqueCount="2041">
   <si>
     <t>Present tense</t>
   </si>
@@ -513,9 +513,6 @@
     <t>arbeidet </t>
   </si>
   <si>
-    <t>har arbeidet </t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
@@ -666,9 +663,6 @@
     <t>dødde / døde</t>
   </si>
   <si>
-    <t>har dødd </t>
-  </si>
-  <si>
     <t>eier</t>
   </si>
   <si>
@@ -726,9 +720,6 @@
     <t>forklarte</t>
   </si>
   <si>
-    <t>har forklart </t>
-  </si>
-  <si>
     <t>explain</t>
   </si>
   <si>
@@ -792,9 +783,6 @@
     <t>handlet </t>
   </si>
   <si>
-    <t>har handlet </t>
-  </si>
-  <si>
     <t>act, shop, deal with</t>
   </si>
   <si>
@@ -816,9 +804,6 @@
     <t>hentet </t>
   </si>
   <si>
-    <t>har hendt </t>
-  </si>
-  <si>
     <t>fetch, bring</t>
   </si>
   <si>
@@ -849,9 +834,6 @@
     <t>husket </t>
   </si>
   <si>
-    <t>har husket </t>
-  </si>
-  <si>
     <t>remember</t>
   </si>
   <si>
@@ -885,9 +867,6 @@
     <t>jobbet </t>
   </si>
   <si>
-    <t>har jobbet </t>
-  </si>
-  <si>
     <t>kjenner</t>
   </si>
   <si>
@@ -930,9 +909,6 @@
     <t>kostet / kosta</t>
   </si>
   <si>
-    <t>har kostet </t>
-  </si>
-  <si>
     <t>cost, sweep</t>
   </si>
   <si>
@@ -993,9 +969,6 @@
     <t>lignet / liknet </t>
   </si>
   <si>
-    <t>har lignet / har liknet /</t>
-  </si>
-  <si>
     <t>resemble, look like</t>
   </si>
   <si>
@@ -1281,9 +1254,6 @@
     <t>ønsket </t>
   </si>
   <si>
-    <t>har ønsket </t>
-  </si>
-  <si>
     <t>wish, desire</t>
   </si>
   <si>
@@ -1293,9 +1263,6 @@
     <t>åpnet </t>
   </si>
   <si>
-    <t>har åpnet </t>
-  </si>
-  <si>
     <t>open</t>
   </si>
   <si>
@@ -6175,6 +6142,36 @@
   </si>
   <si>
     <t>vek, veik</t>
+  </si>
+  <si>
+    <t>har åpnet</t>
+  </si>
+  <si>
+    <t>har arbeidet</t>
+  </si>
+  <si>
+    <t>har dødd</t>
+  </si>
+  <si>
+    <t>har forklart</t>
+  </si>
+  <si>
+    <t>har handlet</t>
+  </si>
+  <si>
+    <t>har husket</t>
+  </si>
+  <si>
+    <t>har kostet</t>
+  </si>
+  <si>
+    <t>har ønsket</t>
+  </si>
+  <si>
+    <t>har jobbet</t>
+  </si>
+  <si>
+    <t>har lignet / har liknet</t>
   </si>
 </sst>
 </file>
@@ -6618,7 +6615,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="K211" sqref="K211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -6652,89 +6649,89 @@
         <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1552</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1407</v>
+        <v>1396</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1683</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>1435</v>
+        <v>1424</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1684</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>1345</v>
+        <v>1334</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1573</v>
+        <v>1562</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>414</v>
+        <v>2031</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1574</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>152</v>
@@ -6743,155 +6740,155 @@
         <v>153</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>154</v>
+        <v>2032</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1574</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>1568</v>
+        <v>1557</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1569</v>
+        <v>1558</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1570</v>
+        <v>1559</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1571</v>
+        <v>1560</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1572</v>
+        <v>1561</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>1442</v>
+        <v>1431</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1685</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>1295</v>
+        <v>1284</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1686</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>1273</v>
+        <v>1262</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1687</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>1973</v>
+        <v>1962</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1974</v>
+        <v>1963</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1975</v>
+        <v>1964</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1977</v>
+        <v>1966</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1978</v>
+        <v>1967</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1976</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>1276</v>
+        <v>1265</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1688</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>1456</v>
+        <v>1445</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1689</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -6899,376 +6896,376 @@
         <v>107</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1540</v>
+        <v>1529</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1534</v>
+        <v>1523</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1544</v>
+        <v>1533</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>1265</v>
+        <v>1254</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1690</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>1340</v>
+        <v>1329</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1691</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>1299</v>
+        <v>1288</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1692</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>1976</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>1370</v>
+        <v>1359</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1693</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>1364</v>
+        <v>1353</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1694</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>1332</v>
+        <v>1321</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1695</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>1403</v>
+        <v>1392</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1696</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>1414</v>
+        <v>1403</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1697</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>1335</v>
+        <v>1324</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1698</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>1976</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>1401</v>
+        <v>1390</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1609</v>
+        <v>1598</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1996</v>
+        <v>1985</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1889</v>
+        <v>1878</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1994</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>1980</v>
+        <v>1969</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1979</v>
+        <v>1968</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1981</v>
+        <v>1970</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1982</v>
+        <v>1971</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1983</v>
+        <v>1972</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1976</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>1248</v>
+        <v>1237</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1610</v>
+        <v>1599</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1890</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>1278</v>
+        <v>1267</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1699</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>1272</v>
+        <v>1261</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1700</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>1280</v>
+        <v>1269</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1701</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>1281</v>
+        <v>1270</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1702</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>1249</v>
+        <v>1238</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>3</v>
@@ -7277,67 +7274,67 @@
         <v>4</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="G36" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>1279</v>
+        <v>1268</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1703</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>1388</v>
+        <v>1377</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="F38" s="1" t="s">
-        <v>1994</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>1287</v>
+        <v>1276</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1704</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -7354,103 +7351,103 @@
         <v>8</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>1289</v>
+        <v>1278</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1705</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="F43" s="1" t="s">
-        <v>1976</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>1285</v>
+        <v>1274</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1706</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>1508</v>
+        <v>1497</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1541</v>
+        <v>1530</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1997</v>
+        <v>1986</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1545</v>
+        <v>1534</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>137</v>
@@ -7462,166 +7459,166 @@
         <v>139</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1707</v>
+        <v>1696</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>1409</v>
+        <v>1398</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1708</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>1288</v>
+        <v>1277</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1709</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>1297</v>
+        <v>1286</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1710</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>1325</v>
+        <v>1314</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1711</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>1578</v>
+        <v>1567</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1575</v>
+        <v>1564</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1576</v>
+        <v>1565</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1577</v>
+        <v>1566</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1582</v>
+        <v>1571</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>1574</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>1330</v>
+        <v>1319</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1712</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>1519</v>
+        <v>1508</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1611</v>
+        <v>1600</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1891</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>1334</v>
+        <v>1323</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1713</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -7635,13 +7632,13 @@
         <v>19</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>205</v>
+        <v>2033</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1995</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -7658,27 +7655,27 @@
         <v>12</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -7695,169 +7692,169 @@
         <v>16</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="G60" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>1337</v>
+        <v>1326</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1714</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>1458</v>
+        <v>1447</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1579</v>
+        <v>1568</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>1574</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>1320</v>
+        <v>1309</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1715</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>1428</v>
+        <v>1417</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1716</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>1447</v>
+        <v>1436</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1717</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>1344</v>
+        <v>1333</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1718</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>1348</v>
+        <v>1337</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1719</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -7874,61 +7871,61 @@
         <v>38</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>1531</v>
+        <v>1520</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1612</v>
+        <v>1601</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>1892</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>1296</v>
+        <v>1285</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>1720</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -7945,359 +7942,359 @@
         <v>23</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>1355</v>
+        <v>1344</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>1721</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>1380</v>
+        <v>1369</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>1722</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>1253</v>
+        <v>1242</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1613</v>
+        <v>1602</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>1893</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>1357</v>
+        <v>1346</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>1723</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>1252</v>
+        <v>1241</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1614</v>
+        <v>1603</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1998</v>
+        <v>1987</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1894</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>1538</v>
+        <v>1527</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1539</v>
+        <v>1528</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>1724</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>1520</v>
+        <v>1509</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1615</v>
+        <v>1604</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1999</v>
+        <v>1988</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>1895</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>1275</v>
+        <v>1264</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>1725</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>1274</v>
+        <v>1263</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>1726</v>
+        <v>1715</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>1976</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>1254</v>
+        <v>1243</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1616</v>
+        <v>1605</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>1896</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>1282</v>
+        <v>1271</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>1727</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>1507</v>
+        <v>1496</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>1728</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>1486</v>
+        <v>1475</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>1729</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>1506</v>
+        <v>1495</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>1730</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="G89" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>1293</v>
+        <v>1282</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>1731</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>225</v>
+        <v>2034</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>1976</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>1359</v>
+        <v>1348</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>1732</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>1437</v>
+        <v>1426</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>1733</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -8314,35 +8311,35 @@
         <v>27</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>1333</v>
+        <v>1322</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>1546</v>
+        <v>1535</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>28</v>
@@ -8354,10 +8351,10 @@
         <v>30</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -8374,100 +8371,100 @@
         <v>34</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>1369</v>
+        <v>1358</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>1734</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>1416</v>
+        <v>1405</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>1735</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>1255</v>
+        <v>1244</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1617</v>
+        <v>1606</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>2000</v>
+        <v>1989</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>1897</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>1519</v>
+        <v>1508</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1618</v>
+        <v>1607</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>1535</v>
+        <v>1524</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>1898</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>1736</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>46</v>
@@ -8479,44 +8476,44 @@
         <v>48</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>1319</v>
+        <v>1308</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>1737</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>1360</v>
+        <v>1349</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>1738</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -8530,124 +8527,124 @@
         <v>41</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>1492</v>
+        <v>1481</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1619</v>
+        <v>1608</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>1899</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>1400</v>
+        <v>1389</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>1580</v>
+        <v>1569</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>1574</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>1988</v>
+        <v>1977</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1984</v>
+        <v>1973</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1985</v>
+        <v>1974</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>1986</v>
+        <v>1975</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>1987</v>
+        <v>1976</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>1976</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>1439</v>
+        <v>1428</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>1739</v>
+        <v>1728</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>1368</v>
+        <v>1357</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>1740</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -8664,339 +8661,339 @@
         <v>45</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>1392</v>
+        <v>1381</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>1581</v>
+        <v>1570</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>1574</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>1976</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>1461</v>
+        <v>1450</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1620</v>
+        <v>1609</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>1900</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>1521</v>
+        <v>1510</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1621</v>
+        <v>1610</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>1901</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>1362</v>
+        <v>1351</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>1741</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>1256</v>
+        <v>1245</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1622</v>
+        <v>1611</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>1902</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>1257</v>
+        <v>1246</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1623</v>
+        <v>1612</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>2003</v>
+        <v>1992</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>1903</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>1308</v>
+        <v>1297</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>1742</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>1258</v>
+        <v>1247</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1624</v>
+        <v>1613</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>2004</v>
+        <v>1993</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>1904</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>1305</v>
+        <v>1294</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>1743</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>1398</v>
+        <v>1387</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>1744</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>1284</v>
+        <v>1273</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>1745</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>1366</v>
+        <v>1355</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>810</v>
+        <v>799</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>1746</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>1259</v>
+        <v>1248</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1625</v>
+        <v>1614</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>2005</v>
+        <v>1994</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>1905</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>1260</v>
+        <v>1249</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1626</v>
+        <v>1615</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>1906</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>1336</v>
+        <v>1325</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>1747</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>1261</v>
+        <v>1250</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1627</v>
+        <v>1616</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>1907</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>1262</v>
+        <v>1251</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1628</v>
+        <v>1617</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>1908</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>1253</v>
+        <v>1242</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1629</v>
+        <v>1618</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>1909</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -9013,98 +9010,98 @@
         <v>52</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>247</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>1376</v>
+        <v>1365</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>1748</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>1371</v>
+        <v>1360</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>1749</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>1574</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
@@ -9118,67 +9115,67 @@
         <v>55</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>1574</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>1365</v>
+        <v>1354</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>1750</v>
+        <v>1739</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>1976</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>1424</v>
+        <v>1413</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>1751</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>1263</v>
+        <v>1252</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1630</v>
+        <v>1619</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>1910</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
@@ -9195,510 +9192,510 @@
         <v>59</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>1322</v>
+        <v>1311</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1631</v>
+        <v>1620</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>1911</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>1381</v>
+        <v>1370</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>1583</v>
+        <v>1572</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>1574</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>1976</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>1314</v>
+        <v>1303</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>1584</v>
+        <v>1573</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>1574</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>1373</v>
+        <v>1362</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>1752</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>1522</v>
+        <v>1511</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1632</v>
+        <v>1621</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>1912</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>266</v>
+        <v>2036</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>1574</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>1443</v>
+        <v>1432</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>1753</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>1306</v>
+        <v>1295</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>1754</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>1379</v>
+        <v>1368</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>843</v>
+        <v>832</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>1755</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>278</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>1290</v>
+        <v>1279</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>1756</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>1292</v>
+        <v>1281</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>1585</v>
+        <v>1574</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>1574</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>1976</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>1976</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>1301</v>
+        <v>1290</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>851</v>
+        <v>840</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>852</v>
+        <v>841</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>1757</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>1397</v>
+        <v>1386</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>856</v>
+        <v>845</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>1758</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>1338</v>
+        <v>1327</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>1759</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>1468</v>
+        <v>1457</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>1633</v>
+        <v>1622</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>1913</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>1323</v>
+        <v>1312</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>1634</v>
+        <v>1623</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>1914</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>1304</v>
+        <v>1293</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>1635</v>
+        <v>1624</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>1915</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>1316</v>
+        <v>1305</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1636</v>
+        <v>1625</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>1916</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>1417</v>
+        <v>1406</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>1637</v>
+        <v>1626</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>1917</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>1499</v>
+        <v>1488</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>1760</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>1311</v>
+        <v>1300</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>1761</v>
+        <v>1750</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>1976</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
@@ -9715,137 +9712,137 @@
         <v>63</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>1309</v>
+        <v>1298</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>1762</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>1310</v>
+        <v>1299</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>1763</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>1312</v>
+        <v>1301</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>1764</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>1313</v>
+        <v>1302</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>877</v>
+        <v>866</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>1765</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>1347</v>
+        <v>1336</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>1766</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>293</v>
+        <v>2037</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>1574</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>1318</v>
+        <v>1307</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1638</v>
+        <v>1627</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>1918</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>140</v>
@@ -9857,166 +9854,166 @@
         <v>142</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>1523</v>
+        <v>1512</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1639</v>
+        <v>1628</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>1919</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>1524</v>
+        <v>1513</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1640</v>
+        <v>1629</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>1920</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>1300</v>
+        <v>1289</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1641</v>
+        <v>1630</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>1921</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>1525</v>
+        <v>1514</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1642</v>
+        <v>1631</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>1922</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>1586</v>
+        <v>1575</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>1587</v>
+        <v>1576</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>1574</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>1389</v>
+        <v>1378</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>1767</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>1390</v>
+        <v>1379</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>1768</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
@@ -10033,10 +10030,10 @@
         <v>67</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
@@ -10053,135 +10050,135 @@
         <v>71</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>1375</v>
+        <v>1364</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>1769</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>1418</v>
+        <v>1407</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>1770</v>
+        <v>1759</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>1976</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>1453</v>
+        <v>1442</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>1771</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>1995</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>1361</v>
+        <v>1350</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>892</v>
+        <v>881</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>1772</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>1485</v>
+        <v>1474</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>1773</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
@@ -10198,237 +10195,237 @@
         <v>75</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>314</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>1976</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>1385</v>
+        <v>1374</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>1774</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>1394</v>
+        <v>1383</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>1775</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>1426</v>
+        <v>1415</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>1776</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>1267</v>
+        <v>1256</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>1777</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>1462</v>
+        <v>1451</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>1778</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>1468</v>
+        <v>1457</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>1643</v>
+        <v>1632</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>1923</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>1495</v>
+        <v>1484</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>1779</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>1387</v>
+        <v>1376</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>909</v>
+        <v>898</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>1588</v>
+        <v>1577</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>1574</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>1402</v>
+        <v>1391</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>1780</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>1285</v>
+        <v>1274</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
@@ -10445,95 +10442,95 @@
         <v>146</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>1399</v>
+        <v>1388</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>1782</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>1328</v>
+        <v>1317</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>1783</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>1395</v>
+        <v>1384</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>1784</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
@@ -10550,981 +10547,981 @@
         <v>79</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>1331</v>
+        <v>1320</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>939</v>
+        <v>928</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>1785</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>1331</v>
+        <v>1320</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>940</v>
+        <v>929</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>1786</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>1466</v>
+        <v>1455</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>1644</v>
+        <v>1633</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>1924</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>1527</v>
+        <v>1516</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>1547</v>
+        <v>1536</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>1377</v>
+        <v>1366</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1242</v>
+        <v>1231</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>1243</v>
+        <v>1232</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>1244</v>
+        <v>1233</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>1787</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>1444</v>
+        <v>1433</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>1788</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>410</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>1393</v>
+        <v>1382</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>950</v>
+        <v>939</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
-        <v>1589</v>
+        <v>1578</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>1590</v>
+        <v>1579</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>1591</v>
+        <v>1580</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1592</v>
+        <v>1581</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>1593</v>
+        <v>1582</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>1574</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>1420</v>
+        <v>1409</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>1245</v>
+        <v>1234</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>1246</v>
+        <v>1235</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>1247</v>
+        <v>1236</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>1790</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>1349</v>
+        <v>1338</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>952</v>
+        <v>941</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>1471</v>
+        <v>1460</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>956</v>
+        <v>945</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>1792</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>1459</v>
+        <v>1448</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>957</v>
+        <v>946</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>959</v>
+        <v>948</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>1491</v>
+        <v>1480</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>960</v>
+        <v>949</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>962</v>
+        <v>951</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>1794</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>1415</v>
+        <v>1404</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>964</v>
+        <v>953</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>965</v>
+        <v>954</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>1795</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>1270</v>
+        <v>1259</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>999</v>
+        <v>988</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>1796</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>1412</v>
+        <v>1401</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>966</v>
+        <v>955</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>967</v>
+        <v>956</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>968</v>
+        <v>957</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>1797</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>1413</v>
+        <v>1402</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>969</v>
+        <v>958</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>970</v>
+        <v>959</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>971</v>
+        <v>960</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>1798</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>1356</v>
+        <v>1345</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>972</v>
+        <v>961</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>973</v>
+        <v>962</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>1594</v>
+        <v>1583</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>1574</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>1419</v>
+        <v>1408</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>975</v>
+        <v>964</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>976</v>
+        <v>965</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>977</v>
+        <v>966</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>1799</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>1515</v>
+        <v>1504</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>1608</v>
+        <v>1597</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>1537</v>
+        <v>1526</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>1800</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>1391</v>
+        <v>1380</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>979</v>
+        <v>968</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>980</v>
+        <v>969</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>1801</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>1479</v>
+        <v>1468</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>982</v>
+        <v>971</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>983</v>
+        <v>972</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>1802</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>1516</v>
+        <v>1505</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>984</v>
+        <v>973</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>985</v>
+        <v>974</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>986</v>
+        <v>975</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>1803</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>1421</v>
+        <v>1410</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>1804</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>1995</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>1303</v>
+        <v>1292</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>990</v>
+        <v>979</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>1574</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
-        <v>1597</v>
+        <v>1586</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>1596</v>
+        <v>1585</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>1598</v>
+        <v>1587</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1599</v>
+        <v>1588</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>1600</v>
+        <v>1589</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>1574</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>1430</v>
+        <v>1419</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>994</v>
+        <v>983</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>995</v>
+        <v>984</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>1805</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>1327</v>
+        <v>1316</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>996</v>
+        <v>985</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>997</v>
+        <v>986</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>998</v>
+        <v>987</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>1806</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>1435</v>
+        <v>1424</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>1041</v>
+        <v>1030</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>1042</v>
+        <v>1031</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>1043</v>
+        <v>1032</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>1807</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>1432</v>
+        <v>1421</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>1002</v>
+        <v>991</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>1003</v>
+        <v>992</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>1004</v>
+        <v>993</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>1808</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>1434</v>
+        <v>1423</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>1542</v>
+        <v>1531</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>1543</v>
+        <v>1532</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>1436</v>
+        <v>1425</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1005</v>
+        <v>994</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>1006</v>
+        <v>995</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>1007</v>
+        <v>996</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>1809</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>1302</v>
+        <v>1291</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>1645</v>
+        <v>1634</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>1925</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>1438</v>
+        <v>1427</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>1008</v>
+        <v>997</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>1009</v>
+        <v>998</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>1010</v>
+        <v>999</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>1810</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>1440</v>
+        <v>1429</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1011</v>
+        <v>1000</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>1012</v>
+        <v>1001</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>1013</v>
+        <v>1002</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>1811</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>1441</v>
+        <v>1430</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1014</v>
+        <v>1003</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>1015</v>
+        <v>1004</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>1016</v>
+        <v>1005</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>1812</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>1480</v>
+        <v>1469</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1017</v>
+        <v>1006</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>1019</v>
+        <v>1008</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>1813</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>1445</v>
+        <v>1434</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>1548</v>
+        <v>1537</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>1549</v>
+        <v>1538</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>1550</v>
+        <v>1539</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>1551</v>
+        <v>1540</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>1446</v>
+        <v>1435</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1020</v>
+        <v>1009</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>1021</v>
+        <v>1010</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>1814</v>
+        <v>1803</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>1976</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>1363</v>
+        <v>1352</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>1646</v>
+        <v>1635</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>1926</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>1449</v>
+        <v>1438</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>1024</v>
+        <v>1013</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>1025</v>
+        <v>1014</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>1815</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>1291</v>
+        <v>1280</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>1026</v>
+        <v>1015</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>1027</v>
+        <v>1016</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>1816</v>
+        <v>1805</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>1976</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>1477</v>
+        <v>1466</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>1035</v>
+        <v>1024</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>1036</v>
+        <v>1025</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>1037</v>
+        <v>1026</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>1817</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>1464</v>
+        <v>1453</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>1038</v>
+        <v>1027</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>1039</v>
+        <v>1028</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>1040</v>
+        <v>1029</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>1818</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>1427</v>
+        <v>1416</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>1030</v>
+        <v>1019</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>1031</v>
+        <v>1020</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>1819</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>1498</v>
+        <v>1487</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>1032</v>
+        <v>1021</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>1034</v>
+        <v>1023</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>1601</v>
+        <v>1590</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>1574</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>1464</v>
+        <v>1453</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>1647</v>
+        <v>1636</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>1927</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>1451</v>
+        <v>1440</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>1044</v>
+        <v>1033</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>1045</v>
+        <v>1034</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>1046</v>
+        <v>1035</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>1820</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>1518</v>
+        <v>1507</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>1047</v>
+        <v>1036</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>1048</v>
+        <v>1037</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>1049</v>
+        <v>1038</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>1821</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>1307</v>
+        <v>1296</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>1050</v>
+        <v>1039</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>1051</v>
+        <v>1040</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>1052</v>
+        <v>1041</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
-        <v>1602</v>
+        <v>1591</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>1603</v>
+        <v>1592</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>1604</v>
+        <v>1593</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>1605</v>
+        <v>1594</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>1606</v>
+        <v>1595</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>1574</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>1384</v>
+        <v>1373</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>1053</v>
+        <v>1042</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>1054</v>
+        <v>1043</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>1055</v>
+        <v>1044</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>1823</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
@@ -11541,10 +11538,10 @@
         <v>83</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
@@ -11561,52 +11558,52 @@
         <v>87</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>1976</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>1454</v>
+        <v>1443</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>1056</v>
+        <v>1045</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>1057</v>
+        <v>1046</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>1058</v>
+        <v>1047</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>1824</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>88</v>
@@ -11618,15 +11615,15 @@
         <v>90</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>92</v>
@@ -11638,44 +11635,44 @@
         <v>94</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>1411</v>
+        <v>1400</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>1648</v>
+        <v>1637</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>1928</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>1266</v>
+        <v>1255</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>1059</v>
+        <v>1048</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>1060</v>
+        <v>1049</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>1061</v>
+        <v>1050</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>1825</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
@@ -11692,84 +11689,84 @@
         <v>91</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>1298</v>
+        <v>1287</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>1649</v>
+        <v>1638</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>1929</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>1321</v>
+        <v>1310</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>1553</v>
+        <v>1542</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>1554</v>
+        <v>1543</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>1976</v>
+        <v>1965</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>1504</v>
+        <v>1493</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>1650</v>
+        <v>1639</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>1930</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.2">
@@ -11777,90 +11774,90 @@
         <v>25</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>1062</v>
+        <v>1051</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>1063</v>
+        <v>1052</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>1064</v>
+        <v>1053</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>1826</v>
+        <v>1815</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>1976</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>1529</v>
+        <v>1518</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>1528</v>
+        <v>1517</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>1827</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
-        <v>1993</v>
+        <v>1982</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>1989</v>
+        <v>1978</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>1990</v>
+        <v>1979</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>1991</v>
+        <v>1980</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>1992</v>
+        <v>1981</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>1976</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>1425</v>
+        <v>1414</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>1651</v>
+        <v>1640</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>2025</v>
+        <v>2014</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>1931</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>1526</v>
+        <v>1515</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>1652</v>
+        <v>1641</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>2026</v>
+        <v>2015</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>1932</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
@@ -11877,490 +11874,490 @@
         <v>101</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>1452</v>
+        <v>1441</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>1065</v>
+        <v>1054</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>1066</v>
+        <v>1055</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>1067</v>
+        <v>1056</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>1283</v>
+        <v>1272</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>1653</v>
+        <v>1642</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>2027</v>
+        <v>2016</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>1933</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>1472</v>
+        <v>1461</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>1654</v>
+        <v>1643</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>1934</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>1512</v>
+        <v>1501</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>1068</v>
+        <v>1057</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>1069</v>
+        <v>1058</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>1070</v>
+        <v>1059</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>1829</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>1374</v>
+        <v>1363</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>1071</v>
+        <v>1060</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>1072</v>
+        <v>1061</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>1073</v>
+        <v>1062</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>1830</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>1457</v>
+        <v>1446</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>1655</v>
+        <v>1644</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>2028</v>
+        <v>2017</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>1935</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>1429</v>
+        <v>1418</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>1656</v>
+        <v>1645</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>2029</v>
+        <v>2018</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>1936</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
-        <v>1497</v>
+        <v>1486</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>1657</v>
+        <v>1646</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>1937</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
-        <v>1339</v>
+        <v>1328</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>1074</v>
+        <v>1063</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>1075</v>
+        <v>1064</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>1831</v>
+        <v>1820</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>1500</v>
+        <v>1489</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>1658</v>
+        <v>1647</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>2030</v>
+        <v>2019</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>1938</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>1346</v>
+        <v>1335</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>1076</v>
+        <v>1065</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>1077</v>
+        <v>1066</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>1078</v>
+        <v>1067</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>1607</v>
+        <v>1596</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>1574</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
-        <v>1494</v>
+        <v>1483</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>1079</v>
+        <v>1068</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>1080</v>
+        <v>1069</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>1081</v>
+        <v>1070</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>1832</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
-        <v>1271</v>
+        <v>1260</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>1659</v>
+        <v>1648</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>1939</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>1463</v>
+        <v>1452</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>1082</v>
+        <v>1071</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>1083</v>
+        <v>1072</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>1084</v>
+        <v>1073</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>1833</v>
+        <v>1822</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>1976</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>1269</v>
+        <v>1258</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>1088</v>
+        <v>1077</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>1089</v>
+        <v>1078</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>1090</v>
+        <v>1079</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>1834</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>1378</v>
+        <v>1367</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>1085</v>
+        <v>1074</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>1087</v>
+        <v>1076</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>1835</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>1410</v>
+        <v>1399</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>1091</v>
+        <v>1080</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>1836</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
-        <v>1465</v>
+        <v>1454</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>1660</v>
+        <v>1649</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>2031</v>
+        <v>2020</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>1940</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
-        <v>1469</v>
+        <v>1458</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>1092</v>
+        <v>1081</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>1093</v>
+        <v>1082</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>1094</v>
+        <v>1083</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>1837</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>1404</v>
+        <v>1393</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>1095</v>
+        <v>1084</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>1096</v>
+        <v>1085</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>1097</v>
+        <v>1086</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>1838</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
-        <v>1465</v>
+        <v>1454</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>1555</v>
+        <v>1544</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>1557</v>
+        <v>1546</v>
       </c>
       <c r="E317" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="G317" s="1" t="s">
         <v>1556</v>
-      </c>
-      <c r="G317" s="1" t="s">
-        <v>1567</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
-        <v>1467</v>
+        <v>1456</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>1098</v>
+        <v>1087</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>1099</v>
+        <v>1088</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>1100</v>
+        <v>1089</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>1839</v>
+        <v>1828</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>1994</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>1299</v>
+        <v>1288</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>1533</v>
+        <v>1522</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>2032</v>
+        <v>2021</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>1840</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.2">
@@ -12377,152 +12374,152 @@
         <v>105</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>1101</v>
+        <v>1090</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>1102</v>
+        <v>1091</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>1103</v>
+        <v>1092</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>1841</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>1470</v>
+        <v>1459</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>1104</v>
+        <v>1093</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>1105</v>
+        <v>1094</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>1106</v>
+        <v>1095</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>1842</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>1450</v>
+        <v>1439</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>1107</v>
+        <v>1096</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>1108</v>
+        <v>1097</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>1109</v>
+        <v>1098</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>1843</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>1382</v>
+        <v>1371</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>1110</v>
+        <v>1099</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>1111</v>
+        <v>1100</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>1112</v>
+        <v>1101</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>1844</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>1405</v>
+        <v>1394</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>1113</v>
+        <v>1102</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>1114</v>
+        <v>1103</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>1115</v>
+        <v>1104</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>1845</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>1418</v>
+        <v>1407</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>1116</v>
+        <v>1105</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>1846</v>
+        <v>1835</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>1976</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>1264</v>
+        <v>1253</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>1661</v>
+        <v>1650</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>1941</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>1343</v>
+        <v>1332</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>1120</v>
+        <v>1109</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>1121</v>
+        <v>1110</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>1847</v>
+        <v>1836</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>1976</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.2">
@@ -12539,66 +12536,66 @@
         <v>109</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>1317</v>
+        <v>1306</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>1662</v>
+        <v>1651</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>1942</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>1286</v>
+        <v>1275</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>1663</v>
+        <v>1652</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>1943</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>1473</v>
+        <v>1462</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>1122</v>
+        <v>1111</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>1848</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>110</v>
@@ -12607,354 +12604,354 @@
         <v>111</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>1474</v>
+        <v>1463</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>1123</v>
+        <v>1112</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>1124</v>
+        <v>1113</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>1125</v>
+        <v>1114</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>1849</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>1448</v>
+        <v>1437</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>1126</v>
+        <v>1115</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>1127</v>
+        <v>1116</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>1128</v>
+        <v>1117</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>1850</v>
+        <v>1839</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>1976</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>1396</v>
+        <v>1385</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>1129</v>
+        <v>1118</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>1130</v>
+        <v>1119</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>1131</v>
+        <v>1120</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>1851</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>1509</v>
+        <v>1498</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>1132</v>
+        <v>1121</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>1133</v>
+        <v>1122</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>1134</v>
+        <v>1123</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>1852</v>
+        <v>1841</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>1976</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>1487</v>
+        <v>1476</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>1532</v>
+        <v>1521</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>1135</v>
+        <v>1124</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>1136</v>
+        <v>1125</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>1853</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>1304</v>
+        <v>1293</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>1664</v>
+        <v>1653</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>2033</v>
+        <v>2022</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>1944</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
-        <v>1476</v>
+        <v>1465</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>1665</v>
+        <v>1654</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>1945</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
-        <v>1431</v>
+        <v>1420</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>1137</v>
+        <v>1126</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>1138</v>
+        <v>1127</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>1139</v>
+        <v>1128</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>1854</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
-        <v>1475</v>
+        <v>1464</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>1558</v>
+        <v>1547</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>1559</v>
+        <v>1548</v>
       </c>
       <c r="G343" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
-        <v>1478</v>
+        <v>1467</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>1140</v>
+        <v>1129</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>1141</v>
+        <v>1130</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>1142</v>
+        <v>1131</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>1855</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
-        <v>1481</v>
+        <v>1470</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>1666</v>
+        <v>1655</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>1946</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
-        <v>1483</v>
+        <v>1472</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>1143</v>
+        <v>1132</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>1144</v>
+        <v>1133</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>1145</v>
+        <v>1134</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>1856</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
-        <v>1383</v>
+        <v>1372</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>1146</v>
+        <v>1135</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>1147</v>
+        <v>1136</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>1148</v>
+        <v>1137</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>1857</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
-        <v>1482</v>
+        <v>1471</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>1560</v>
+        <v>1549</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>1561</v>
+        <v>1550</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>1562</v>
+        <v>1551</v>
       </c>
       <c r="G348" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
-        <v>1484</v>
+        <v>1473</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>1149</v>
+        <v>1138</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>1150</v>
+        <v>1139</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>1151</v>
+        <v>1140</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>1858</v>
+        <v>1847</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>1976</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
-        <v>1519</v>
+        <v>1508</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>1667</v>
+        <v>1656</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>1536</v>
+        <v>1525</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>1947</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
-        <v>1268</v>
+        <v>1257</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>1153</v>
+        <v>1142</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>1154</v>
+        <v>1143</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>1859</v>
+        <v>1848</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>1976</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
-        <v>1488</v>
+        <v>1477</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>1668</v>
+        <v>1657</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>2034</v>
+        <v>2023</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>1948</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>1488</v>
+        <v>1477</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>1669</v>
+        <v>1658</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>2035</v>
+        <v>2024</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>1949</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.2">
@@ -12962,135 +12959,135 @@
         <v>6</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>1670</v>
+        <v>1659</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>2036</v>
+        <v>2025</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>1950</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
-        <v>1329</v>
+        <v>1318</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>1671</v>
+        <v>1660</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>2037</v>
+        <v>2026</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>1951</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
-        <v>1490</v>
+        <v>1479</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>1672</v>
+        <v>1661</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>1952</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
-        <v>1530</v>
+        <v>1519</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>1673</v>
+        <v>1662</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>1953</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
-        <v>1489</v>
+        <v>1478</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>1155</v>
+        <v>1144</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>1156</v>
+        <v>1145</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>1157</v>
+        <v>1146</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>1860</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
-        <v>1455</v>
+        <v>1444</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>1158</v>
+        <v>1147</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>1159</v>
+        <v>1148</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>1160</v>
+        <v>1149</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>1861</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
-        <v>1324</v>
+        <v>1313</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>1161</v>
+        <v>1150</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>1162</v>
+        <v>1151</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>1163</v>
+        <v>1152</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>1862</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.2">
@@ -13107,24 +13104,24 @@
         <v>115</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
-        <v>1460</v>
+        <v>1449</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>1674</v>
+        <v>1663</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>1954</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.2">
@@ -13141,254 +13138,254 @@
         <v>119</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="G364" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
-        <v>1496</v>
+        <v>1485</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>1164</v>
+        <v>1153</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>1165</v>
+        <v>1154</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>1166</v>
+        <v>1155</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>1863</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
-        <v>1395</v>
+        <v>1384</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>1167</v>
+        <v>1156</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>1168</v>
+        <v>1157</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>1169</v>
+        <v>1158</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>1864</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
-        <v>1493</v>
+        <v>1482</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>1170</v>
+        <v>1159</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>1171</v>
+        <v>1160</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>1172</v>
+        <v>1161</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>1865</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
-        <v>1315</v>
+        <v>1304</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>1173</v>
+        <v>1162</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>1563</v>
+        <v>1552</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>1564</v>
+        <v>1553</v>
       </c>
       <c r="G368" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>1976</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
-        <v>1386</v>
+        <v>1375</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>1174</v>
+        <v>1163</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>1175</v>
+        <v>1164</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>1176</v>
+        <v>1165</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>1866</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>1277</v>
+        <v>1266</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>1675</v>
+        <v>1664</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>2038</v>
+        <v>2027</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>1955</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>1408</v>
+        <v>1397</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>1177</v>
+        <v>1166</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>1178</v>
+        <v>1167</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>1179</v>
+        <v>1168</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>1867</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
-        <v>1342</v>
+        <v>1331</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>1180</v>
+        <v>1169</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>1181</v>
+        <v>1170</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>1182</v>
+        <v>1171</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>1868</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
-        <v>1326</v>
+        <v>1315</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>1676</v>
+        <v>1665</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>2039</v>
+        <v>2028</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>1956</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
-        <v>1341</v>
+        <v>1330</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>1195</v>
+        <v>1184</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>1196</v>
+        <v>1185</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>1197</v>
+        <v>1186</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>1869</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
-        <v>1501</v>
+        <v>1490</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>1183</v>
+        <v>1172</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>1184</v>
+        <v>1173</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>1185</v>
+        <v>1174</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>1870</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>1677</v>
+        <v>1666</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>2040</v>
+        <v>2029</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>1957</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
-        <v>1503</v>
+        <v>1492</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>1678</v>
+        <v>1667</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>1958</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.2">
@@ -13405,285 +13402,285 @@
         <v>123</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="G379" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
-        <v>1427</v>
+        <v>1416</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>1565</v>
+        <v>1554</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>1566</v>
+        <v>1555</v>
       </c>
       <c r="G380" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
-        <v>1502</v>
+        <v>1491</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>1187</v>
+        <v>1176</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>1188</v>
+        <v>1177</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>1871</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
-        <v>1406</v>
+        <v>1395</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>1189</v>
+        <v>1178</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>1190</v>
+        <v>1179</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>1191</v>
+        <v>1180</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>1872</v>
+        <v>1861</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>1976</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
-        <v>1294</v>
+        <v>1283</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>1192</v>
+        <v>1181</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>1193</v>
+        <v>1182</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>1194</v>
+        <v>1183</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>1873</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>1994</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
-        <v>1964</v>
+        <v>1953</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>1963</v>
+        <v>1952</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>1965</v>
+        <v>1954</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>1966</v>
+        <v>1955</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>1967</v>
+        <v>1956</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>1574</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
-        <v>1968</v>
+        <v>1957</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>1969</v>
+        <v>1958</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1970</v>
+        <v>1959</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>1971</v>
+        <v>1960</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>1972</v>
+        <v>1961</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>1574</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
-        <v>1358</v>
+        <v>1347</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>1679</v>
+        <v>1668</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>1959</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
-        <v>1459</v>
+        <v>1448</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>1680</v>
+        <v>1669</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>1198</v>
+        <v>1187</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>1199</v>
+        <v>1188</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>1960</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
-        <v>1350</v>
+        <v>1339</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>1200</v>
+        <v>1189</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>1201</v>
+        <v>1190</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>1202</v>
+        <v>1191</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>1874</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
-        <v>1351</v>
+        <v>1340</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>1203</v>
+        <v>1192</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>1204</v>
+        <v>1193</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>1205</v>
+        <v>1194</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>1875</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
-        <v>1422</v>
+        <v>1411</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>1206</v>
+        <v>1195</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>1207</v>
+        <v>1196</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>1208</v>
+        <v>1197</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>1876</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
-        <v>1352</v>
+        <v>1341</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>1209</v>
+        <v>1198</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>1210</v>
+        <v>1199</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>1211</v>
+        <v>1200</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>1877</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
-        <v>1372</v>
+        <v>1361</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>1212</v>
+        <v>1201</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>1878</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>132</v>
@@ -13695,101 +13692,101 @@
         <v>134</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="G395" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
-        <v>1510</v>
+        <v>1499</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>1239</v>
+        <v>1228</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1240</v>
+        <v>1229</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>1241</v>
+        <v>1230</v>
       </c>
       <c r="E396" s="1" t="s">
-        <v>1879</v>
+        <v>1868</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>1574</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
-        <v>1511</v>
+        <v>1500</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>1215</v>
+        <v>1204</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>1216</v>
+        <v>1205</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>1217</v>
+        <v>1206</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>1880</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
-        <v>1512</v>
+        <v>1501</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>1218</v>
+        <v>1207</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>1219</v>
+        <v>1208</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>1220</v>
+        <v>1209</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>1881</v>
+        <v>1870</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>1574</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
-        <v>1514</v>
+        <v>1503</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>1221</v>
+        <v>1210</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1222</v>
+        <v>1211</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>1223</v>
+        <v>1212</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>1882</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
-        <v>1251</v>
+        <v>1240</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>1681</v>
+        <v>1670</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>1961</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.2">
@@ -13806,66 +13803,66 @@
         <v>127</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>1574</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
-        <v>1423</v>
+        <v>1412</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>1224</v>
+        <v>1213</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1225</v>
+        <v>1214</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>1226</v>
+        <v>1215</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>1883</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
-        <v>1250</v>
+        <v>1239</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>1682</v>
+        <v>1671</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>2041</v>
+        <v>2030</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>1962</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B405" s="1" t="s">
         <v>149</v>
@@ -13877,64 +13874,64 @@
         <v>151</v>
       </c>
       <c r="E405" s="1" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="G405" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
-        <v>1513</v>
+        <v>1502</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>1227</v>
+        <v>1216</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1228</v>
+        <v>1217</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>1884</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
-        <v>1517</v>
+        <v>1506</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>1230</v>
+        <v>1219</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="E407" s="1" t="s">
-        <v>1885</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>1976</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="409" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
@@ -13951,70 +13948,70 @@
         <v>131</v>
       </c>
       <c r="E409" s="1" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="F409" s="1"/>
       <c r="G409" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="410" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
-        <v>1367</v>
+        <v>1356</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>1231</v>
+        <v>1220</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>1232</v>
+        <v>1221</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>1233</v>
+        <v>1222</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>1886</v>
+        <v>1875</v>
       </c>
       <c r="F410" s="1"/>
     </row>
     <row r="411" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
-        <v>1433</v>
+        <v>1422</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>1234</v>
+        <v>1223</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1235</v>
+        <v>1224</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>1236</v>
+        <v>1225</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>1887</v>
+        <v>1876</v>
       </c>
       <c r="F411" s="1"/>
     </row>
     <row r="412" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
-        <v>1505</v>
+        <v>1494</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>1237</v>
+        <v>1226</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>1238</v>
+        <v>1227</v>
       </c>
       <c r="E412" s="1" t="s">
-        <v>1888</v>
+        <v>1877</v>
       </c>
       <c r="F412" s="1"/>
     </row>
     <row r="413" spans="1:7" customFormat="1" ht="16" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:G412" xr:uid="{E3481854-EAED-6049-BF81-C25708806C56}"/>
+  <autoFilter ref="A1:AP412" xr:uid="{29744192-385C-1546-98E9-7A4BCFAF1573}"/>
   <conditionalFormatting sqref="AQ414:XFD1048576 A14 C14:F14 A393 C393:F393 A414:F1048576 A1:F13 A394:F401 A15:F392 AQ1:XFD408 A403:F412">
     <cfRule type="duplicateValues" dxfId="6" priority="9"/>
   </conditionalFormatting>

--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Edite/Documents/GitHub/Norsk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250FE22F-FDD7-A746-941D-D488732DF7A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D397EC-23A5-5740-96EA-27ABB98D0521}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="500" windowWidth="34740" windowHeight="18380" xr2:uid="{D9759F51-050D-AD4F-8F66-76048091BB84}"/>
   </bookViews>
@@ -510,9 +510,6 @@
     <t>arbeider</t>
   </si>
   <si>
-    <t>arbeidet </t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
@@ -780,9 +777,6 @@
     <t>handler</t>
   </si>
   <si>
-    <t>handlet </t>
-  </si>
-  <si>
     <t>act, shop, deal with</t>
   </si>
   <si>
@@ -801,9 +795,6 @@
     <t>henter</t>
   </si>
   <si>
-    <t>hentet </t>
-  </si>
-  <si>
     <t>fetch, bring</t>
   </si>
   <si>
@@ -831,9 +822,6 @@
     <t>husker</t>
   </si>
   <si>
-    <t>husket </t>
-  </si>
-  <si>
     <t>remember</t>
   </si>
   <si>
@@ -864,9 +852,6 @@
     <t>jobber</t>
   </si>
   <si>
-    <t>jobbet </t>
-  </si>
-  <si>
     <t>kjenner</t>
   </si>
   <si>
@@ -966,9 +951,6 @@
     <t>ligner / likner</t>
   </si>
   <si>
-    <t>lignet / liknet </t>
-  </si>
-  <si>
     <t>resemble, look like</t>
   </si>
   <si>
@@ -1251,18 +1233,12 @@
     <t>ønsker</t>
   </si>
   <si>
-    <t>ønsket </t>
-  </si>
-  <si>
     <t>wish, desire</t>
   </si>
   <si>
     <t>åpner</t>
   </si>
   <si>
-    <t>åpnet </t>
-  </si>
-  <si>
     <t>open</t>
   </si>
   <si>
@@ -1284,15 +1260,6 @@
     <t>har valgt</t>
   </si>
   <si>
-    <t>skal </t>
-  </si>
-  <si>
-    <t>slåss </t>
-  </si>
-  <si>
-    <t>synes / syns </t>
-  </si>
-  <si>
     <t>å åpne</t>
   </si>
   <si>
@@ -2247,9 +2214,6 @@
     <t>foreslo</t>
   </si>
   <si>
-    <t>å foreta </t>
-  </si>
-  <si>
     <t>foretar</t>
   </si>
   <si>
@@ -2442,9 +2406,6 @@
     <t>grenser</t>
   </si>
   <si>
-    <t>grenset </t>
-  </si>
-  <si>
     <t>å grille</t>
   </si>
   <si>
@@ -6172,6 +6133,45 @@
   </si>
   <si>
     <t>har lignet / har liknet</t>
+  </si>
+  <si>
+    <t>åpnet</t>
+  </si>
+  <si>
+    <t>arbeidet</t>
+  </si>
+  <si>
+    <t>grenset</t>
+  </si>
+  <si>
+    <t>handlet</t>
+  </si>
+  <si>
+    <t>hentet</t>
+  </si>
+  <si>
+    <t>husket</t>
+  </si>
+  <si>
+    <t>jobbet</t>
+  </si>
+  <si>
+    <t>lignet / liknet</t>
+  </si>
+  <si>
+    <t>ønsket</t>
+  </si>
+  <si>
+    <t>å foreta</t>
+  </si>
+  <si>
+    <t>skal</t>
+  </si>
+  <si>
+    <t>slåss</t>
+  </si>
+  <si>
+    <t>synes / syns</t>
   </si>
 </sst>
 </file>
@@ -6615,7 +6615,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K211" sqref="K211"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -6625,7 +6625,8 @@
     <col min="3" max="3" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
     <col min="43" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -6649,246 +6650,246 @@
         <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1541</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1396</v>
+        <v>1383</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1672</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>1424</v>
+        <v>1411</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1673</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>1334</v>
+        <v>1321</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>403</v>
+        <v>2028</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>2031</v>
+        <v>2018</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1563</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>152</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>153</v>
+        <v>2029</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>2032</v>
+        <v>2019</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1563</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>1557</v>
+        <v>1544</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1558</v>
+        <v>1545</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1559</v>
+        <v>1546</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1560</v>
+        <v>1547</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1561</v>
+        <v>1548</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>1431</v>
+        <v>1418</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1674</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>1284</v>
+        <v>1271</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1675</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>1262</v>
+        <v>1249</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1676</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>1962</v>
+        <v>1949</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1963</v>
+        <v>1950</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1964</v>
+        <v>1951</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1966</v>
+        <v>1953</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1967</v>
+        <v>1954</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1965</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>1265</v>
+        <v>1252</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1677</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>1445</v>
+        <v>1432</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1678</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -6896,376 +6897,376 @@
         <v>107</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1529</v>
+        <v>1516</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1523</v>
+        <v>1510</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1533</v>
+        <v>1520</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>1254</v>
+        <v>1241</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1679</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>1329</v>
+        <v>1316</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>1288</v>
+        <v>1275</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1681</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>1965</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>1359</v>
+        <v>1346</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1682</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>1353</v>
+        <v>1340</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1683</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>1321</v>
+        <v>1308</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1684</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>1392</v>
+        <v>1379</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1685</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>1403</v>
+        <v>1390</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1686</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>1324</v>
+        <v>1311</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1687</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>1965</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>1390</v>
+        <v>1377</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1598</v>
+        <v>1585</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1985</v>
+        <v>1972</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1878</v>
+        <v>1865</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1983</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>1969</v>
+        <v>1956</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1968</v>
+        <v>1955</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1970</v>
+        <v>1957</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1971</v>
+        <v>1958</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1972</v>
+        <v>1959</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1965</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>1237</v>
+        <v>1224</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1599</v>
+        <v>1586</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1879</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>1267</v>
+        <v>1254</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1688</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>1261</v>
+        <v>1248</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1689</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>1269</v>
+        <v>1256</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1690</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>1270</v>
+        <v>1257</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1691</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>1238</v>
+        <v>1225</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>3</v>
@@ -7274,67 +7275,67 @@
         <v>4</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="G36" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>1268</v>
+        <v>1255</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1692</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>1377</v>
+        <v>1364</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="F38" s="1" t="s">
-        <v>1983</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>1276</v>
+        <v>1263</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1693</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -7351,103 +7352,103 @@
         <v>8</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>1278</v>
+        <v>1265</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1694</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="F43" s="1" t="s">
-        <v>1965</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>1274</v>
+        <v>1261</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1695</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>1497</v>
+        <v>1484</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1530</v>
+        <v>1517</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1986</v>
+        <v>1973</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1534</v>
+        <v>1521</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>137</v>
@@ -7459,166 +7460,166 @@
         <v>139</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1696</v>
+        <v>1683</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>1398</v>
+        <v>1385</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1697</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>1277</v>
+        <v>1264</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1698</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>1286</v>
+        <v>1273</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1699</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>1314</v>
+        <v>1301</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1700</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1564</v>
+        <v>1551</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1565</v>
+        <v>1552</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1566</v>
+        <v>1553</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1571</v>
+        <v>1558</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>1563</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>1319</v>
+        <v>1306</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1701</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>1508</v>
+        <v>1495</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1600</v>
+        <v>1587</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1880</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>1323</v>
+        <v>1310</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1702</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -7632,13 +7633,13 @@
         <v>19</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>2033</v>
+        <v>2020</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1984</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -7655,27 +7656,27 @@
         <v>12</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -7692,169 +7693,169 @@
         <v>16</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="G60" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>1326</v>
+        <v>1313</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1703</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>1447</v>
+        <v>1434</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1568</v>
+        <v>1555</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>1563</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>1309</v>
+        <v>1296</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1704</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>1417</v>
+        <v>1404</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1705</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>1436</v>
+        <v>1423</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1706</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>1333</v>
+        <v>1320</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1707</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>1337</v>
+        <v>1324</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1708</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -7871,61 +7872,61 @@
         <v>38</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>1520</v>
+        <v>1507</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1601</v>
+        <v>1588</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>1881</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>1285</v>
+        <v>1272</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>1709</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -7942,359 +7943,359 @@
         <v>23</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>1344</v>
+        <v>1331</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>1369</v>
+        <v>1356</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>1711</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>1242</v>
+        <v>1229</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1602</v>
+        <v>1589</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>1882</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>1346</v>
+        <v>1333</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>1712</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>1241</v>
+        <v>1228</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1603</v>
+        <v>1590</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1987</v>
+        <v>1974</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1883</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>1527</v>
+        <v>1514</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1528</v>
+        <v>1515</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>1713</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>1509</v>
+        <v>1496</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1604</v>
+        <v>1591</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1988</v>
+        <v>1975</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>1884</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>1264</v>
+        <v>1251</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>1714</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>1263</v>
+        <v>1250</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>1715</v>
+        <v>1702</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>1965</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>1243</v>
+        <v>1230</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1605</v>
+        <v>1592</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>1885</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>1271</v>
+        <v>1258</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>1716</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>1496</v>
+        <v>1483</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>1717</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>1475</v>
+        <v>1462</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>1718</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>1495</v>
+        <v>1482</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>732</v>
+        <v>2037</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>1719</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="G89" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>1282</v>
+        <v>1269</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>1720</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="E91" s="1" t="s">
-        <v>2034</v>
+        <v>2021</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>1965</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>1348</v>
+        <v>1335</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>1721</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>1426</v>
+        <v>1413</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>1722</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -8311,35 +8312,35 @@
         <v>27</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>1322</v>
+        <v>1309</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>1535</v>
+        <v>1522</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>28</v>
@@ -8351,10 +8352,10 @@
         <v>30</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -8371,100 +8372,100 @@
         <v>34</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>1358</v>
+        <v>1345</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>1723</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>1405</v>
+        <v>1392</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>1244</v>
+        <v>1231</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1606</v>
+        <v>1593</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>1989</v>
+        <v>1976</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>1886</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>1508</v>
+        <v>1495</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1607</v>
+        <v>1594</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>1524</v>
+        <v>1511</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>1887</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>1343</v>
+        <v>1330</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>46</v>
@@ -8476,44 +8477,44 @@
         <v>48</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>1308</v>
+        <v>1295</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>1726</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>1349</v>
+        <v>1336</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>1727</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -8527,124 +8528,124 @@
         <v>41</v>
       </c>
       <c r="D106" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="G106" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>1481</v>
+        <v>1468</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1608</v>
+        <v>1595</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>1888</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>1389</v>
+        <v>1376</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>1569</v>
+        <v>1556</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>1563</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="C109" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="E109" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>1977</v>
+        <v>1964</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1973</v>
+        <v>1960</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1974</v>
+        <v>1961</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>1975</v>
+        <v>1962</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>1976</v>
+        <v>1963</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>1965</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>1428</v>
+        <v>1415</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>1728</v>
+        <v>1715</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>1357</v>
+        <v>1344</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>1729</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -8661,339 +8662,339 @@
         <v>45</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>1381</v>
+        <v>1368</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>1570</v>
+        <v>1557</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>1563</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="C115" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="E115" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="F115" s="1" t="s">
-        <v>1965</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>1450</v>
+        <v>1437</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1609</v>
+        <v>1596</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>1990</v>
+        <v>1977</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>1889</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>1510</v>
+        <v>1497</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1610</v>
+        <v>1597</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>1890</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>1351</v>
+        <v>1338</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>783</v>
+        <v>771</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>785</v>
+        <v>773</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>1730</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1611</v>
+        <v>1598</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>1991</v>
+        <v>1978</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>1891</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>1246</v>
+        <v>1233</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1612</v>
+        <v>1599</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>1992</v>
+        <v>1979</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>1892</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>1297</v>
+        <v>1284</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>1731</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>1247</v>
+        <v>1234</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1613</v>
+        <v>1600</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>1993</v>
+        <v>1980</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>1893</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>1294</v>
+        <v>1281</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>791</v>
+        <v>779</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>1732</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>1387</v>
+        <v>1374</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>1733</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>1273</v>
+        <v>1260</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>797</v>
+        <v>2030</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>1734</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>1355</v>
+        <v>1342</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>1248</v>
+        <v>1235</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1614</v>
+        <v>1601</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>1994</v>
+        <v>1981</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>1894</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>1249</v>
+        <v>1236</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1615</v>
+        <v>1602</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>1995</v>
+        <v>1982</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>1895</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>1325</v>
+        <v>1312</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>801</v>
+        <v>788</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>802</v>
+        <v>789</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>1736</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>1250</v>
+        <v>1237</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1616</v>
+        <v>1603</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>1996</v>
+        <v>1983</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>1896</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>1251</v>
+        <v>1238</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1617</v>
+        <v>1604</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>1997</v>
+        <v>1984</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>1897</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>1242</v>
+        <v>1229</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1618</v>
+        <v>1605</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>1998</v>
+        <v>1985</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>1898</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -9010,98 +9011,98 @@
         <v>52</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>243</v>
+        <v>2031</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>2035</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>1365</v>
+        <v>1352</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>828</v>
+        <v>815</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>830</v>
+        <v>817</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>1737</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="C136" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E136" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>1360</v>
+        <v>1347</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>805</v>
+        <v>792</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>806</v>
+        <v>793</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>1738</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>250</v>
+        <v>2032</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>1563</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
@@ -9115,67 +9116,67 @@
         <v>55</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>1563</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>1354</v>
+        <v>1341</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>807</v>
+        <v>794</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>808</v>
+        <v>795</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>809</v>
+        <v>796</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>1739</v>
+        <v>1726</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>1965</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>1413</v>
+        <v>1400</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>810</v>
+        <v>797</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>811</v>
+        <v>798</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>1252</v>
+        <v>1239</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1619</v>
+        <v>1606</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>1999</v>
+        <v>1986</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>1899</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
@@ -9192,510 +9193,510 @@
         <v>59</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>1311</v>
+        <v>1298</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1620</v>
+        <v>1607</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>2000</v>
+        <v>1987</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>1900</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>1370</v>
+        <v>1357</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>1572</v>
+        <v>1559</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>1563</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>1965</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>1303</v>
+        <v>1290</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>1573</v>
+        <v>1560</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>1563</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>1362</v>
+        <v>1349</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>826</v>
+        <v>813</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>827</v>
+        <v>814</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>1511</v>
+        <v>1498</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1621</v>
+        <v>1608</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>2001</v>
+        <v>1988</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>1901</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>260</v>
+        <v>2033</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>2036</v>
+        <v>2023</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>1563</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>1432</v>
+        <v>1419</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>1295</v>
+        <v>1282</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>823</v>
+        <v>810</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>824</v>
+        <v>811</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>1368</v>
+        <v>1355</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>1744</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>271</v>
+        <v>2034</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>2039</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>1279</v>
+        <v>1266</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>834</v>
+        <v>821</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>1745</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>1281</v>
+        <v>1268</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>837</v>
+        <v>824</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>838</v>
+        <v>825</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>839</v>
+        <v>826</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>1574</v>
+        <v>1561</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>1563</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>1965</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>1965</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>1290</v>
+        <v>1277</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>842</v>
+        <v>829</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>1386</v>
+        <v>1373</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>844</v>
+        <v>831</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>1747</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>1327</v>
+        <v>1314</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>846</v>
+        <v>833</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>847</v>
+        <v>834</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>1748</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>1457</v>
+        <v>1444</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>1622</v>
+        <v>1609</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>1902</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>1312</v>
+        <v>1299</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>1623</v>
+        <v>1610</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>2002</v>
+        <v>1989</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>1903</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>1293</v>
+        <v>1280</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>1624</v>
+        <v>1611</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>2003</v>
+        <v>1990</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>1904</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>1305</v>
+        <v>1292</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1625</v>
+        <v>1612</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>2004</v>
+        <v>1991</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>1905</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>1406</v>
+        <v>1393</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>1626</v>
+        <v>1613</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>2005</v>
+        <v>1992</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>1906</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>1488</v>
+        <v>1475</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>850</v>
+        <v>837</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>851</v>
+        <v>838</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>1749</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>1300</v>
+        <v>1287</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>852</v>
+        <v>839</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>853</v>
+        <v>840</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>1750</v>
+        <v>1737</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>1965</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
@@ -9712,137 +9713,137 @@
         <v>63</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>1298</v>
+        <v>1285</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>1751</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>1299</v>
+        <v>1286</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>1752</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>1301</v>
+        <v>1288</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>862</v>
+        <v>849</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>863</v>
+        <v>850</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>1753</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>1302</v>
+        <v>1289</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>866</v>
+        <v>853</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>1754</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>1336</v>
+        <v>1323</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>867</v>
+        <v>854</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>1755</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>2037</v>
+        <v>2024</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>1563</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>1307</v>
+        <v>1294</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1627</v>
+        <v>1614</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>2006</v>
+        <v>1993</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>1907</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>140</v>
@@ -9854,166 +9855,166 @@
         <v>142</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>1512</v>
+        <v>1499</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1628</v>
+        <v>1615</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>1908</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>1513</v>
+        <v>1500</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1629</v>
+        <v>1616</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>1909</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>1289</v>
+        <v>1276</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1630</v>
+        <v>1617</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>2007</v>
+        <v>1994</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>1910</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>1514</v>
+        <v>1501</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1631</v>
+        <v>1618</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>1911</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>1575</v>
+        <v>1562</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>1576</v>
+        <v>1563</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>1563</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>1378</v>
+        <v>1365</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>905</v>
+        <v>892</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>906</v>
+        <v>893</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>907</v>
+        <v>894</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>1756</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>1379</v>
+        <v>1366</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>908</v>
+        <v>895</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>909</v>
+        <v>896</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>910</v>
+        <v>897</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>1757</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
@@ -10030,10 +10031,10 @@
         <v>67</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
@@ -10050,135 +10051,135 @@
         <v>71</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>1364</v>
+        <v>1351</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>871</v>
+        <v>858</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>872</v>
+        <v>859</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>1758</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>1407</v>
+        <v>1394</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>1759</v>
+        <v>1746</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>1965</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>1442</v>
+        <v>1429</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>878</v>
+        <v>865</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>1760</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>1984</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>1350</v>
+        <v>1337</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>1761</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>1474</v>
+        <v>1461</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>883</v>
+        <v>870</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>1762</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
@@ -10195,237 +10196,237 @@
         <v>75</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>305</v>
+        <v>2035</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>2040</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>1965</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>1374</v>
+        <v>1361</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>1763</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>1383</v>
+        <v>1370</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>902</v>
+        <v>889</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>904</v>
+        <v>891</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>1764</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>1415</v>
+        <v>1402</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>887</v>
+        <v>874</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>1765</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>1256</v>
+        <v>1243</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>889</v>
+        <v>876</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>1766</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>1451</v>
+        <v>1438</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>891</v>
+        <v>878</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>1767</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>1457</v>
+        <v>1444</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>1632</v>
+        <v>1619</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>2008</v>
+        <v>1995</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>1912</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>1484</v>
+        <v>1471</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>1768</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>1376</v>
+        <v>1363</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>897</v>
+        <v>884</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>1577</v>
+        <v>1564</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>1563</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>1391</v>
+        <v>1378</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>923</v>
+        <v>910</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>924</v>
+        <v>911</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>925</v>
+        <v>912</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>1769</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>1274</v>
+        <v>1261</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>911</v>
+        <v>898</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>913</v>
+        <v>900</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>1770</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
@@ -10442,95 +10443,95 @@
         <v>146</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>1388</v>
+        <v>1375</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>914</v>
+        <v>901</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>915</v>
+        <v>902</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>1317</v>
+        <v>1304</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>917</v>
+        <v>904</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>918</v>
+        <v>905</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>919</v>
+        <v>906</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>1384</v>
+        <v>1371</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>920</v>
+        <v>907</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>921</v>
+        <v>908</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>922</v>
+        <v>909</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
@@ -10547,981 +10548,981 @@
         <v>79</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>1320</v>
+        <v>1307</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>926</v>
+        <v>913</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>927</v>
+        <v>914</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>928</v>
+        <v>915</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>1320</v>
+        <v>1307</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>929</v>
+        <v>916</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>930</v>
+        <v>917</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>931</v>
+        <v>918</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>1455</v>
+        <v>1442</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>1633</v>
+        <v>1620</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>2009</v>
+        <v>1996</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>1913</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>1516</v>
+        <v>1503</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>932</v>
+        <v>919</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>933</v>
+        <v>920</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>1536</v>
+        <v>1523</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>1366</v>
+        <v>1353</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1231</v>
+        <v>1218</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>1232</v>
+        <v>1219</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>1233</v>
+        <v>1220</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>1433</v>
+        <v>1420</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>934</v>
+        <v>921</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>935</v>
+        <v>922</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>936</v>
+        <v>923</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>400</v>
+        <v>2036</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>2038</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>1382</v>
+        <v>1369</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>937</v>
+        <v>924</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>938</v>
+        <v>925</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>939</v>
+        <v>926</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>1778</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
-        <v>1578</v>
+        <v>1565</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>1579</v>
+        <v>1566</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>1580</v>
+        <v>1567</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1581</v>
+        <v>1568</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>1582</v>
+        <v>1569</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>1563</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>1409</v>
+        <v>1396</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>1236</v>
+        <v>1223</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>1338</v>
+        <v>1325</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>940</v>
+        <v>927</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>941</v>
+        <v>928</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>942</v>
+        <v>929</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>1780</v>
+        <v>1767</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>1460</v>
+        <v>1447</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>943</v>
+        <v>930</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>944</v>
+        <v>931</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>945</v>
+        <v>932</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>1781</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>1448</v>
+        <v>1435</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>946</v>
+        <v>933</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>947</v>
+        <v>934</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>948</v>
+        <v>935</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>1782</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>1480</v>
+        <v>1467</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>949</v>
+        <v>936</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>950</v>
+        <v>937</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>951</v>
+        <v>938</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>1783</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>1404</v>
+        <v>1391</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>952</v>
+        <v>939</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>953</v>
+        <v>940</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>954</v>
+        <v>941</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>1784</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>1259</v>
+        <v>1246</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>988</v>
+        <v>975</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>989</v>
+        <v>976</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>990</v>
+        <v>977</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>1785</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>1401</v>
+        <v>1388</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>955</v>
+        <v>942</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>956</v>
+        <v>943</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>957</v>
+        <v>944</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>1786</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>1402</v>
+        <v>1389</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>958</v>
+        <v>945</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>959</v>
+        <v>946</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>960</v>
+        <v>947</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>1787</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>1345</v>
+        <v>1332</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>961</v>
+        <v>948</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>962</v>
+        <v>949</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>963</v>
+        <v>950</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>1583</v>
+        <v>1570</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>1563</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>1408</v>
+        <v>1395</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>964</v>
+        <v>951</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>965</v>
+        <v>952</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>966</v>
+        <v>953</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>1788</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>1504</v>
+        <v>1491</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>1597</v>
+        <v>1584</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>1526</v>
+        <v>1513</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>1789</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>1380</v>
+        <v>1367</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>967</v>
+        <v>954</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>968</v>
+        <v>955</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>969</v>
+        <v>956</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>1790</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>1468</v>
+        <v>1455</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>970</v>
+        <v>957</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>971</v>
+        <v>958</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>972</v>
+        <v>959</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>1791</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>1505</v>
+        <v>1492</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>973</v>
+        <v>960</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>974</v>
+        <v>961</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>975</v>
+        <v>962</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>1792</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>1410</v>
+        <v>1397</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>976</v>
+        <v>963</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>977</v>
+        <v>964</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>978</v>
+        <v>965</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>1793</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>1984</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>1292</v>
+        <v>1279</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>979</v>
+        <v>966</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>980</v>
+        <v>967</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>981</v>
+        <v>968</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>1584</v>
+        <v>1571</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>1563</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
-        <v>1586</v>
+        <v>1573</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>1585</v>
+        <v>1572</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>1587</v>
+        <v>1574</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1588</v>
+        <v>1575</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>1589</v>
+        <v>1576</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>1563</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>1419</v>
+        <v>1406</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>982</v>
+        <v>969</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>983</v>
+        <v>970</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>984</v>
+        <v>971</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>1316</v>
+        <v>1303</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>985</v>
+        <v>972</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>986</v>
+        <v>973</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>987</v>
+        <v>974</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>1424</v>
+        <v>1411</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>1032</v>
+        <v>1019</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>1421</v>
+        <v>1408</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>991</v>
+        <v>978</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>992</v>
+        <v>979</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>993</v>
+        <v>980</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>1423</v>
+        <v>1410</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>1531</v>
+        <v>1518</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>1532</v>
+        <v>1519</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>1425</v>
+        <v>1412</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>994</v>
+        <v>981</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>996</v>
+        <v>983</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>1798</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>1291</v>
+        <v>1278</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>1634</v>
+        <v>1621</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>1914</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>1427</v>
+        <v>1414</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>997</v>
+        <v>984</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>998</v>
+        <v>985</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>999</v>
+        <v>986</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>1429</v>
+        <v>1416</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1000</v>
+        <v>987</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>1001</v>
+        <v>988</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>1002</v>
+        <v>989</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>1800</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>1430</v>
+        <v>1417</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1003</v>
+        <v>990</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>1004</v>
+        <v>991</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>1005</v>
+        <v>992</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>1801</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>1469</v>
+        <v>1456</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1006</v>
+        <v>993</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>1007</v>
+        <v>994</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>1802</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>1434</v>
+        <v>1421</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>1537</v>
+        <v>1524</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>1538</v>
+        <v>1525</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>1539</v>
+        <v>1526</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>1540</v>
+        <v>1527</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>1435</v>
+        <v>1422</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1009</v>
+        <v>996</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>1011</v>
+        <v>998</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>1803</v>
+        <v>1790</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>1965</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>1352</v>
+        <v>1339</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>1635</v>
+        <v>1622</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>2010</v>
+        <v>1997</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>1915</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>1438</v>
+        <v>1425</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>1012</v>
+        <v>999</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>1013</v>
+        <v>1000</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>1014</v>
+        <v>1001</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>1804</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>1280</v>
+        <v>1267</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>1015</v>
+        <v>1002</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>1016</v>
+        <v>1003</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>1017</v>
+        <v>1004</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>1805</v>
+        <v>1792</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>1965</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>1466</v>
+        <v>1453</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>1806</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>1453</v>
+        <v>1440</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>1027</v>
+        <v>1014</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>1028</v>
+        <v>1015</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>1807</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>1416</v>
+        <v>1403</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>1018</v>
+        <v>1005</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>1020</v>
+        <v>1007</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>1808</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>1487</v>
+        <v>1474</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>1022</v>
+        <v>1009</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>1023</v>
+        <v>1010</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>1590</v>
+        <v>1577</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>1563</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>1453</v>
+        <v>1440</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>1636</v>
+        <v>1623</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>2011</v>
+        <v>1998</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>1916</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>1440</v>
+        <v>1427</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>1033</v>
+        <v>1020</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>1034</v>
+        <v>1021</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>1809</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>1507</v>
+        <v>1494</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>1036</v>
+        <v>1023</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>1037</v>
+        <v>1024</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>1810</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>1296</v>
+        <v>1283</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>1039</v>
+        <v>1026</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>1040</v>
+        <v>1027</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>1811</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
-        <v>1591</v>
+        <v>1578</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>1592</v>
+        <v>1579</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>1593</v>
+        <v>1580</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>1594</v>
+        <v>1581</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>1595</v>
+        <v>1582</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>1563</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>1373</v>
+        <v>1360</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>1042</v>
+        <v>1029</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>1043</v>
+        <v>1030</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>1812</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
@@ -11538,10 +11539,10 @@
         <v>83</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
@@ -11558,52 +11559,52 @@
         <v>87</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>1965</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>1443</v>
+        <v>1430</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>1045</v>
+        <v>1032</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>1046</v>
+        <v>1033</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>1813</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>88</v>
@@ -11615,15 +11616,15 @@
         <v>90</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>92</v>
@@ -11635,44 +11636,44 @@
         <v>94</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>1400</v>
+        <v>1387</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>1637</v>
+        <v>1624</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>2012</v>
+        <v>1999</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>1917</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>1255</v>
+        <v>1242</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>1048</v>
+        <v>1035</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>1049</v>
+        <v>1036</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>1814</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
@@ -11689,84 +11690,84 @@
         <v>91</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>1287</v>
+        <v>1274</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>1638</v>
+        <v>1625</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>1918</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>1310</v>
+        <v>1297</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>1542</v>
+        <v>1529</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="E285" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="G285" s="1" t="s">
         <v>1543</v>
-      </c>
-      <c r="F285" s="1" t="s">
-        <v>1965</v>
-      </c>
-      <c r="G285" s="1" t="s">
-        <v>1556</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>1493</v>
+        <v>1480</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>1639</v>
+        <v>1626</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>1919</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.2">
@@ -11774,90 +11775,90 @@
         <v>25</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>1051</v>
+        <v>1038</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>1052</v>
+        <v>1039</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>1053</v>
+        <v>1040</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>1815</v>
+        <v>1802</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>1965</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>1518</v>
+        <v>1505</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>1517</v>
+        <v>1504</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>2013</v>
+        <v>2000</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>1816</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
-        <v>1982</v>
+        <v>1969</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>1978</v>
+        <v>1965</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>1979</v>
+        <v>1966</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>1980</v>
+        <v>1967</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>1981</v>
+        <v>1968</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>1965</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>1414</v>
+        <v>1401</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>1640</v>
+        <v>1627</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>2014</v>
+        <v>2001</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>1920</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>1515</v>
+        <v>1502</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>1641</v>
+        <v>1628</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>2015</v>
+        <v>2002</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>1921</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
@@ -11874,490 +11875,490 @@
         <v>101</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>1441</v>
+        <v>1428</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>1055</v>
+        <v>1042</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>1056</v>
+        <v>1043</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>1817</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>1272</v>
+        <v>1259</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>1642</v>
+        <v>1629</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>2016</v>
+        <v>2003</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>1922</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>411</v>
+        <v>2038</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>1461</v>
+        <v>1448</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>1643</v>
+        <v>1630</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>1923</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>1501</v>
+        <v>1488</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>1057</v>
+        <v>1044</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>1058</v>
+        <v>1045</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>1059</v>
+        <v>1046</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>1818</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>1363</v>
+        <v>1350</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>1060</v>
+        <v>1047</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>1061</v>
+        <v>1048</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>1819</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>1446</v>
+        <v>1433</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>1644</v>
+        <v>1631</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>2017</v>
+        <v>2004</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>1924</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>1418</v>
+        <v>1405</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>1645</v>
+        <v>1632</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>2018</v>
+        <v>2005</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>1925</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>412</v>
+        <v>2039</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>1646</v>
+        <v>1633</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>1926</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
-        <v>1328</v>
+        <v>1315</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>1063</v>
+        <v>1050</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>1064</v>
+        <v>1051</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>1820</v>
+        <v>1807</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>1489</v>
+        <v>1476</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>1647</v>
+        <v>1634</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>2019</v>
+        <v>2006</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>1927</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>1335</v>
+        <v>1322</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>1065</v>
+        <v>1052</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>1066</v>
+        <v>1053</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>1067</v>
+        <v>1054</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>1596</v>
+        <v>1583</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>1563</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
-        <v>1483</v>
+        <v>1470</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>1068</v>
+        <v>1055</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>1069</v>
+        <v>1056</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>1070</v>
+        <v>1057</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>1821</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
-        <v>1260</v>
+        <v>1247</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>1648</v>
+        <v>1635</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>1928</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>1452</v>
+        <v>1439</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>1071</v>
+        <v>1058</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>1072</v>
+        <v>1059</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>1822</v>
+        <v>1809</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>1965</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>1258</v>
+        <v>1245</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>1077</v>
+        <v>1064</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>1823</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>1367</v>
+        <v>1354</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>1074</v>
+        <v>1061</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>1075</v>
+        <v>1062</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>1076</v>
+        <v>1063</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>1824</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>1399</v>
+        <v>1386</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>1080</v>
+        <v>1067</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>1825</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
-        <v>1454</v>
+        <v>1441</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>1649</v>
+        <v>1636</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>2020</v>
+        <v>2007</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>1929</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>1081</v>
+        <v>1068</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>1082</v>
+        <v>1069</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>1083</v>
+        <v>1070</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>1826</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>1393</v>
+        <v>1380</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>1084</v>
+        <v>1071</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>1085</v>
+        <v>1072</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>1086</v>
+        <v>1073</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>1827</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
-        <v>1454</v>
+        <v>1441</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>1544</v>
+        <v>1531</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>1546</v>
+        <v>1533</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>1545</v>
+        <v>1532</v>
       </c>
       <c r="G317" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
-        <v>1456</v>
+        <v>1443</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>1087</v>
+        <v>1074</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>1088</v>
+        <v>1075</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>1089</v>
+        <v>1076</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>1828</v>
+        <v>1815</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>1983</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>1288</v>
+        <v>1275</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>1522</v>
+        <v>1509</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>2021</v>
+        <v>2008</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>1829</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.2">
@@ -12374,152 +12375,152 @@
         <v>105</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>1342</v>
+        <v>1329</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>1090</v>
+        <v>1077</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>1091</v>
+        <v>1078</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>1092</v>
+        <v>1079</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>1830</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>1459</v>
+        <v>1446</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>1093</v>
+        <v>1080</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>1094</v>
+        <v>1081</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>1095</v>
+        <v>1082</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>1831</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>1439</v>
+        <v>1426</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>1096</v>
+        <v>1083</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>1097</v>
+        <v>1084</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>1098</v>
+        <v>1085</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>1832</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>1371</v>
+        <v>1358</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>1099</v>
+        <v>1086</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>1100</v>
+        <v>1087</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>1101</v>
+        <v>1088</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>1833</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>1394</v>
+        <v>1381</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>1102</v>
+        <v>1089</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>1103</v>
+        <v>1090</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>1104</v>
+        <v>1091</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>1834</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>1407</v>
+        <v>1394</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>1105</v>
+        <v>1092</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>1106</v>
+        <v>1093</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>1107</v>
+        <v>1094</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>1835</v>
+        <v>1822</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>1965</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>1253</v>
+        <v>1240</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>1650</v>
+        <v>1637</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>1930</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>1332</v>
+        <v>1319</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>1108</v>
+        <v>1095</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>1109</v>
+        <v>1096</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>1110</v>
+        <v>1097</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>1836</v>
+        <v>1823</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>1965</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.2">
@@ -12536,66 +12537,66 @@
         <v>109</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>1306</v>
+        <v>1293</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>1651</v>
+        <v>1638</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>1931</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>1275</v>
+        <v>1262</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>1652</v>
+        <v>1639</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>1932</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>1462</v>
+        <v>1449</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>1111</v>
+        <v>1098</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>1837</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>110</v>
@@ -12604,354 +12605,354 @@
         <v>111</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>1463</v>
+        <v>1450</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>1112</v>
+        <v>1099</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>1113</v>
+        <v>1100</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>1114</v>
+        <v>1101</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>1838</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>1437</v>
+        <v>1424</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>1115</v>
+        <v>1102</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>1116</v>
+        <v>1103</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>1117</v>
+        <v>1104</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>1839</v>
+        <v>1826</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>1965</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>1385</v>
+        <v>1372</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>1118</v>
+        <v>1105</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>1119</v>
+        <v>1106</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>1120</v>
+        <v>1107</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>1840</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>1498</v>
+        <v>1485</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>1121</v>
+        <v>1108</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>1122</v>
+        <v>1109</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>1123</v>
+        <v>1110</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>1841</v>
+        <v>1828</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>1965</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>1476</v>
+        <v>1463</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>1521</v>
+        <v>1508</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>1124</v>
+        <v>1111</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>1125</v>
+        <v>1112</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>1842</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>1293</v>
+        <v>1280</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>1653</v>
+        <v>1640</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>2022</v>
+        <v>2009</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>1933</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
-        <v>1465</v>
+        <v>1452</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>1654</v>
+        <v>1641</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>1934</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
-        <v>1420</v>
+        <v>1407</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>1126</v>
+        <v>1113</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>1127</v>
+        <v>1114</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>1128</v>
+        <v>1115</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>1843</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
-        <v>1464</v>
+        <v>1451</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>1547</v>
+        <v>1534</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>1548</v>
+        <v>1535</v>
       </c>
       <c r="G343" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
-        <v>1467</v>
+        <v>1454</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>1129</v>
+        <v>1116</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>1130</v>
+        <v>1117</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>1131</v>
+        <v>1118</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>1844</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
-        <v>1470</v>
+        <v>1457</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>1655</v>
+        <v>1642</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>1935</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
-        <v>1472</v>
+        <v>1459</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>1132</v>
+        <v>1119</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>1133</v>
+        <v>1120</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>1134</v>
+        <v>1121</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>1845</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
-        <v>1372</v>
+        <v>1359</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>1135</v>
+        <v>1122</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>1136</v>
+        <v>1123</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>1137</v>
+        <v>1124</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>1846</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
-        <v>1471</v>
+        <v>1458</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>1549</v>
+        <v>1536</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>1550</v>
+        <v>1537</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>1551</v>
+        <v>1538</v>
       </c>
       <c r="G348" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
-        <v>1473</v>
+        <v>1460</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>1138</v>
+        <v>1125</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>1139</v>
+        <v>1126</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>1140</v>
+        <v>1127</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>1847</v>
+        <v>1834</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>1965</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
-        <v>1508</v>
+        <v>1495</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>1656</v>
+        <v>1643</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>1525</v>
+        <v>1512</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>1936</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
-        <v>1257</v>
+        <v>1244</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>1141</v>
+        <v>1128</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>1142</v>
+        <v>1129</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>1143</v>
+        <v>1130</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>1848</v>
+        <v>1835</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>1965</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
-        <v>1477</v>
+        <v>1464</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>1657</v>
+        <v>1644</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>2023</v>
+        <v>2010</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>1937</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>1477</v>
+        <v>1464</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>1658</v>
+        <v>1645</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>2024</v>
+        <v>2011</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>1938</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.2">
@@ -12959,135 +12960,135 @@
         <v>6</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>1659</v>
+        <v>1646</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>2025</v>
+        <v>2012</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>1939</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
-        <v>1318</v>
+        <v>1305</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>1660</v>
+        <v>1647</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>2026</v>
+        <v>2013</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>1940</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
-        <v>1479</v>
+        <v>1466</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>1661</v>
+        <v>1648</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>1941</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
-        <v>1519</v>
+        <v>1506</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>1662</v>
+        <v>1649</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>1942</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
-        <v>1478</v>
+        <v>1465</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>1144</v>
+        <v>1131</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>1145</v>
+        <v>1132</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>1146</v>
+        <v>1133</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>1849</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
-        <v>1444</v>
+        <v>1431</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>1147</v>
+        <v>1134</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>1148</v>
+        <v>1135</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>1149</v>
+        <v>1136</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>1850</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
-        <v>1313</v>
+        <v>1300</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>1150</v>
+        <v>1137</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>1151</v>
+        <v>1138</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>1152</v>
+        <v>1139</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>1851</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>413</v>
+        <v>2040</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.2">
@@ -13104,24 +13105,24 @@
         <v>115</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
-        <v>1449</v>
+        <v>1436</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>1663</v>
+        <v>1650</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>1943</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.2">
@@ -13138,254 +13139,254 @@
         <v>119</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G364" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
-        <v>1485</v>
+        <v>1472</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>1153</v>
+        <v>1140</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>1154</v>
+        <v>1141</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>1155</v>
+        <v>1142</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>1852</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
-        <v>1384</v>
+        <v>1371</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>1156</v>
+        <v>1143</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>1157</v>
+        <v>1144</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>1158</v>
+        <v>1145</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>1853</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
-        <v>1482</v>
+        <v>1469</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>1159</v>
+        <v>1146</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>1160</v>
+        <v>1147</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>1161</v>
+        <v>1148</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>1854</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
-        <v>1304</v>
+        <v>1291</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>1162</v>
+        <v>1149</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>1552</v>
+        <v>1539</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>1553</v>
+        <v>1540</v>
       </c>
       <c r="G368" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>1965</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
-        <v>1375</v>
+        <v>1362</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>1163</v>
+        <v>1150</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>1164</v>
+        <v>1151</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>1165</v>
+        <v>1152</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>1855</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>1266</v>
+        <v>1253</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>1664</v>
+        <v>1651</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>2027</v>
+        <v>2014</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>1944</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>1397</v>
+        <v>1384</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>1166</v>
+        <v>1153</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>1167</v>
+        <v>1154</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>1168</v>
+        <v>1155</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>1856</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
-        <v>1331</v>
+        <v>1318</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>1169</v>
+        <v>1156</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>1170</v>
+        <v>1157</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>1171</v>
+        <v>1158</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>1857</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
-        <v>1315</v>
+        <v>1302</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>1665</v>
+        <v>1652</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>2028</v>
+        <v>2015</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>1945</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
-        <v>1330</v>
+        <v>1317</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>1184</v>
+        <v>1171</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>1185</v>
+        <v>1172</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>1186</v>
+        <v>1173</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>1858</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
-        <v>1490</v>
+        <v>1477</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>1172</v>
+        <v>1159</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>1173</v>
+        <v>1160</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>1174</v>
+        <v>1161</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>1859</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>1666</v>
+        <v>1653</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>2029</v>
+        <v>2016</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>1946</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
-        <v>1492</v>
+        <v>1479</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>1667</v>
+        <v>1654</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>1947</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.2">
@@ -13402,285 +13403,285 @@
         <v>123</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="G379" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
-        <v>1416</v>
+        <v>1403</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>1554</v>
+        <v>1541</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>1555</v>
+        <v>1542</v>
       </c>
       <c r="G380" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
-        <v>1491</v>
+        <v>1478</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>1175</v>
+        <v>1162</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>1176</v>
+        <v>1163</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>1177</v>
+        <v>1164</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>1860</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
-        <v>1395</v>
+        <v>1382</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>1178</v>
+        <v>1165</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>1179</v>
+        <v>1166</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>1180</v>
+        <v>1167</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>1861</v>
+        <v>1848</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>1965</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
-        <v>1283</v>
+        <v>1270</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>1181</v>
+        <v>1168</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>1182</v>
+        <v>1169</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>1183</v>
+        <v>1170</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>1862</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>1983</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
-        <v>1953</v>
+        <v>1940</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>1952</v>
+        <v>1939</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>1954</v>
+        <v>1941</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>1955</v>
+        <v>1942</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>1956</v>
+        <v>1943</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>1563</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
-        <v>1957</v>
+        <v>1944</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>1958</v>
+        <v>1945</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1959</v>
+        <v>1946</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>1960</v>
+        <v>1947</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>1961</v>
+        <v>1948</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>1563</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
-        <v>1347</v>
+        <v>1334</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>1668</v>
+        <v>1655</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>1948</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
-        <v>1448</v>
+        <v>1435</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>1669</v>
+        <v>1656</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>1187</v>
+        <v>1174</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>1188</v>
+        <v>1175</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>1949</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
-        <v>1339</v>
+        <v>1326</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>1189</v>
+        <v>1176</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>1190</v>
+        <v>1177</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>1191</v>
+        <v>1178</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>1863</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
-        <v>1340</v>
+        <v>1327</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>1192</v>
+        <v>1179</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>1193</v>
+        <v>1180</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>1194</v>
+        <v>1181</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>1864</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
-        <v>1411</v>
+        <v>1398</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>1195</v>
+        <v>1182</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>1196</v>
+        <v>1183</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>1197</v>
+        <v>1184</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>1865</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
-        <v>1341</v>
+        <v>1328</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>1198</v>
+        <v>1185</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>1199</v>
+        <v>1186</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>1200</v>
+        <v>1187</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>1866</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
-        <v>1361</v>
+        <v>1348</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>1201</v>
+        <v>1188</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>1202</v>
+        <v>1189</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>1203</v>
+        <v>1190</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>1867</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>132</v>
@@ -13692,101 +13693,101 @@
         <v>134</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G395" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
-        <v>1499</v>
+        <v>1486</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>1228</v>
+        <v>1215</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1229</v>
+        <v>1216</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>1230</v>
+        <v>1217</v>
       </c>
       <c r="E396" s="1" t="s">
-        <v>1868</v>
+        <v>1855</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>1563</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
-        <v>1500</v>
+        <v>1487</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>1204</v>
+        <v>1191</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>1205</v>
+        <v>1192</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>1206</v>
+        <v>1193</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>1869</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
-        <v>1501</v>
+        <v>1488</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>1207</v>
+        <v>1194</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>1208</v>
+        <v>1195</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>1209</v>
+        <v>1196</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>1870</v>
+        <v>1857</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>1563</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
-        <v>1503</v>
+        <v>1490</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>1210</v>
+        <v>1197</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1211</v>
+        <v>1198</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>1212</v>
+        <v>1199</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>1871</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
-        <v>1240</v>
+        <v>1227</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>1670</v>
+        <v>1657</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>1950</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.2">
@@ -13803,66 +13804,66 @@
         <v>127</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>1563</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
-        <v>1412</v>
+        <v>1399</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>1213</v>
+        <v>1200</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1214</v>
+        <v>1201</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>1215</v>
+        <v>1202</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>1872</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
-        <v>1239</v>
+        <v>1226</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>1671</v>
+        <v>1658</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>2030</v>
+        <v>2017</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>1951</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B405" s="1" t="s">
         <v>149</v>
@@ -13874,64 +13875,64 @@
         <v>151</v>
       </c>
       <c r="E405" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G405" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
-        <v>1502</v>
+        <v>1489</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>1216</v>
+        <v>1203</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1217</v>
+        <v>1204</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>1218</v>
+        <v>1205</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>1873</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
-        <v>1506</v>
+        <v>1493</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>1219</v>
+        <v>1206</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="E407" s="1" t="s">
-        <v>1874</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>1965</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="409" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
@@ -13948,70 +13949,69 @@
         <v>131</v>
       </c>
       <c r="E409" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F409" s="1"/>
       <c r="G409" s="1" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="410" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
-        <v>1356</v>
+        <v>1343</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>1220</v>
+        <v>1207</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>1221</v>
+        <v>1208</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>1222</v>
+        <v>1209</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>1875</v>
+        <v>1862</v>
       </c>
       <c r="F410" s="1"/>
     </row>
     <row r="411" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
-        <v>1422</v>
+        <v>1409</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>1223</v>
+        <v>1210</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1224</v>
+        <v>1211</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>1225</v>
+        <v>1212</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>1876</v>
+        <v>1863</v>
       </c>
       <c r="F411" s="1"/>
     </row>
     <row r="412" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
-        <v>1494</v>
+        <v>1481</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>1226</v>
+        <v>1213</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>1227</v>
+        <v>1214</v>
       </c>
       <c r="E412" s="1" t="s">
-        <v>1877</v>
+        <v>1864</v>
       </c>
       <c r="F412" s="1"/>
     </row>
     <row r="413" spans="1:7" customFormat="1" ht="16" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:AP412" xr:uid="{29744192-385C-1546-98E9-7A4BCFAF1573}"/>
   <conditionalFormatting sqref="AQ414:XFD1048576 A14 C14:F14 A393 C393:F393 A414:F1048576 A1:F13 A394:F401 A15:F392 AQ1:XFD408 A403:F412">
     <cfRule type="duplicateValues" dxfId="6" priority="9"/>
   </conditionalFormatting>

--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Edite/Documents/GitHub/Norsk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C575C54-02FA-DA46-A7D0-CC592F2A70F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EE8EE3-0A28-F64C-BCCB-58524422977E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="500" windowWidth="17800" windowHeight="18380" xr2:uid="{D9759F51-050D-AD4F-8F66-76048091BB84}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{D9759F51-050D-AD4F-8F66-76048091BB84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <definedName name="A" localSheetId="0">Sheet1!#REF!</definedName>
     <definedName name="B" localSheetId="0">Sheet1!#REF!</definedName>
     <definedName name="Bottom" localSheetId="0">Sheet1!#REF!</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">Sheet1!$B$408:$B$409</definedName>
     <definedName name="D" localSheetId="0">Sheet1!#REF!</definedName>
     <definedName name="E" localSheetId="0">Sheet1!#REF!</definedName>
     <definedName name="F" localSheetId="0">Sheet1!#REF!</definedName>
@@ -657,9 +656,6 @@
     <t>operate, run</t>
   </si>
   <si>
-    <t>dødde / døde</t>
-  </si>
-  <si>
     <t>eier</t>
   </si>
   <si>
@@ -798,9 +794,6 @@
     <t>fetch, bring</t>
   </si>
   <si>
-    <t>het / hette</t>
-  </si>
-  <si>
     <t>har hett</t>
   </si>
   <si>
@@ -5910,9 +5903,6 @@
     <t>de</t>
   </si>
   <si>
-    <t>betød, *betydde</t>
-  </si>
-  <si>
     <t>brøt, brøyt</t>
   </si>
   <si>
@@ -6148,6 +6138,15 @@
   </si>
   <si>
     <t>this</t>
+  </si>
+  <si>
+    <t>betydde</t>
+  </si>
+  <si>
+    <t>dødde</t>
+  </si>
+  <si>
+    <t>hette</t>
   </si>
 </sst>
 </file>
@@ -6590,8 +6589,8 @@
   <dimension ref="A1:AP411"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A411" sqref="A411"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -6626,81 +6625,81 @@
         <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>599</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>602</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -6708,90 +6707,90 @@
         <v>153</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>152</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>1539</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>1540</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>1541</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>1542</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>1543</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>605</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>608</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>611</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -6799,7 +6798,7 @@
         <v>187</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>184</v>
@@ -6811,61 +6810,61 @@
         <v>186</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>1937</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>2019</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>1938</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1939</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>1941</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>2022</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>1940</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>614</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>617</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -6873,70 +6872,70 @@
         <v>107</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>620</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>626</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>623</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -6944,7 +6943,7 @@
         <v>157</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>154</v>
@@ -6956,75 +6955,75 @@
         <v>156</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>629</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>632</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>635</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>638</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -7032,7 +7031,7 @@
         <v>165</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>162</v>
@@ -7046,19 +7045,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>644</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -7066,7 +7065,7 @@
         <v>161</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>158</v>
@@ -7080,19 +7079,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>641</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -7100,7 +7099,7 @@
         <v>169</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>166</v>
@@ -7112,137 +7111,137 @@
         <v>168</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1953</v>
+        <v>2030</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>1942</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>1944</v>
-      </c>
       <c r="D30" s="1" t="s">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>167</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>648</v>
-      </c>
       <c r="E33" s="1" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>651</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>657</v>
-      </c>
       <c r="E35" s="1" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>3</v>
@@ -7257,32 +7256,32 @@
         <v>171</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>654</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>172</v>
@@ -7294,24 +7293,24 @@
         <v>174</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -7328,7 +7327,7 @@
         <v>8</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -7336,7 +7335,7 @@
         <v>178</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>175</v>
@@ -7350,19 +7349,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -7370,7 +7369,7 @@
         <v>182</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>179</v>
@@ -7382,44 +7381,44 @@
         <v>181</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>662</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -7436,98 +7435,98 @@
         <v>139</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>667</v>
-      </c>
       <c r="E48" s="1" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>670</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>673</v>
-      </c>
       <c r="E50" s="1" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>1546</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>1547</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>1548</v>
-      </c>
       <c r="E51" s="1" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -7535,7 +7534,7 @@
         <v>191</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>188</v>
@@ -7549,53 +7548,53 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>676</v>
-      </c>
       <c r="E53" s="1" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>679</v>
-      </c>
       <c r="E55" s="1" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -7609,13 +7608,13 @@
         <v>19</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>202</v>
+        <v>2031</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -7632,10 +7631,10 @@
         <v>12</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -7643,7 +7642,7 @@
         <v>195</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>192</v>
@@ -7672,7 +7671,7 @@
         <v>196</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -7680,7 +7679,7 @@
         <v>201</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>198</v>
@@ -7692,146 +7691,146 @@
         <v>200</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>682</v>
-      </c>
       <c r="E61" s="1" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>685</v>
-      </c>
       <c r="E62" s="1" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>688</v>
-      </c>
       <c r="E63" s="1" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>691</v>
-      </c>
       <c r="E64" s="1" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>694</v>
-      </c>
       <c r="E66" s="1" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>698</v>
-      </c>
       <c r="E68" s="1" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -7848,61 +7847,61 @@
         <v>38</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>701</v>
-      </c>
       <c r="E72" s="1" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -7919,359 +7918,359 @@
         <v>23</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>704</v>
-      </c>
       <c r="E75" s="1" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>707</v>
-      </c>
       <c r="E76" s="1" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>710</v>
-      </c>
       <c r="E78" s="1" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>744</v>
-      </c>
       <c r="E82" s="1" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>747</v>
-      </c>
       <c r="E83" s="1" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>750</v>
-      </c>
       <c r="E85" s="1" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>715</v>
-      </c>
       <c r="E86" s="1" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>718</v>
-      </c>
       <c r="E87" s="1" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="G89" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>723</v>
-      </c>
       <c r="E90" s="1" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="E91" s="1" t="s">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>726</v>
-      </c>
       <c r="E92" s="1" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>729</v>
-      </c>
       <c r="E93" s="1" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -8288,35 +8287,35 @@
         <v>27</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>732</v>
-      </c>
       <c r="E95" s="1" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>28</v>
@@ -8328,10 +8327,10 @@
         <v>30</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -8348,83 +8347,83 @@
         <v>34</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>735</v>
-      </c>
       <c r="E98" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>738</v>
-      </c>
       <c r="E99" s="1" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>741</v>
-      </c>
       <c r="E101" s="1" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>46</v>
@@ -8436,44 +8435,44 @@
         <v>48</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>753</v>
-      </c>
       <c r="E103" s="1" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>756</v>
-      </c>
       <c r="E104" s="1" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -8487,124 +8486,124 @@
         <v>41</v>
       </c>
       <c r="D105" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="G105" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>759</v>
-      </c>
       <c r="E107" s="1" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C108" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>1943</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>1944</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>1945</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>1946</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>1947</v>
-      </c>
       <c r="E109" s="1" t="s">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>762</v>
-      </c>
       <c r="E110" s="1" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>765</v>
-      </c>
       <c r="E111" s="1" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -8621,339 +8620,339 @@
         <v>45</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>768</v>
-      </c>
       <c r="E113" s="1" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C114" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="E114" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="F114" s="1" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>771</v>
-      </c>
       <c r="E117" s="1" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>774</v>
-      </c>
       <c r="E120" s="1" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>777</v>
-      </c>
       <c r="E122" s="1" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>780</v>
-      </c>
       <c r="E123" s="1" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>785</v>
-      </c>
       <c r="E125" s="1" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>788</v>
-      </c>
       <c r="E128" s="1" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
@@ -8970,98 +8969,98 @@
         <v>52</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>2003</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>815</v>
-      </c>
       <c r="E134" s="1" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C135" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D135" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="E135" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>791</v>
-      </c>
       <c r="E136" s="1" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
@@ -9075,67 +9074,67 @@
         <v>55</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>249</v>
+        <v>2032</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>1545</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>794</v>
-      </c>
       <c r="E139" s="1" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="C140" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>797</v>
-      </c>
       <c r="E140" s="1" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
@@ -9152,226 +9151,226 @@
         <v>59</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C144" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E144" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="C145" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>800</v>
-      </c>
       <c r="E145" s="1" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C146" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E146" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="F146" s="1" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="B147" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="C147" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>803</v>
-      </c>
       <c r="E147" s="1" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>812</v>
-      </c>
       <c r="E148" s="1" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="C151" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>806</v>
-      </c>
       <c r="E151" s="1" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="D152" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="C152" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>809</v>
-      </c>
       <c r="E152" s="1" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C153" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E153" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="B154" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="C154" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>818</v>
-      </c>
       <c r="E154" s="1" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -9379,93 +9378,93 @@
         <v>153</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="B156" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="C156" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>821</v>
-      </c>
       <c r="E156" s="1" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>824</v>
-      </c>
       <c r="E157" s="1" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C158" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E158" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D158" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="F158" s="1" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C159" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E159" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D159" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="F159" s="1" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -9473,189 +9472,189 @@
         <v>197</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C160" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E160" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="C161" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>827</v>
-      </c>
       <c r="E161" s="1" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="D162" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="C162" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>830</v>
-      </c>
       <c r="E162" s="1" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="B163" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="D163" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="C163" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>833</v>
-      </c>
       <c r="E163" s="1" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="B169" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="D169" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="C169" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>836</v>
-      </c>
       <c r="E169" s="1" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="D170" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="C170" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>839</v>
-      </c>
       <c r="E170" s="1" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
@@ -9672,137 +9671,137 @@
         <v>63</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="B172" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>842</v>
-      </c>
       <c r="E172" s="1" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>845</v>
-      </c>
       <c r="E173" s="1" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="B174" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="C174" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>848</v>
-      </c>
       <c r="E174" s="1" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="B175" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="D175" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C175" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>851</v>
-      </c>
       <c r="E175" s="1" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="C176" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>854</v>
-      </c>
       <c r="E176" s="1" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>140</v>
@@ -9814,166 +9813,166 @@
         <v>142</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C184" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E184" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C185" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E185" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="B187" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="D187" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="C187" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>892</v>
-      </c>
       <c r="E187" s="1" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="B188" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="D188" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="C188" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>895</v>
-      </c>
       <c r="E188" s="1" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
@@ -9990,10 +9989,10 @@
         <v>67</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
@@ -10010,135 +10009,135 @@
         <v>71</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="B191" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="D191" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="C191" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>857</v>
-      </c>
       <c r="E191" s="1" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="B192" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="D192" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="C192" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>860</v>
-      </c>
       <c r="E192" s="1" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C193" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E193" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="B194" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="D194" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="C194" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>863</v>
-      </c>
       <c r="E194" s="1" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C195" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E195" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D195" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="F195" s="1" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="B196" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="D196" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="C196" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>866</v>
-      </c>
       <c r="E196" s="1" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="B197" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="D197" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="C197" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>869</v>
-      </c>
       <c r="E197" s="1" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
@@ -10155,237 +10154,237 @@
         <v>75</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>2008</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D200" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B200" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C200" s="1" t="s">
+      <c r="E200" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D200" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>304</v>
-      </c>
       <c r="F200" s="1" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="D201" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="C201" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>886</v>
-      </c>
       <c r="E201" s="1" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C202" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E202" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="B203" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="D203" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="C203" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>889</v>
-      </c>
       <c r="E203" s="1" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="B204" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="D204" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="C204" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>872</v>
-      </c>
       <c r="E204" s="1" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B205" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="D205" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="C205" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>875</v>
-      </c>
       <c r="E205" s="1" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="B206" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="D206" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="C206" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>878</v>
-      </c>
       <c r="E206" s="1" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B209" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="D209" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="C209" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>883</v>
-      </c>
       <c r="E209" s="1" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="B210" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="C210" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>910</v>
-      </c>
       <c r="E210" s="1" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="B211" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="D211" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="C211" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>898</v>
-      </c>
       <c r="E211" s="1" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
@@ -10402,95 +10401,95 @@
         <v>146</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C213" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E213" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C214" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E214" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="B215" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="D215" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="C215" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>901</v>
-      </c>
       <c r="E215" s="1" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="D216" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="C216" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>904</v>
-      </c>
       <c r="E216" s="1" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="B217" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="D217" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="C217" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>907</v>
-      </c>
       <c r="E217" s="1" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
@@ -10507,981 +10506,981 @@
         <v>79</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="B219" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="D219" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="C219" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>913</v>
-      </c>
       <c r="E219" s="1" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="B220" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="D220" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="C220" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>916</v>
-      </c>
       <c r="E220" s="1" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="B223" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D223" s="1" t="s">
         <v>1216</v>
       </c>
-      <c r="C223" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>1218</v>
-      </c>
       <c r="E223" s="1" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="B224" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="D224" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="C224" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>921</v>
-      </c>
       <c r="E224" s="1" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>2006</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="B226" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="D226" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="C226" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>924</v>
-      </c>
       <c r="E226" s="1" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C227" s="1" t="s">
         <v>1560</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="D227" s="1" t="s">
         <v>1561</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="E227" s="1" t="s">
         <v>1562</v>
       </c>
-      <c r="D227" s="1" t="s">
-        <v>1563</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>1564</v>
-      </c>
       <c r="F227" s="1" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="B228" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D228" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="C228" s="1" t="s">
-        <v>1220</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>1221</v>
-      </c>
       <c r="E228" s="1" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="B229" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="D229" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="C229" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>927</v>
-      </c>
       <c r="E229" s="1" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="B230" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="D230" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="C230" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>930</v>
-      </c>
       <c r="E230" s="1" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="D231" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="C231" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>933</v>
-      </c>
       <c r="E231" s="1" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="B232" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="D232" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="C232" s="1" t="s">
-        <v>935</v>
-      </c>
-      <c r="D232" s="1" t="s">
-        <v>936</v>
-      </c>
       <c r="E232" s="1" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="B233" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="D233" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="C233" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>939</v>
-      </c>
       <c r="E233" s="1" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B234" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="D234" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="C234" s="1" t="s">
-        <v>974</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>975</v>
-      </c>
       <c r="E234" s="1" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="B235" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="D235" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="C235" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>942</v>
-      </c>
       <c r="E235" s="1" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="B236" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="D236" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="C236" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>945</v>
-      </c>
       <c r="E236" s="1" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="B237" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="D237" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="C237" s="1" t="s">
-        <v>947</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>948</v>
-      </c>
       <c r="E237" s="1" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="B238" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="D238" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="C238" s="1" t="s">
-        <v>950</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>951</v>
-      </c>
       <c r="E238" s="1" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="B240" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D240" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="C240" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>954</v>
-      </c>
       <c r="E240" s="1" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="B241" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="D241" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="C241" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>957</v>
-      </c>
       <c r="E241" s="1" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="B242" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="D242" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="C242" s="1" t="s">
-        <v>959</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>960</v>
-      </c>
       <c r="E242" s="1" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="B243" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="D243" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="C243" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>963</v>
-      </c>
       <c r="E243" s="1" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C244" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E244" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D244" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="F244" s="1" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="B245" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="D245" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="C245" s="1" t="s">
-        <v>965</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>966</v>
-      </c>
       <c r="E245" s="1" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D246" s="1" t="s">
         <v>1568</v>
       </c>
-      <c r="B246" s="1" t="s">
-        <v>1567</v>
-      </c>
-      <c r="C246" s="1" t="s">
+      <c r="E246" s="1" t="s">
         <v>1569</v>
       </c>
-      <c r="D246" s="1" t="s">
-        <v>1570</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>1571</v>
-      </c>
       <c r="F246" s="1" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="B247" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="D247" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="C247" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>969</v>
-      </c>
       <c r="E247" s="1" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="B248" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="D248" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="C248" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>972</v>
-      </c>
       <c r="E248" s="1" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="B249" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D249" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="C249" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>1017</v>
-      </c>
       <c r="E249" s="1" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="B250" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="D250" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="C250" s="1" t="s">
-        <v>977</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>978</v>
-      </c>
       <c r="E250" s="1" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C251" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E251" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="B253" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="D253" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="C253" s="1" t="s">
-        <v>980</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>981</v>
-      </c>
       <c r="E253" s="1" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="B255" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="D255" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="C255" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>984</v>
-      </c>
       <c r="E255" s="1" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="B256" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="D256" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="C256" s="1" t="s">
-        <v>986</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>987</v>
-      </c>
       <c r="E256" s="1" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="B257" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="D257" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="C257" s="1" t="s">
-        <v>989</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>990</v>
-      </c>
       <c r="E257" s="1" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="B258" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="D258" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="C258" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>993</v>
-      </c>
       <c r="E258" s="1" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="B259" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D259" s="1" t="s">
         <v>1519</v>
       </c>
-      <c r="C259" s="1" t="s">
+      <c r="E259" s="1" t="s">
         <v>1520</v>
       </c>
-      <c r="D259" s="1" t="s">
-        <v>1521</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>1522</v>
-      </c>
       <c r="G259" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="B260" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="D260" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="C260" s="1" t="s">
-        <v>995</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>996</v>
-      </c>
       <c r="E260" s="1" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>1978</v>
+        <v>1975</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="B262" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="D262" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="C262" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>999</v>
-      </c>
       <c r="E262" s="1" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="B263" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="D263" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="C263" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>1002</v>
-      </c>
       <c r="E263" s="1" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="B264" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D264" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="C264" s="1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D264" s="1" t="s">
-        <v>1011</v>
-      </c>
       <c r="E264" s="1" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="B265" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D265" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="C265" s="1" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D265" s="1" t="s">
-        <v>1014</v>
-      </c>
       <c r="E265" s="1" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="B266" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D266" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="C266" s="1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D266" s="1" t="s">
-        <v>1005</v>
-      </c>
       <c r="E266" s="1" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="B267" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D267" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="C267" s="1" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>1008</v>
-      </c>
       <c r="E267" s="1" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>1979</v>
+        <v>1976</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="B269" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D269" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="C269" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D269" s="1" t="s">
-        <v>1020</v>
-      </c>
       <c r="E269" s="1" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="B270" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D270" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="C270" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D270" s="1" t="s">
-        <v>1023</v>
-      </c>
       <c r="E270" s="1" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="B271" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D271" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="C271" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>1026</v>
-      </c>
       <c r="E271" s="1" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D272" s="1" t="s">
         <v>1573</v>
       </c>
-      <c r="B272" s="1" t="s">
-        <v>2031</v>
-      </c>
-      <c r="C272" s="1" t="s">
+      <c r="E272" s="1" t="s">
         <v>1574</v>
       </c>
-      <c r="D272" s="1" t="s">
-        <v>1575</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>1576</v>
-      </c>
       <c r="F272" s="1" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="B273" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D273" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="C273" s="1" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D273" s="1" t="s">
-        <v>1029</v>
-      </c>
       <c r="E273" s="1" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
@@ -11498,10 +11497,10 @@
         <v>83</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
@@ -11518,52 +11517,52 @@
         <v>87</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C276" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E276" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D276" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="E276" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="F276" s="1" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="B277" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D277" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="C277" s="1" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D277" s="1" t="s">
-        <v>1032</v>
-      </c>
       <c r="E277" s="1" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>88</v>
@@ -11575,15 +11574,15 @@
         <v>90</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>92</v>
@@ -11595,44 +11594,44 @@
         <v>94</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B281" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D281" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="C281" s="1" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D281" s="1" t="s">
-        <v>1035</v>
-      </c>
       <c r="E281" s="1" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
@@ -11649,84 +11648,84 @@
         <v>91</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C285" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E285" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="D285" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
@@ -11734,90 +11733,90 @@
         <v>25</v>
       </c>
       <c r="B287" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D287" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="C287" s="1" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D287" s="1" t="s">
-        <v>1038</v>
-      </c>
       <c r="E287" s="1" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>2027</v>
+        <v>2024</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
@@ -11834,490 +11833,490 @@
         <v>101</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="B293" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D293" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="C293" s="1" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D293" s="1" t="s">
-        <v>1041</v>
-      </c>
       <c r="E293" s="1" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="B297" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D297" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="C297" s="1" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D297" s="1" t="s">
-        <v>1044</v>
-      </c>
       <c r="E297" s="1" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="B298" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D298" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="C298" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D298" s="1" t="s">
-        <v>1047</v>
-      </c>
       <c r="E298" s="1" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C301" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E301" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D301" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E301" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="G301" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="B306" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D306" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="C306" s="1" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D306" s="1" t="s">
-        <v>1052</v>
-      </c>
       <c r="E306" s="1" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="B307" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D307" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="C307" s="1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D307" s="1" t="s">
-        <v>1055</v>
-      </c>
       <c r="E307" s="1" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="B309" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D309" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="C309" s="1" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D309" s="1" t="s">
-        <v>1058</v>
-      </c>
       <c r="E309" s="1" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B310" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D310" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="C310" s="1" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D310" s="1" t="s">
-        <v>1064</v>
-      </c>
       <c r="E310" s="1" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="B311" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D311" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="C311" s="1" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D311" s="1" t="s">
-        <v>1061</v>
-      </c>
       <c r="E311" s="1" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="B314" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D314" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="C314" s="1" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D314" s="1" t="s">
-        <v>1068</v>
-      </c>
       <c r="E314" s="1" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="B315" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D315" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="C315" s="1" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D315" s="1" t="s">
-        <v>1071</v>
-      </c>
       <c r="E315" s="1" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="B316" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D316" s="1" t="s">
         <v>1526</v>
       </c>
-      <c r="C316" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="D316" s="1" t="s">
-        <v>1528</v>
-      </c>
       <c r="E316" s="1" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="G316" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="B317" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D317" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="C317" s="1" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D317" s="1" t="s">
-        <v>1074</v>
-      </c>
       <c r="E317" s="1" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C319" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E319" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="D319" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="E319" s="1" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.2">
@@ -12334,152 +12333,152 @@
         <v>105</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="B321" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D321" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="C321" s="1" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D321" s="1" t="s">
-        <v>1077</v>
-      </c>
       <c r="E321" s="1" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="B322" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D322" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="C322" s="1" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D322" s="1" t="s">
-        <v>1080</v>
-      </c>
       <c r="E322" s="1" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="B323" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D323" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="C323" s="1" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D323" s="1" t="s">
-        <v>1083</v>
-      </c>
       <c r="E323" s="1" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="B324" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D324" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="C324" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D324" s="1" t="s">
-        <v>1086</v>
-      </c>
       <c r="E324" s="1" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="B325" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D325" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="C325" s="1" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D325" s="1" t="s">
-        <v>1089</v>
-      </c>
       <c r="E325" s="1" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="B326" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D326" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="C326" s="1" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D326" s="1" t="s">
-        <v>1092</v>
-      </c>
       <c r="E326" s="1" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="B328" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D328" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="C328" s="1" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D328" s="1" t="s">
-        <v>1095</v>
-      </c>
       <c r="E328" s="1" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.2">
@@ -12496,66 +12495,66 @@
         <v>109</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G329" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>110</v>
@@ -12564,337 +12563,337 @@
         <v>111</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G333" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B334" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D334" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="C334" s="1" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D334" s="1" t="s">
-        <v>1099</v>
-      </c>
       <c r="E334" s="1" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="B335" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D335" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="C335" s="1" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D335" s="1" t="s">
-        <v>1102</v>
-      </c>
       <c r="E335" s="1" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B336" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D336" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="C336" s="1" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D336" s="1" t="s">
-        <v>1105</v>
-      </c>
       <c r="E336" s="1" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="B337" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D337" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="C337" s="1" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D337" s="1" t="s">
-        <v>1108</v>
-      </c>
       <c r="E337" s="1" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="B341" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D341" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="C341" s="1" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D341" s="1" t="s">
-        <v>1113</v>
-      </c>
       <c r="E341" s="1" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="G342" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="B343" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D343" s="1" t="s">
         <v>1114</v>
       </c>
-      <c r="C343" s="1" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D343" s="1" t="s">
-        <v>1116</v>
-      </c>
       <c r="E343" s="1" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="B345" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D345" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="C345" s="1" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D345" s="1" t="s">
-        <v>1119</v>
-      </c>
       <c r="E345" s="1" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="B346" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D346" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="C346" s="1" t="s">
-        <v>1121</v>
-      </c>
-      <c r="D346" s="1" t="s">
-        <v>1122</v>
-      </c>
       <c r="E346" s="1" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="B347" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E347" s="1" t="s">
         <v>1531</v>
       </c>
-      <c r="C347" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="D347" s="1" t="s">
-        <v>1532</v>
-      </c>
-      <c r="E347" s="1" t="s">
-        <v>1533</v>
-      </c>
       <c r="G347" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B348" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D348" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="C348" s="1" t="s">
-        <v>1124</v>
-      </c>
-      <c r="D348" s="1" t="s">
-        <v>1125</v>
-      </c>
       <c r="E348" s="1" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B349" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D349" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="C349" s="1" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D349" s="1" t="s">
-        <v>1128</v>
-      </c>
       <c r="E349" s="1" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.2">
@@ -12902,135 +12901,135 @@
         <v>6</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="B356" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D356" s="1" t="s">
         <v>1129</v>
       </c>
-      <c r="C356" s="1" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D356" s="1" t="s">
-        <v>1131</v>
-      </c>
       <c r="E356" s="1" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="B357" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D357" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="C357" s="1" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D357" s="1" t="s">
-        <v>1134</v>
-      </c>
       <c r="E357" s="1" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="B358" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D358" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="C358" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D358" s="1" t="s">
-        <v>1137</v>
-      </c>
       <c r="E358" s="1" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.2">
@@ -13047,24 +13046,24 @@
         <v>115</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.2">
@@ -13081,254 +13080,254 @@
         <v>119</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G362" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B363" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D363" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="C363" s="1" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D363" s="1" t="s">
-        <v>1140</v>
-      </c>
       <c r="E363" s="1" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="B364" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D364" s="1" t="s">
         <v>1141</v>
       </c>
-      <c r="C364" s="1" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D364" s="1" t="s">
-        <v>1143</v>
-      </c>
       <c r="E364" s="1" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="B365" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D365" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="C365" s="1" t="s">
-        <v>1145</v>
-      </c>
-      <c r="D365" s="1" t="s">
-        <v>1146</v>
-      </c>
       <c r="E365" s="1" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="G366" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C367" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E367" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D367" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="E367" s="1" t="s">
-        <v>369</v>
-      </c>
       <c r="F367" s="1" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="B368" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D368" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="C368" s="1" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D368" s="1" t="s">
-        <v>1150</v>
-      </c>
       <c r="E368" s="1" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="B370" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D370" s="1" t="s">
         <v>1151</v>
       </c>
-      <c r="C370" s="1" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D370" s="1" t="s">
-        <v>1153</v>
-      </c>
       <c r="E370" s="1" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="B371" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D371" s="1" t="s">
         <v>1154</v>
       </c>
-      <c r="C371" s="1" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D371" s="1" t="s">
-        <v>1156</v>
-      </c>
       <c r="E371" s="1" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="B373" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D373" s="1" t="s">
         <v>1169</v>
       </c>
-      <c r="C373" s="1" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D373" s="1" t="s">
-        <v>1171</v>
-      </c>
       <c r="E373" s="1" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="B374" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D374" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="C374" s="1" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D374" s="1" t="s">
-        <v>1159</v>
-      </c>
       <c r="E374" s="1" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.2">
@@ -13345,285 +13344,285 @@
         <v>123</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G377" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="B378" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="G378" s="1" t="s">
         <v>1536</v>
-      </c>
-      <c r="C378" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="D378" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="E378" s="1" t="s">
-        <v>1537</v>
-      </c>
-      <c r="G378" s="1" t="s">
-        <v>1538</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="B379" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D379" s="1" t="s">
         <v>1160</v>
       </c>
-      <c r="C379" s="1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D379" s="1" t="s">
-        <v>1162</v>
-      </c>
       <c r="E379" s="1" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="B380" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D380" s="1" t="s">
         <v>1163</v>
       </c>
-      <c r="C380" s="1" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D380" s="1" t="s">
-        <v>1165</v>
-      </c>
       <c r="E380" s="1" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="B381" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D381" s="1" t="s">
         <v>1166</v>
       </c>
-      <c r="C381" s="1" t="s">
-        <v>1167</v>
-      </c>
-      <c r="D381" s="1" t="s">
-        <v>1168</v>
-      </c>
       <c r="E381" s="1" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C382" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E382" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="D382" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E382" s="1" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C383" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E383" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D383" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="E383" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="F383" s="1" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384" s="3" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="B384" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="C384" s="1" t="s">
         <v>1929</v>
       </c>
-      <c r="C384" s="1" t="s">
-        <v>1931</v>
-      </c>
       <c r="D384" s="1" t="s">
-        <v>2029</v>
+        <v>2026</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>2030</v>
+        <v>2027</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C385" s="1" t="s">
         <v>1932</v>
       </c>
-      <c r="B385" s="1" t="s">
+      <c r="D385" s="1" t="s">
         <v>1933</v>
       </c>
-      <c r="C385" s="1" t="s">
+      <c r="E385" s="1" t="s">
         <v>1934</v>
       </c>
-      <c r="D385" s="1" t="s">
-        <v>1935</v>
-      </c>
-      <c r="E385" s="1" t="s">
-        <v>1936</v>
-      </c>
       <c r="F385" s="1" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="B388" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D388" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="C388" s="1" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D388" s="1" t="s">
-        <v>1176</v>
-      </c>
       <c r="E388" s="1" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="B389" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D389" s="1" t="s">
         <v>1177</v>
       </c>
-      <c r="C389" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D389" s="1" t="s">
-        <v>1179</v>
-      </c>
       <c r="E389" s="1" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="B390" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D390" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="C390" s="1" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D390" s="1" t="s">
-        <v>1182</v>
-      </c>
       <c r="E390" s="1" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="B391" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D391" s="1" t="s">
         <v>1183</v>
       </c>
-      <c r="C391" s="1" t="s">
-        <v>1184</v>
-      </c>
-      <c r="D391" s="1" t="s">
-        <v>1185</v>
-      </c>
       <c r="E391" s="1" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="B392" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D392" s="1" t="s">
         <v>1186</v>
       </c>
-      <c r="C392" s="1" t="s">
-        <v>1187</v>
-      </c>
-      <c r="D392" s="1" t="s">
-        <v>1188</v>
-      </c>
       <c r="E392" s="1" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>132</v>
@@ -13635,101 +13634,101 @@
         <v>134</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G393" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="B394" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D394" s="1" t="s">
         <v>1213</v>
       </c>
-      <c r="C394" s="1" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D394" s="1" t="s">
-        <v>1215</v>
-      </c>
       <c r="E394" s="1" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="B395" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D395" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="C395" s="1" t="s">
-        <v>1190</v>
-      </c>
-      <c r="D395" s="1" t="s">
-        <v>1191</v>
-      </c>
       <c r="E395" s="1" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="B396" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D396" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="C396" s="1" t="s">
-        <v>1193</v>
-      </c>
-      <c r="D396" s="1" t="s">
-        <v>1194</v>
-      </c>
       <c r="E396" s="1" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="B397" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D397" s="1" t="s">
         <v>1195</v>
       </c>
-      <c r="C397" s="1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="D397" s="1" t="s">
-        <v>1197</v>
-      </c>
       <c r="E397" s="1" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.2">
@@ -13746,66 +13745,66 @@
         <v>127</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C400" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E400" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="D400" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E400" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="F400" s="1" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="B401" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D401" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="C401" s="1" t="s">
-        <v>1199</v>
-      </c>
-      <c r="D401" s="1" t="s">
-        <v>1200</v>
-      </c>
       <c r="E401" s="1" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>149</v>
@@ -13817,64 +13816,64 @@
         <v>151</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G403" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="B404" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D404" s="1" t="s">
         <v>1201</v>
       </c>
-      <c r="C404" s="1" t="s">
-        <v>1202</v>
-      </c>
-      <c r="D404" s="1" t="s">
-        <v>1203</v>
-      </c>
       <c r="E404" s="1" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E405" s="1" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C406" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E406" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="D406" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E406" s="1" t="s">
-        <v>388</v>
-      </c>
       <c r="F406" s="1" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="407" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
@@ -13891,70 +13890,70 @@
         <v>131</v>
       </c>
       <c r="E407" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F407" s="1"/>
       <c r="G407" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="408" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="B408" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D408" s="1" t="s">
         <v>1205</v>
       </c>
-      <c r="C408" s="1" t="s">
-        <v>1206</v>
-      </c>
-      <c r="D408" s="1" t="s">
-        <v>1207</v>
-      </c>
       <c r="E408" s="1" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="F408" s="1"/>
     </row>
     <row r="409" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="B409" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D409" s="1" t="s">
         <v>1208</v>
       </c>
-      <c r="C409" s="1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D409" s="1" t="s">
-        <v>1210</v>
-      </c>
       <c r="E409" s="1" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="F409" s="1"/>
     </row>
     <row r="410" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="F410" s="1"/>
     </row>
     <row r="411" spans="1:7" customFormat="1" ht="16" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <conditionalFormatting sqref="AQ412:XFD1048576 A14 C14:F14 A391 C391:F391 A412:F1048576 A1:F13 A392:F399 A15:F390 AQ1:XFD406 A401:F410">
+  <conditionalFormatting sqref="AQ412:XFD1048576 A14 C14:F14 A391 C391:F391 A1:F13 A392:F399 A15:F390 AQ1:XFD406 A401:F410 A412:F1048576">
     <cfRule type="duplicateValues" dxfId="6" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">

--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Edite/Documents/GitHub/Norsk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EE8EE3-0A28-F64C-BCCB-58524422977E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A7B94B-B7D4-FA49-BADC-94C46BC2FAB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{D9759F51-050D-AD4F-8F66-76048091BB84}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19160" xr2:uid="{D9759F51-050D-AD4F-8F66-76048091BB84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -884,9 +884,6 @@
     <t>koster</t>
   </si>
   <si>
-    <t>kostet / kosta</t>
-  </si>
-  <si>
     <t>cost, sweep</t>
   </si>
   <si>
@@ -6147,6 +6144,9 @@
   </si>
   <si>
     <t>hette</t>
+  </si>
+  <si>
+    <t>kostet</t>
   </si>
 </sst>
 </file>
@@ -6590,7 +6590,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -6600,8 +6600,8 @@
     <col min="3" max="3" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
     <col min="43" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -6625,81 +6625,81 @@
         <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>594</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>597</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>600</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -6707,90 +6707,90 @@
         <v>153</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>152</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>1537</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>1538</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>1539</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>1540</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>1541</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>606</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>609</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -6798,7 +6798,7 @@
         <v>187</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>184</v>
@@ -6810,61 +6810,61 @@
         <v>186</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>1935</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>1936</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>2018</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>1937</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>1939</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>2019</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>1938</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>612</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>615</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -6872,70 +6872,70 @@
         <v>107</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>618</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>624</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>621</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -6943,7 +6943,7 @@
         <v>157</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>154</v>
@@ -6955,75 +6955,75 @@
         <v>156</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>627</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>630</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>633</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>636</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -7031,7 +7031,7 @@
         <v>165</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>162</v>
@@ -7045,19 +7045,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>642</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -7065,7 +7065,7 @@
         <v>161</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>158</v>
@@ -7079,19 +7079,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>639</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -7099,7 +7099,7 @@
         <v>169</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>166</v>
@@ -7111,137 +7111,137 @@
         <v>168</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>1941</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>1940</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>1942</v>
-      </c>
       <c r="D30" s="1" t="s">
+        <v>2019</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>2020</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>2021</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>475</v>
-      </c>
       <c r="E31" s="1" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>167</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>646</v>
-      </c>
       <c r="E33" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>649</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>655</v>
-      </c>
       <c r="E35" s="1" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>3</v>
@@ -7256,32 +7256,32 @@
         <v>171</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>652</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>172</v>
@@ -7293,24 +7293,24 @@
         <v>174</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>478</v>
-      </c>
       <c r="E39" s="1" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -7327,7 +7327,7 @@
         <v>8</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -7335,7 +7335,7 @@
         <v>178</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>175</v>
@@ -7349,19 +7349,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>480</v>
-      </c>
       <c r="E42" s="1" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -7369,7 +7369,7 @@
         <v>182</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>179</v>
@@ -7381,44 +7381,44 @@
         <v>181</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>660</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -7435,98 +7435,98 @@
         <v>139</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>662</v>
-      </c>
       <c r="E47" s="1" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>665</v>
-      </c>
       <c r="E48" s="1" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>668</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>671</v>
-      </c>
       <c r="E50" s="1" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>1544</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>1545</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>1546</v>
-      </c>
       <c r="E51" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -7534,7 +7534,7 @@
         <v>191</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>188</v>
@@ -7548,53 +7548,53 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>674</v>
-      </c>
       <c r="E53" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>484</v>
-      </c>
       <c r="E54" s="1" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>677</v>
-      </c>
       <c r="E55" s="1" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -7608,13 +7608,13 @@
         <v>19</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -7631,10 +7631,10 @@
         <v>12</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -7642,7 +7642,7 @@
         <v>195</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>192</v>
@@ -7671,7 +7671,7 @@
         <v>196</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -7679,7 +7679,7 @@
         <v>201</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>198</v>
@@ -7691,78 +7691,78 @@
         <v>200</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>680</v>
-      </c>
       <c r="E61" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>683</v>
-      </c>
       <c r="E62" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>686</v>
-      </c>
       <c r="E63" s="1" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>689</v>
-      </c>
       <c r="E64" s="1" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -7770,7 +7770,7 @@
         <v>205</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>202</v>
@@ -7784,53 +7784,53 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>692</v>
-      </c>
       <c r="E66" s="1" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="E67" s="1" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>696</v>
-      </c>
       <c r="E68" s="1" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -7850,7 +7850,7 @@
         <v>225</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -7858,7 +7858,7 @@
         <v>209</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>206</v>
@@ -7872,36 +7872,36 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>488</v>
-      </c>
       <c r="E71" s="1" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>699</v>
-      </c>
       <c r="E72" s="1" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -7921,7 +7921,7 @@
         <v>214</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -7929,7 +7929,7 @@
         <v>213</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>210</v>
@@ -7943,243 +7943,243 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>702</v>
-      </c>
       <c r="E75" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>705</v>
-      </c>
       <c r="E76" s="1" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="E77" s="1" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>708</v>
-      </c>
       <c r="E78" s="1" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>1507</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>1508</v>
-      </c>
       <c r="C80" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>710</v>
-      </c>
       <c r="E80" s="1" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>742</v>
-      </c>
       <c r="E82" s="1" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>745</v>
-      </c>
       <c r="E83" s="1" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>460</v>
-      </c>
       <c r="E84" s="1" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>748</v>
-      </c>
       <c r="E85" s="1" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>713</v>
-      </c>
       <c r="E86" s="1" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>716</v>
-      </c>
       <c r="E87" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>718</v>
-      </c>
       <c r="E88" s="1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -8187,7 +8187,7 @@
         <v>218</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>215</v>
@@ -8199,24 +8199,24 @@
         <v>217</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>721</v>
-      </c>
       <c r="E90" s="1" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -8224,7 +8224,7 @@
         <v>221</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>219</v>
@@ -8233,44 +8233,44 @@
         <v>220</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>724</v>
-      </c>
       <c r="E92" s="1" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>727</v>
-      </c>
       <c r="E93" s="1" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -8290,27 +8290,27 @@
         <v>222</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>730</v>
-      </c>
       <c r="E95" s="1" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -8330,7 +8330,7 @@
         <v>223</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -8347,78 +8347,78 @@
         <v>34</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>733</v>
-      </c>
       <c r="E98" s="1" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>736</v>
-      </c>
       <c r="E99" s="1" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>739</v>
-      </c>
       <c r="E101" s="1" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -8438,41 +8438,41 @@
         <v>237</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>751</v>
-      </c>
       <c r="E103" s="1" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>754</v>
-      </c>
       <c r="E104" s="1" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -8492,44 +8492,44 @@
         <v>227</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="C106" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>495</v>
-      </c>
       <c r="E106" s="1" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>757</v>
-      </c>
       <c r="E107" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -8537,7 +8537,7 @@
         <v>231</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>228</v>
@@ -8551,59 +8551,59 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>1943</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>1944</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>1945</v>
-      </c>
       <c r="E109" s="1" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>760</v>
-      </c>
       <c r="E110" s="1" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>763</v>
-      </c>
       <c r="E111" s="1" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -8623,27 +8623,27 @@
         <v>232</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>766</v>
-      </c>
       <c r="E113" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -8651,7 +8651,7 @@
         <v>236</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>233</v>
@@ -8663,296 +8663,296 @@
         <v>235</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="C116" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="D116" s="1" t="s">
-        <v>498</v>
-      </c>
       <c r="E116" s="1" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="D117" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>769</v>
-      </c>
       <c r="E117" s="1" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="D120" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>772</v>
-      </c>
       <c r="E120" s="1" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="D122" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>775</v>
-      </c>
       <c r="E122" s="1" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>778</v>
-      </c>
       <c r="E123" s="1" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>780</v>
-      </c>
       <c r="D124" s="1" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="D125" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>783</v>
-      </c>
       <c r="E125" s="1" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="D128" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>786</v>
-      </c>
       <c r="E128" s="1" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
@@ -8972,7 +8972,7 @@
         <v>239</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -8980,33 +8980,33 @@
         <v>241</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>240</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>813</v>
-      </c>
       <c r="E134" s="1" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
@@ -9014,7 +9014,7 @@
         <v>245</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>242</v>
@@ -9028,19 +9028,19 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="D136" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="D136" s="1" t="s">
-        <v>789</v>
-      </c>
       <c r="E136" s="1" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
@@ -9048,19 +9048,19 @@
         <v>247</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>246</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>244</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
@@ -9074,67 +9074,67 @@
         <v>55</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>248</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="D139" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="D139" s="1" t="s">
-        <v>792</v>
-      </c>
       <c r="E139" s="1" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="D140" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>795</v>
-      </c>
       <c r="E140" s="1" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
@@ -9154,24 +9154,24 @@
         <v>249</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
@@ -9179,7 +9179,7 @@
         <v>253</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>250</v>
@@ -9193,22 +9193,22 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="D145" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="D145" s="1" t="s">
-        <v>798</v>
-      </c>
       <c r="E145" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -9216,7 +9216,7 @@
         <v>259</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>256</v>
@@ -9228,61 +9228,61 @@
         <v>258</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B147" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="D147" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>801</v>
-      </c>
       <c r="E147" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="D148" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="D148" s="1" t="s">
-        <v>810</v>
-      </c>
       <c r="E148" s="1" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -9290,53 +9290,53 @@
         <v>255</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>254</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="D151" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>804</v>
-      </c>
       <c r="E151" s="1" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="D152" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>807</v>
-      </c>
       <c r="E152" s="1" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -9344,7 +9344,7 @@
         <v>263</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>260</v>
@@ -9358,19 +9358,19 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B154" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="D154" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>816</v>
-      </c>
       <c r="E154" s="1" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -9378,53 +9378,53 @@
         <v>153</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>264</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B156" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="D156" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="D156" s="1" t="s">
-        <v>819</v>
-      </c>
       <c r="E156" s="1" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="D157" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="D157" s="1" t="s">
-        <v>822</v>
-      </c>
       <c r="E157" s="1" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -9432,7 +9432,7 @@
         <v>268</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>265</v>
@@ -9444,7 +9444,7 @@
         <v>267</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -9452,7 +9452,7 @@
         <v>272</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>269</v>
@@ -9464,7 +9464,7 @@
         <v>271</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -9472,7 +9472,7 @@
         <v>197</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>273</v>
@@ -9486,175 +9486,175 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="D161" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="D161" s="1" t="s">
-        <v>825</v>
-      </c>
       <c r="E161" s="1" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="D162" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="D162" s="1" t="s">
-        <v>828</v>
-      </c>
       <c r="E162" s="1" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B163" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="D163" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="D163" s="1" t="s">
-        <v>831</v>
-      </c>
       <c r="E163" s="1" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="C164" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D164" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="D164" s="1" t="s">
-        <v>511</v>
-      </c>
       <c r="E164" s="1" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B169" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="D169" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="D169" s="1" t="s">
-        <v>834</v>
-      </c>
       <c r="E169" s="1" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="D170" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="D170" s="1" t="s">
-        <v>837</v>
-      </c>
       <c r="E170" s="1" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
@@ -9674,134 +9674,134 @@
         <v>276</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B172" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="D172" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="D172" s="1" t="s">
-        <v>840</v>
-      </c>
       <c r="E172" s="1" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="D173" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="D173" s="1" t="s">
-        <v>843</v>
-      </c>
       <c r="E173" s="1" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B174" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="D174" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="D174" s="1" t="s">
-        <v>846</v>
-      </c>
       <c r="E174" s="1" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B175" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="D175" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="D175" s="1" t="s">
-        <v>849</v>
-      </c>
       <c r="E175" s="1" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="D176" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="D176" s="1" t="s">
-        <v>852</v>
-      </c>
       <c r="E176" s="1" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>277</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>278</v>
+        <v>2032</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>140</v>
@@ -9813,166 +9813,166 @@
         <v>142</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C180" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D180" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="D180" s="1" t="s">
-        <v>518</v>
-      </c>
       <c r="E180" s="1" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C181" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D181" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="D181" s="1" t="s">
-        <v>520</v>
-      </c>
       <c r="E181" s="1" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="C183" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D183" s="1" t="s">
-        <v>522</v>
-      </c>
       <c r="E183" s="1" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C184" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D184" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="E184" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C185" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D185" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="E185" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D186" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E186" s="1" t="s">
         <v>1555</v>
       </c>
-      <c r="E186" s="1" t="s">
-        <v>1556</v>
-      </c>
       <c r="F186" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B187" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="C187" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="D187" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="D187" s="1" t="s">
-        <v>890</v>
-      </c>
       <c r="E187" s="1" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B188" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="C188" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="D188" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="D188" s="1" t="s">
-        <v>893</v>
-      </c>
       <c r="E188" s="1" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
@@ -9989,10 +9989,10 @@
         <v>67</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
@@ -10009,135 +10009,135 @@
         <v>71</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B191" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="D191" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="D191" s="1" t="s">
-        <v>855</v>
-      </c>
       <c r="E191" s="1" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B192" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="D192" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="D192" s="1" t="s">
-        <v>858</v>
-      </c>
       <c r="E192" s="1" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C193" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D193" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="E193" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B194" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="C194" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="D194" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="D194" s="1" t="s">
-        <v>861</v>
-      </c>
       <c r="E194" s="1" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C195" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D195" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="E195" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E195" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="F195" s="1" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B196" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C196" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="D196" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="D196" s="1" t="s">
-        <v>864</v>
-      </c>
       <c r="E196" s="1" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B197" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="D197" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="D197" s="1" t="s">
-        <v>867</v>
-      </c>
       <c r="E197" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
@@ -10154,237 +10154,237 @@
         <v>75</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C200" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B200" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C200" s="1" t="s">
+      <c r="D200" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="E200" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E200" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="F200" s="1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="D201" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="D201" s="1" t="s">
-        <v>884</v>
-      </c>
       <c r="E201" s="1" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C202" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D202" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D202" s="1" t="s">
+      <c r="E202" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B203" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="C203" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="D203" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="D203" s="1" t="s">
-        <v>887</v>
-      </c>
       <c r="E203" s="1" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B204" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="C204" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="D204" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="D204" s="1" t="s">
-        <v>870</v>
-      </c>
       <c r="E204" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B205" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="D205" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="D205" s="1" t="s">
-        <v>873</v>
-      </c>
       <c r="E205" s="1" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B206" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="D206" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="D206" s="1" t="s">
-        <v>876</v>
-      </c>
       <c r="E206" s="1" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B208" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="C208" s="1" t="s">
-        <v>878</v>
-      </c>
       <c r="D208" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B209" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="C209" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="C209" s="1" t="s">
+      <c r="D209" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="D209" s="1" t="s">
-        <v>881</v>
-      </c>
       <c r="E209" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B210" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="C210" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="D210" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="D210" s="1" t="s">
-        <v>908</v>
-      </c>
       <c r="E210" s="1" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B211" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="C211" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="D211" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="D211" s="1" t="s">
-        <v>896</v>
-      </c>
       <c r="E211" s="1" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
@@ -10401,95 +10401,95 @@
         <v>146</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C213" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D213" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D213" s="1" t="s">
+      <c r="E213" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C214" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D214" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D214" s="1" t="s">
+      <c r="E214" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B215" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C215" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="D215" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="D215" s="1" t="s">
-        <v>899</v>
-      </c>
       <c r="E215" s="1" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="D216" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="D216" s="1" t="s">
-        <v>902</v>
-      </c>
       <c r="E216" s="1" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B217" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="C217" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="D217" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="D217" s="1" t="s">
-        <v>905</v>
-      </c>
       <c r="E217" s="1" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
@@ -10506,981 +10506,981 @@
         <v>79</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B219" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="C219" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="D219" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="D219" s="1" t="s">
-        <v>911</v>
-      </c>
       <c r="E219" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B220" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="C220" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="D220" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="D220" s="1" t="s">
-        <v>914</v>
-      </c>
       <c r="E220" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B222" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D222" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="C222" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>916</v>
-      </c>
       <c r="E222" s="1" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B223" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C223" s="1" t="s">
         <v>1214</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="D223" s="1" t="s">
         <v>1215</v>
       </c>
-      <c r="D223" s="1" t="s">
-        <v>1216</v>
-      </c>
       <c r="E223" s="1" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B224" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="C224" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="D224" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="D224" s="1" t="s">
-        <v>919</v>
-      </c>
       <c r="E224" s="1" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B226" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="C226" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="D226" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="D226" s="1" t="s">
-        <v>922</v>
-      </c>
       <c r="E226" s="1" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B227" s="1" t="s">
         <v>1558</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="C227" s="1" t="s">
         <v>1559</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="D227" s="1" t="s">
         <v>1560</v>
       </c>
-      <c r="D227" s="1" t="s">
+      <c r="E227" s="1" t="s">
         <v>1561</v>
       </c>
-      <c r="E227" s="1" t="s">
-        <v>1562</v>
-      </c>
       <c r="F227" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B228" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C228" s="1" t="s">
         <v>1217</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="D228" s="1" t="s">
         <v>1218</v>
       </c>
-      <c r="D228" s="1" t="s">
-        <v>1219</v>
-      </c>
       <c r="E228" s="1" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B229" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="C229" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="D229" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="D229" s="1" t="s">
-        <v>925</v>
-      </c>
       <c r="E229" s="1" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B230" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="C230" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="C230" s="1" t="s">
+      <c r="D230" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="D230" s="1" t="s">
-        <v>928</v>
-      </c>
       <c r="E230" s="1" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="D231" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="D231" s="1" t="s">
-        <v>931</v>
-      </c>
       <c r="E231" s="1" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B232" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="C232" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="C232" s="1" t="s">
+      <c r="D232" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="D232" s="1" t="s">
-        <v>934</v>
-      </c>
       <c r="E232" s="1" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B233" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="C233" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="D233" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="D233" s="1" t="s">
-        <v>937</v>
-      </c>
       <c r="E233" s="1" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B234" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="C234" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="C234" s="1" t="s">
+      <c r="D234" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="D234" s="1" t="s">
-        <v>973</v>
-      </c>
       <c r="E234" s="1" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B235" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C235" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="D235" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="D235" s="1" t="s">
-        <v>940</v>
-      </c>
       <c r="E235" s="1" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B236" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C236" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="C236" s="1" t="s">
+      <c r="D236" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="D236" s="1" t="s">
-        <v>943</v>
-      </c>
       <c r="E236" s="1" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B237" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="C237" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="D237" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="D237" s="1" t="s">
-        <v>946</v>
-      </c>
       <c r="E237" s="1" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B238" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C238" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="C238" s="1" t="s">
+      <c r="D238" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="D238" s="1" t="s">
-        <v>949</v>
-      </c>
       <c r="E238" s="1" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B240" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C240" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="D240" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="D240" s="1" t="s">
-        <v>952</v>
-      </c>
       <c r="E240" s="1" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B241" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="C241" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="D241" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="D241" s="1" t="s">
-        <v>955</v>
-      </c>
       <c r="E241" s="1" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B242" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C242" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="D242" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="D242" s="1" t="s">
-        <v>958</v>
-      </c>
       <c r="E242" s="1" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B243" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C243" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="C243" s="1" t="s">
+      <c r="D243" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="D243" s="1" t="s">
-        <v>961</v>
-      </c>
       <c r="E243" s="1" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C244" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D244" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D244" s="1" t="s">
+      <c r="E244" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E244" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="F244" s="1" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B245" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="C245" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="C245" s="1" t="s">
+      <c r="D245" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="D245" s="1" t="s">
-        <v>964</v>
-      </c>
       <c r="E245" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C246" s="1" t="s">
         <v>1566</v>
       </c>
-      <c r="B246" s="1" t="s">
-        <v>1565</v>
-      </c>
-      <c r="C246" s="1" t="s">
+      <c r="D246" s="1" t="s">
         <v>1567</v>
       </c>
-      <c r="D246" s="1" t="s">
+      <c r="E246" s="1" t="s">
         <v>1568</v>
       </c>
-      <c r="E246" s="1" t="s">
-        <v>1569</v>
-      </c>
       <c r="F246" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B247" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="C247" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="C247" s="1" t="s">
+      <c r="D247" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="D247" s="1" t="s">
-        <v>967</v>
-      </c>
       <c r="E247" s="1" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B248" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="C248" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="C248" s="1" t="s">
+      <c r="D248" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="D248" s="1" t="s">
-        <v>970</v>
-      </c>
       <c r="E248" s="1" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B249" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C249" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="D249" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="D249" s="1" t="s">
-        <v>1015</v>
-      </c>
       <c r="E249" s="1" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B250" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="C250" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="C250" s="1" t="s">
+      <c r="D250" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="D250" s="1" t="s">
-        <v>976</v>
-      </c>
       <c r="E250" s="1" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C251" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D251" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D251" s="1" t="s">
+      <c r="E251" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B252" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E252" s="1" t="s">
         <v>1511</v>
       </c>
-      <c r="C252" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="D252" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>1512</v>
-      </c>
       <c r="G252" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B253" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="C253" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="C253" s="1" t="s">
+      <c r="D253" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="D253" s="1" t="s">
-        <v>979</v>
-      </c>
       <c r="E253" s="1" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C254" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D254" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="D254" s="1" t="s">
-        <v>529</v>
-      </c>
       <c r="E254" s="1" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B255" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C255" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="C255" s="1" t="s">
+      <c r="D255" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="D255" s="1" t="s">
-        <v>982</v>
-      </c>
       <c r="E255" s="1" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B256" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C256" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="C256" s="1" t="s">
+      <c r="D256" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="D256" s="1" t="s">
-        <v>985</v>
-      </c>
       <c r="E256" s="1" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B257" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="C257" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="C257" s="1" t="s">
+      <c r="D257" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="D257" s="1" t="s">
-        <v>988</v>
-      </c>
       <c r="E257" s="1" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B258" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="C258" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="C258" s="1" t="s">
+      <c r="D258" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="D258" s="1" t="s">
-        <v>991</v>
-      </c>
       <c r="E258" s="1" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B259" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C259" s="1" t="s">
         <v>1517</v>
       </c>
-      <c r="C259" s="1" t="s">
+      <c r="D259" s="1" t="s">
         <v>1518</v>
       </c>
-      <c r="D259" s="1" t="s">
+      <c r="E259" s="1" t="s">
         <v>1519</v>
       </c>
-      <c r="E259" s="1" t="s">
-        <v>1520</v>
-      </c>
       <c r="G259" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B260" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="C260" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="C260" s="1" t="s">
+      <c r="D260" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="D260" s="1" t="s">
-        <v>994</v>
-      </c>
       <c r="E260" s="1" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B262" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="C262" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="C262" s="1" t="s">
+      <c r="D262" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="D262" s="1" t="s">
-        <v>997</v>
-      </c>
       <c r="E262" s="1" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B263" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="C263" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="C263" s="1" t="s">
+      <c r="D263" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="D263" s="1" t="s">
-        <v>1000</v>
-      </c>
       <c r="E263" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B264" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C264" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="C264" s="1" t="s">
+      <c r="D264" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="D264" s="1" t="s">
-        <v>1009</v>
-      </c>
       <c r="E264" s="1" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B265" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C265" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="C265" s="1" t="s">
+      <c r="D265" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="D265" s="1" t="s">
-        <v>1012</v>
-      </c>
       <c r="E265" s="1" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B266" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C266" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="C266" s="1" t="s">
+      <c r="D266" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="D266" s="1" t="s">
-        <v>1003</v>
-      </c>
       <c r="E266" s="1" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B267" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C267" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="C267" s="1" t="s">
+      <c r="D267" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="D267" s="1" t="s">
-        <v>1006</v>
-      </c>
       <c r="E267" s="1" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B269" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C269" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="C269" s="1" t="s">
+      <c r="D269" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="D269" s="1" t="s">
-        <v>1018</v>
-      </c>
       <c r="E269" s="1" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B270" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C270" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="C270" s="1" t="s">
+      <c r="D270" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="D270" s="1" t="s">
-        <v>1021</v>
-      </c>
       <c r="E270" s="1" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B271" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C271" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="C271" s="1" t="s">
+      <c r="D271" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="D271" s="1" t="s">
-        <v>1024</v>
-      </c>
       <c r="E271" s="1" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C272" s="1" t="s">
         <v>1571</v>
       </c>
-      <c r="B272" s="1" t="s">
-        <v>2028</v>
-      </c>
-      <c r="C272" s="1" t="s">
+      <c r="D272" s="1" t="s">
         <v>1572</v>
       </c>
-      <c r="D272" s="1" t="s">
+      <c r="E272" s="1" t="s">
         <v>1573</v>
       </c>
-      <c r="E272" s="1" t="s">
-        <v>1574</v>
-      </c>
       <c r="F272" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B273" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C273" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="C273" s="1" t="s">
+      <c r="D273" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="D273" s="1" t="s">
-        <v>1027</v>
-      </c>
       <c r="E273" s="1" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
@@ -11497,10 +11497,10 @@
         <v>83</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
@@ -11517,52 +11517,52 @@
         <v>87</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C276" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D276" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D276" s="1" t="s">
+      <c r="E276" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E276" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="F276" s="1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B277" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C277" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="C277" s="1" t="s">
+      <c r="D277" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="D277" s="1" t="s">
-        <v>1030</v>
-      </c>
       <c r="E277" s="1" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>88</v>
@@ -11574,15 +11574,15 @@
         <v>90</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>92</v>
@@ -11594,44 +11594,44 @@
         <v>94</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B281" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C281" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="C281" s="1" t="s">
+      <c r="D281" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="D281" s="1" t="s">
-        <v>1033</v>
-      </c>
       <c r="E281" s="1" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
@@ -11648,50 +11648,50 @@
         <v>91</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="C283" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D283" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="D283" s="1" t="s">
-        <v>534</v>
-      </c>
       <c r="E283" s="1" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B284" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E284" s="1" t="s">
         <v>1522</v>
       </c>
-      <c r="C284" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="D284" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="E284" s="1" t="s">
-        <v>1523</v>
-      </c>
       <c r="F284" s="1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
@@ -11699,33 +11699,33 @@
         <v>245</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C285" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D285" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D285" s="1" t="s">
+      <c r="E285" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="C286" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D286" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="D286" s="1" t="s">
-        <v>536</v>
-      </c>
       <c r="E286" s="1" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
@@ -11733,90 +11733,90 @@
         <v>25</v>
       </c>
       <c r="B287" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C287" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="C287" s="1" t="s">
+      <c r="D287" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="D287" s="1" t="s">
-        <v>1036</v>
-      </c>
       <c r="E287" s="1" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="C289" s="1" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D289" s="1" t="s">
         <v>2023</v>
       </c>
-      <c r="D289" s="1" t="s">
+      <c r="E289" s="1" t="s">
         <v>2024</v>
       </c>
-      <c r="E289" s="1" t="s">
-        <v>2025</v>
-      </c>
       <c r="F289" s="1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
@@ -11833,490 +11833,490 @@
         <v>101</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B293" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C293" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="C293" s="1" t="s">
+      <c r="D293" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="D293" s="1" t="s">
-        <v>1039</v>
-      </c>
       <c r="E293" s="1" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="C296" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D296" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="D296" s="1" t="s">
-        <v>544</v>
-      </c>
       <c r="E296" s="1" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B297" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C297" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="C297" s="1" t="s">
+      <c r="D297" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="D297" s="1" t="s">
-        <v>1042</v>
-      </c>
       <c r="E297" s="1" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B298" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C298" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="C298" s="1" t="s">
+      <c r="D298" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="D298" s="1" t="s">
-        <v>1045</v>
-      </c>
       <c r="E298" s="1" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C301" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D301" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D301" s="1" t="s">
+      <c r="E301" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="E301" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="G301" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D302" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E302" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="E302" s="1" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="C303" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D303" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="D303" s="1" t="s">
-        <v>548</v>
-      </c>
       <c r="E303" s="1" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B304" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C304" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="C304" s="1" t="s">
-        <v>1047</v>
-      </c>
       <c r="D304" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B306" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C306" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="C306" s="1" t="s">
+      <c r="D306" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="D306" s="1" t="s">
-        <v>1050</v>
-      </c>
       <c r="E306" s="1" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B307" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C307" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="C307" s="1" t="s">
+      <c r="D307" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="D307" s="1" t="s">
-        <v>1053</v>
-      </c>
       <c r="E307" s="1" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="C308" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D308" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D308" s="1" t="s">
-        <v>552</v>
-      </c>
       <c r="E308" s="1" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B309" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C309" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="C309" s="1" t="s">
+      <c r="D309" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="D309" s="1" t="s">
-        <v>1056</v>
-      </c>
       <c r="E309" s="1" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B310" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C310" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="C310" s="1" t="s">
+      <c r="D310" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="D310" s="1" t="s">
-        <v>1062</v>
-      </c>
       <c r="E310" s="1" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B311" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C311" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="C311" s="1" t="s">
+      <c r="D311" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="D311" s="1" t="s">
-        <v>1059</v>
-      </c>
       <c r="E311" s="1" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C312" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D312" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="D312" s="1" t="s">
-        <v>465</v>
-      </c>
       <c r="E312" s="1" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B314" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C314" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="C314" s="1" t="s">
+      <c r="D314" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="D314" s="1" t="s">
-        <v>1066</v>
-      </c>
       <c r="E314" s="1" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B315" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C315" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="C315" s="1" t="s">
+      <c r="D315" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="D315" s="1" t="s">
-        <v>1069</v>
-      </c>
       <c r="E315" s="1" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B316" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E316" s="1" t="s">
         <v>1524</v>
       </c>
-      <c r="C316" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="D316" s="1" t="s">
-        <v>1526</v>
-      </c>
-      <c r="E316" s="1" t="s">
-        <v>1525</v>
-      </c>
       <c r="G316" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B317" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C317" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="C317" s="1" t="s">
+      <c r="D317" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="D317" s="1" t="s">
-        <v>1072</v>
-      </c>
       <c r="E317" s="1" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C319" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D319" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D319" s="1" t="s">
+      <c r="E319" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="E319" s="1" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.2">
@@ -12333,152 +12333,152 @@
         <v>105</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B321" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C321" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="C321" s="1" t="s">
+      <c r="D321" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="D321" s="1" t="s">
-        <v>1075</v>
-      </c>
       <c r="E321" s="1" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B322" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C322" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="C322" s="1" t="s">
+      <c r="D322" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="D322" s="1" t="s">
-        <v>1078</v>
-      </c>
       <c r="E322" s="1" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B323" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C323" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="C323" s="1" t="s">
+      <c r="D323" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="D323" s="1" t="s">
-        <v>1081</v>
-      </c>
       <c r="E323" s="1" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B324" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C324" s="1" t="s">
         <v>1082</v>
       </c>
-      <c r="C324" s="1" t="s">
+      <c r="D324" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="D324" s="1" t="s">
-        <v>1084</v>
-      </c>
       <c r="E324" s="1" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B325" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C325" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="C325" s="1" t="s">
+      <c r="D325" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="D325" s="1" t="s">
-        <v>1087</v>
-      </c>
       <c r="E325" s="1" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B326" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C326" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="C326" s="1" t="s">
+      <c r="D326" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="D326" s="1" t="s">
-        <v>1090</v>
-      </c>
       <c r="E326" s="1" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="C327" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D327" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="D327" s="1" t="s">
-        <v>557</v>
-      </c>
       <c r="E327" s="1" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B328" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C328" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="C328" s="1" t="s">
+      <c r="D328" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="D328" s="1" t="s">
-        <v>1093</v>
-      </c>
       <c r="E328" s="1" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.2">
@@ -12495,66 +12495,66 @@
         <v>109</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G329" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="C330" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D330" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="D330" s="1" t="s">
-        <v>559</v>
-      </c>
       <c r="E330" s="1" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C331" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D331" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="D331" s="1" t="s">
-        <v>561</v>
-      </c>
       <c r="E331" s="1" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C332" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D332" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="D332" s="1" t="s">
-        <v>563</v>
-      </c>
       <c r="E332" s="1" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>110</v>
@@ -12563,337 +12563,337 @@
         <v>111</v>
       </c>
       <c r="D333" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E333" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E333" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="G333" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B334" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C334" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="C334" s="1" t="s">
+      <c r="D334" s="1" t="s">
         <v>1096</v>
       </c>
-      <c r="D334" s="1" t="s">
-        <v>1097</v>
-      </c>
       <c r="E334" s="1" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B335" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C335" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="C335" s="1" t="s">
+      <c r="D335" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="D335" s="1" t="s">
-        <v>1100</v>
-      </c>
       <c r="E335" s="1" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B336" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C336" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="C336" s="1" t="s">
+      <c r="D336" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="D336" s="1" t="s">
-        <v>1103</v>
-      </c>
       <c r="E336" s="1" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B337" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C337" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="C337" s="1" t="s">
+      <c r="D337" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="D337" s="1" t="s">
-        <v>1106</v>
-      </c>
       <c r="E337" s="1" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C338" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D338" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="D338" s="1" t="s">
-        <v>1108</v>
-      </c>
       <c r="E338" s="1" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="C340" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D340" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D340" s="1" t="s">
-        <v>566</v>
-      </c>
       <c r="E340" s="1" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B341" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C341" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="C341" s="1" t="s">
+      <c r="D341" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="D341" s="1" t="s">
-        <v>1111</v>
-      </c>
       <c r="E341" s="1" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B342" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E342" s="1" t="s">
         <v>1527</v>
       </c>
-      <c r="C342" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="D342" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="E342" s="1" t="s">
-        <v>1528</v>
-      </c>
       <c r="G342" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B343" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C343" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="C343" s="1" t="s">
+      <c r="D343" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="D343" s="1" t="s">
-        <v>1114</v>
-      </c>
       <c r="E343" s="1" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="C344" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D344" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="D344" s="1" t="s">
-        <v>570</v>
-      </c>
       <c r="E344" s="1" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B345" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C345" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C345" s="1" t="s">
+      <c r="D345" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="D345" s="1" t="s">
-        <v>1117</v>
-      </c>
       <c r="E345" s="1" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B346" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C346" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="C346" s="1" t="s">
+      <c r="D346" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="D346" s="1" t="s">
-        <v>1120</v>
-      </c>
       <c r="E346" s="1" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B347" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D347" s="1" t="s">
         <v>1529</v>
       </c>
-      <c r="C347" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D347" s="1" t="s">
+      <c r="E347" s="1" t="s">
         <v>1530</v>
       </c>
-      <c r="E347" s="1" t="s">
-        <v>1531</v>
-      </c>
       <c r="G347" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B348" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C348" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="C348" s="1" t="s">
+      <c r="D348" s="1" t="s">
         <v>1122</v>
       </c>
-      <c r="D348" s="1" t="s">
-        <v>1123</v>
-      </c>
       <c r="E348" s="1" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B349" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C349" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="C349" s="1" t="s">
+      <c r="D349" s="1" t="s">
         <v>1125</v>
       </c>
-      <c r="D349" s="1" t="s">
-        <v>1126</v>
-      </c>
       <c r="E349" s="1" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.2">
@@ -12901,135 +12901,135 @@
         <v>6</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="C354" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D354" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="D354" s="1" t="s">
-        <v>577</v>
-      </c>
       <c r="E354" s="1" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="C355" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D355" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="D355" s="1" t="s">
-        <v>579</v>
-      </c>
       <c r="E355" s="1" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B356" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C356" s="1" t="s">
         <v>1127</v>
       </c>
-      <c r="C356" s="1" t="s">
+      <c r="D356" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="D356" s="1" t="s">
-        <v>1129</v>
-      </c>
       <c r="E356" s="1" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B357" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C357" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="C357" s="1" t="s">
+      <c r="D357" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="D357" s="1" t="s">
-        <v>1132</v>
-      </c>
       <c r="E357" s="1" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B358" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C358" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="C358" s="1" t="s">
+      <c r="D358" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="D358" s="1" t="s">
-        <v>1135</v>
-      </c>
       <c r="E358" s="1" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D359" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E359" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="E359" s="1" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.2">
@@ -13046,24 +13046,24 @@
         <v>115</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="C361" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D361" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D361" s="1" t="s">
-        <v>581</v>
-      </c>
       <c r="E361" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.2">
@@ -13080,254 +13080,254 @@
         <v>119</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G362" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B363" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C363" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="C363" s="1" t="s">
+      <c r="D363" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="D363" s="1" t="s">
-        <v>1138</v>
-      </c>
       <c r="E363" s="1" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B364" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C364" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="C364" s="1" t="s">
+      <c r="D364" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="D364" s="1" t="s">
-        <v>1141</v>
-      </c>
       <c r="E364" s="1" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B365" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C365" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="C365" s="1" t="s">
+      <c r="D365" s="1" t="s">
         <v>1143</v>
       </c>
-      <c r="D365" s="1" t="s">
-        <v>1144</v>
-      </c>
       <c r="E365" s="1" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D366" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E366" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="E366" s="1" t="s">
-        <v>1533</v>
-      </c>
       <c r="G366" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C367" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D367" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D367" s="1" t="s">
+      <c r="E367" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="E367" s="1" t="s">
-        <v>367</v>
-      </c>
       <c r="F367" s="1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B368" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C368" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="C368" s="1" t="s">
+      <c r="D368" s="1" t="s">
         <v>1147</v>
       </c>
-      <c r="D368" s="1" t="s">
-        <v>1148</v>
-      </c>
       <c r="E368" s="1" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B370" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C370" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="C370" s="1" t="s">
+      <c r="D370" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="D370" s="1" t="s">
-        <v>1151</v>
-      </c>
       <c r="E370" s="1" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B371" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C371" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="C371" s="1" t="s">
+      <c r="D371" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="D371" s="1" t="s">
-        <v>1154</v>
-      </c>
       <c r="E371" s="1" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B373" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C373" s="1" t="s">
         <v>1167</v>
       </c>
-      <c r="C373" s="1" t="s">
+      <c r="D373" s="1" t="s">
         <v>1168</v>
       </c>
-      <c r="D373" s="1" t="s">
-        <v>1169</v>
-      </c>
       <c r="E373" s="1" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B374" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C374" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="C374" s="1" t="s">
+      <c r="D374" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="D374" s="1" t="s">
-        <v>1157</v>
-      </c>
       <c r="E374" s="1" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="C376" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D376" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="D376" s="1" t="s">
-        <v>469</v>
-      </c>
       <c r="E376" s="1" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.2">
@@ -13344,285 +13344,285 @@
         <v>123</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G377" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B378" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E378" s="1" t="s">
         <v>1534</v>
       </c>
-      <c r="C378" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="D378" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="E378" s="1" t="s">
+      <c r="G378" s="1" t="s">
         <v>1535</v>
-      </c>
-      <c r="G378" s="1" t="s">
-        <v>1536</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B379" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C379" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="C379" s="1" t="s">
+      <c r="D379" s="1" t="s">
         <v>1159</v>
       </c>
-      <c r="D379" s="1" t="s">
-        <v>1160</v>
-      </c>
       <c r="E379" s="1" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B380" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C380" s="1" t="s">
         <v>1161</v>
       </c>
-      <c r="C380" s="1" t="s">
+      <c r="D380" s="1" t="s">
         <v>1162</v>
       </c>
-      <c r="D380" s="1" t="s">
-        <v>1163</v>
-      </c>
       <c r="E380" s="1" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B381" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C381" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="C381" s="1" t="s">
+      <c r="D381" s="1" t="s">
         <v>1165</v>
       </c>
-      <c r="D381" s="1" t="s">
-        <v>1166</v>
-      </c>
       <c r="E381" s="1" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C382" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D382" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D382" s="1" t="s">
+      <c r="E382" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="E382" s="1" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C383" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D383" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D383" s="1" t="s">
+      <c r="E383" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E383" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="F383" s="1" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384" s="3" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C384" s="1" t="s">
         <v>1928</v>
       </c>
-      <c r="B384" s="1" t="s">
-        <v>1927</v>
-      </c>
-      <c r="C384" s="1" t="s">
-        <v>1929</v>
-      </c>
       <c r="D384" s="1" t="s">
+        <v>2025</v>
+      </c>
+      <c r="E384" s="1" t="s">
         <v>2026</v>
       </c>
-      <c r="E384" s="1" t="s">
-        <v>2027</v>
-      </c>
       <c r="F384" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B385" s="1" t="s">
         <v>1930</v>
       </c>
-      <c r="B385" s="1" t="s">
+      <c r="C385" s="1" t="s">
         <v>1931</v>
       </c>
-      <c r="C385" s="1" t="s">
+      <c r="D385" s="1" t="s">
         <v>1932</v>
       </c>
-      <c r="D385" s="1" t="s">
+      <c r="E385" s="1" t="s">
         <v>1933</v>
       </c>
-      <c r="E385" s="1" t="s">
-        <v>1934</v>
-      </c>
       <c r="F385" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="C386" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D386" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="D386" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="E386" s="1" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="C387" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D387" s="1" t="s">
         <v>1170</v>
       </c>
-      <c r="D387" s="1" t="s">
-        <v>1171</v>
-      </c>
       <c r="E387" s="1" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B388" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C388" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="C388" s="1" t="s">
+      <c r="D388" s="1" t="s">
         <v>1173</v>
       </c>
-      <c r="D388" s="1" t="s">
-        <v>1174</v>
-      </c>
       <c r="E388" s="1" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B389" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C389" s="1" t="s">
         <v>1175</v>
       </c>
-      <c r="C389" s="1" t="s">
+      <c r="D389" s="1" t="s">
         <v>1176</v>
       </c>
-      <c r="D389" s="1" t="s">
-        <v>1177</v>
-      </c>
       <c r="E389" s="1" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B390" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C390" s="1" t="s">
         <v>1178</v>
       </c>
-      <c r="C390" s="1" t="s">
+      <c r="D390" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="D390" s="1" t="s">
-        <v>1180</v>
-      </c>
       <c r="E390" s="1" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B391" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C391" s="1" t="s">
         <v>1181</v>
       </c>
-      <c r="C391" s="1" t="s">
+      <c r="D391" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="D391" s="1" t="s">
-        <v>1183</v>
-      </c>
       <c r="E391" s="1" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B392" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C392" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="C392" s="1" t="s">
+      <c r="D392" s="1" t="s">
         <v>1185</v>
       </c>
-      <c r="D392" s="1" t="s">
-        <v>1186</v>
-      </c>
       <c r="E392" s="1" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>132</v>
@@ -13634,101 +13634,101 @@
         <v>134</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G393" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B394" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C394" s="1" t="s">
         <v>1211</v>
       </c>
-      <c r="C394" s="1" t="s">
+      <c r="D394" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="D394" s="1" t="s">
-        <v>1213</v>
-      </c>
       <c r="E394" s="1" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B395" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C395" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="C395" s="1" t="s">
+      <c r="D395" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="D395" s="1" t="s">
-        <v>1189</v>
-      </c>
       <c r="E395" s="1" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B396" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C396" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="C396" s="1" t="s">
+      <c r="D396" s="1" t="s">
         <v>1191</v>
       </c>
-      <c r="D396" s="1" t="s">
-        <v>1192</v>
-      </c>
       <c r="E396" s="1" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B397" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C397" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="C397" s="1" t="s">
+      <c r="D397" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="D397" s="1" t="s">
-        <v>1195</v>
-      </c>
       <c r="E397" s="1" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="C398" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D398" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="D398" s="1" t="s">
-        <v>471</v>
-      </c>
       <c r="E398" s="1" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.2">
@@ -13745,66 +13745,66 @@
         <v>127</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C400" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D400" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="D400" s="1" t="s">
+      <c r="E400" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="E400" s="1" t="s">
-        <v>380</v>
-      </c>
       <c r="F400" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B401" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C401" s="1" t="s">
         <v>1196</v>
       </c>
-      <c r="C401" s="1" t="s">
+      <c r="D401" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="D401" s="1" t="s">
-        <v>1198</v>
-      </c>
       <c r="E401" s="1" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>149</v>
@@ -13816,64 +13816,64 @@
         <v>151</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G403" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B404" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C404" s="1" t="s">
         <v>1199</v>
       </c>
-      <c r="C404" s="1" t="s">
+      <c r="D404" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="D404" s="1" t="s">
-        <v>1201</v>
-      </c>
       <c r="E404" s="1" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C405" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D405" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="D405" s="1" t="s">
-        <v>590</v>
-      </c>
       <c r="E405" s="1" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C406" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D406" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="D406" s="1" t="s">
+      <c r="E406" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="E406" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="F406" s="1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="407" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
@@ -13890,69 +13890,70 @@
         <v>131</v>
       </c>
       <c r="E407" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F407" s="1"/>
       <c r="G407" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="408" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B408" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C408" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="C408" s="1" t="s">
+      <c r="D408" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="D408" s="1" t="s">
-        <v>1205</v>
-      </c>
       <c r="E408" s="1" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="F408" s="1"/>
     </row>
     <row r="409" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B409" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C409" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="C409" s="1" t="s">
+      <c r="D409" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="D409" s="1" t="s">
-        <v>1208</v>
-      </c>
       <c r="E409" s="1" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="F409" s="1"/>
     </row>
     <row r="410" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B410" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D410" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="C410" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="D410" s="1" t="s">
-        <v>1210</v>
-      </c>
       <c r="E410" s="1" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="F410" s="1"/>
     </row>
     <row r="411" spans="1:7" customFormat="1" ht="16" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <autoFilter ref="A1:G410" xr:uid="{798E8544-344E-DE44-9449-CC0760697D55}"/>
   <conditionalFormatting sqref="AQ412:XFD1048576 A14 C14:F14 A391 C391:F391 A1:F13 A392:F399 A15:F390 AQ1:XFD406 A401:F410 A412:F1048576">
     <cfRule type="duplicateValues" dxfId="6" priority="9"/>
   </conditionalFormatting>

--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Edite/Documents/GitHub/Norsk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A7B94B-B7D4-FA49-BADC-94C46BC2FAB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D385D493-3F49-7A45-B5F7-2F5A3F5D619B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19160" xr2:uid="{D9759F51-050D-AD4F-8F66-76048091BB84}"/>
+    <workbookView xWindow="21120" yWindow="500" windowWidth="15380" windowHeight="18080" xr2:uid="{D9759F51-050D-AD4F-8F66-76048091BB84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="2033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="2034">
   <si>
     <t>Present tense</t>
   </si>
@@ -5882,9 +5882,6 @@
     <t>gjemmer</t>
   </si>
   <si>
-    <t>gjemmte</t>
-  </si>
-  <si>
     <t>to hide</t>
   </si>
   <si>
@@ -6147,6 +6144,12 @@
   </si>
   <si>
     <t>kostet</t>
+  </si>
+  <si>
+    <t>gjemte</t>
+  </si>
+  <si>
+    <t>har hentet</t>
   </si>
 </sst>
 </file>
@@ -6586,11 +6589,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D606EB6-DDD9-5541-BF00-985EF5E483D1}">
-  <dimension ref="A1:AP411"/>
+  <dimension ref="A1:AP415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <pane ySplit="1" topLeftCell="A328" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B334" sqref="B334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -6693,10 +6696,10 @@
         <v>392</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>1542</v>
@@ -6713,10 +6716,10 @@
         <v>152</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1542</v>
@@ -6827,7 +6830,7 @@
         <v>1938</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1937</v>
@@ -7125,13 +7128,13 @@
         <v>472</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>1854</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -7145,10 +7148,10 @@
         <v>1941</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>2019</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>2020</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>1542</v>
@@ -7293,7 +7296,7 @@
         <v>174</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -7412,7 +7415,7 @@
         <v>480</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>1513</v>
@@ -7565,7 +7568,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>1578</v>
@@ -7608,13 +7611,13 @@
         <v>19</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -8020,7 +8023,7 @@
         <v>490</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>1859</v>
@@ -8054,7 +8057,7 @@
         <v>491</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>1860</v>
@@ -8170,7 +8173,7 @@
         <v>1477</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>716</v>
@@ -8233,7 +8236,7 @@
         <v>220</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>1937</v>
@@ -8398,7 +8401,7 @@
         <v>492</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>1862</v>
@@ -8551,7 +8554,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>1942</v>
@@ -8560,10 +8563,10 @@
         <v>1943</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>1944</v>
+        <v>2032</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>1937</v>
@@ -8677,7 +8680,7 @@
         <v>495</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>1864</v>
@@ -8728,7 +8731,7 @@
         <v>498</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>1866</v>
@@ -8745,7 +8748,7 @@
         <v>502</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>1867</v>
@@ -8779,7 +8782,7 @@
         <v>499</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>1868</v>
@@ -8830,7 +8833,7 @@
         <v>779</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>1710</v>
@@ -8864,7 +8867,7 @@
         <v>500</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>1869</v>
@@ -8881,7 +8884,7 @@
         <v>501</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>1870</v>
@@ -8915,7 +8918,7 @@
         <v>503</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>1871</v>
@@ -8932,7 +8935,7 @@
         <v>504</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>1872</v>
@@ -8949,7 +8952,7 @@
         <v>505</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>1873</v>
@@ -8986,10 +8989,10 @@
         <v>240</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
@@ -9054,10 +9057,10 @@
         <v>246</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>244</v>
+        <v>2033</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>1542</v>
@@ -9074,7 +9077,7 @@
         <v>55</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>248</v>
@@ -9131,7 +9134,7 @@
         <v>506</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>1874</v>
@@ -9168,7 +9171,7 @@
         <v>507</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>1875</v>
@@ -9279,7 +9282,7 @@
         <v>508</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>1876</v>
@@ -9296,10 +9299,10 @@
         <v>254</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>1542</v>
@@ -9384,10 +9387,10 @@
         <v>264</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -9563,7 +9566,7 @@
         <v>511</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>1878</v>
@@ -9580,7 +9583,7 @@
         <v>512</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>1879</v>
@@ -9597,7 +9600,7 @@
         <v>513</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>1880</v>
@@ -9614,7 +9617,7 @@
         <v>514</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>1881</v>
@@ -9773,10 +9776,10 @@
         <v>277</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>1542</v>
@@ -9793,7 +9796,7 @@
         <v>515</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>1882</v>
@@ -9864,7 +9867,7 @@
         <v>460</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>1885</v>
@@ -10103,7 +10106,7 @@
         <v>293</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
@@ -10171,10 +10174,10 @@
         <v>296</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
@@ -10310,7 +10313,7 @@
         <v>522</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>1887</v>
@@ -10554,7 +10557,7 @@
         <v>524</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>1888</v>
@@ -10625,10 +10628,10 @@
         <v>390</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
@@ -10963,7 +10966,7 @@
         <v>322</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
@@ -11264,7 +11267,7 @@
         <v>529</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>1890</v>
@@ -11389,7 +11392,7 @@
         <v>530</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>1891</v>
@@ -11451,7 +11454,7 @@
         <v>1570</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>1571</v>
@@ -11611,7 +11614,7 @@
         <v>531</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>1892</v>
@@ -11759,7 +11762,7 @@
         <v>538</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>1792</v>
@@ -11767,19 +11770,19 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="C289" s="1" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D289" s="1" t="s">
         <v>2022</v>
       </c>
-      <c r="D289" s="1" t="s">
+      <c r="E289" s="1" t="s">
         <v>2023</v>
-      </c>
-      <c r="E289" s="1" t="s">
-        <v>2024</v>
       </c>
       <c r="F289" s="1" t="s">
         <v>1937</v>
@@ -11796,7 +11799,7 @@
         <v>539</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>1895</v>
@@ -11813,7 +11816,7 @@
         <v>540</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E291" s="1" t="s">
         <v>1896</v>
@@ -11867,7 +11870,7 @@
         <v>541</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>1897</v>
@@ -11881,7 +11884,7 @@
         <v>147</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>148</v>
@@ -11955,7 +11958,7 @@
         <v>544</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>1899</v>
@@ -11972,7 +11975,7 @@
         <v>545</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>1900</v>
@@ -12006,7 +12009,7 @@
         <v>448</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D302" s="1" t="s">
         <v>348</v>
@@ -12063,7 +12066,7 @@
         <v>549</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>1902</v>
@@ -12205,7 +12208,7 @@
         <v>552</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>1904</v>
@@ -12282,7 +12285,7 @@
         <v>1804</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.2">
@@ -12296,7 +12299,7 @@
         <v>554</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>1805</v>
@@ -12674,7 +12677,7 @@
         <v>563</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>1908</v>
@@ -12873,7 +12876,7 @@
         <v>571</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>1911</v>
@@ -12890,7 +12893,7 @@
         <v>572</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>1912</v>
@@ -12907,7 +12910,7 @@
         <v>573</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>1913</v>
@@ -12924,7 +12927,7 @@
         <v>574</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>1914</v>
@@ -13023,7 +13026,7 @@
         <v>450</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D359" s="1" t="s">
         <v>356</v>
@@ -13205,7 +13208,7 @@
         <v>581</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="E369" s="1" t="s">
         <v>1918</v>
@@ -13256,7 +13259,7 @@
         <v>466</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="E372" s="1" t="s">
         <v>1919</v>
@@ -13307,7 +13310,7 @@
         <v>584</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="E375" s="1" t="s">
         <v>1920</v>
@@ -13458,7 +13461,7 @@
         <v>375</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.2">
@@ -13472,10 +13475,10 @@
         <v>1928</v>
       </c>
       <c r="D384" s="1" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E384" s="1" t="s">
         <v>2025</v>
-      </c>
-      <c r="E384" s="1" t="s">
-        <v>2026</v>
       </c>
       <c r="F384" s="1" t="s">
         <v>1542</v>
@@ -13796,7 +13799,7 @@
         <v>587</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E402" s="1" t="s">
         <v>1925</v>
@@ -13952,8 +13955,13 @@
       <c r="F410" s="1"/>
     </row>
     <row r="411" spans="1:7" customFormat="1" ht="16" x14ac:dyDescent="0.2"/>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E415" s="1">
+        <f>LEN(E328)</f>
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G410" xr:uid="{798E8544-344E-DE44-9449-CC0760697D55}"/>
   <conditionalFormatting sqref="AQ412:XFD1048576 A14 C14:F14 A391 C391:F391 A1:F13 A392:F399 A15:F390 AQ1:XFD406 A401:F410 A412:F1048576">
     <cfRule type="duplicateValues" dxfId="6" priority="9"/>
   </conditionalFormatting>

--- a/verbs.xlsx
+++ b/verbs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Edite/Documents/GitHub/Norsk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D385D493-3F49-7A45-B5F7-2F5A3F5D619B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C1A5AF-C5A8-A04C-AC70-DA680D6A151F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21120" yWindow="500" windowWidth="15380" windowHeight="18080" xr2:uid="{D9759F51-050D-AD4F-8F66-76048091BB84}"/>
+    <workbookView xWindow="21640" yWindow="1560" windowWidth="15380" windowHeight="18080" xr2:uid="{D9759F51-050D-AD4F-8F66-76048091BB84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6591,9 +6591,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D606EB6-DDD9-5541-BF00-985EF5E483D1}">
   <dimension ref="A1:AP415"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A328" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B334" sqref="B334"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
